--- a/hor-productregistration-localization/Localization.xlsx
+++ b/hor-productregistration-localization/Localization.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pd_new\hor-productregistration-android\hor-productregistration-localization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\product_registration\hor-productregistration-android\hor-productregistration-localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="2098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="2110">
   <si>
     <t>Reference</t>
   </si>
@@ -227,9 +227,6 @@
     <t>No thanks, register later</t>
   </si>
   <si>
-    <t>All the products that are currently connceted to this app have been registered successfully!</t>
-  </si>
-  <si>
     <t>PPR_AllProducts_Registered_Lbltxt</t>
   </si>
   <si>
@@ -242,9 +239,6 @@
     <t>PPR_Connect_Your_Product_Lbltxt</t>
   </si>
   <si>
-    <t>Or register your product in the web version at www.philips.com</t>
-  </si>
-  <si>
     <t>PPR_Reg_In_Web_Lbltxt</t>
   </si>
   <si>
@@ -21191,9 +21185,6 @@
     <t>محصول قبلا ثبت نام شده است</t>
   </si>
   <si>
-    <t>If it is a connected Philips product, make sure you have connected the product to this app</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -22089,6 +22080,51 @@
   </si>
   <si>
     <t>sr-rME</t>
+  </si>
+  <si>
+    <t>- If it is a connected Philips product, make sure you have connected the product to this app</t>
+  </si>
+  <si>
+    <t>- Or register your product in the web version at www.philips.com</t>
+  </si>
+  <si>
+    <t>All the products that are currently connected to this app have been registered successfully!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPR_Continue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPR_Missing_Ctn_Title </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing CTN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPR_Missing_Ctn_ErrMsg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please enter CTN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPR_Register_Next </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register next </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPR_Back_To_List </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back to list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPR_OK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK </t>
   </si>
 </sst>
 </file>
@@ -22374,7 +22410,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -22445,6 +22481,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -27848,10 +27887,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:IW45"/>
+  <dimension ref="A1:IW50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D27" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.3984375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28048,154 +28087,154 @@
         <v>54</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1835</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>2093</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>2085</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>1836</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>1837</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>2096</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>2095</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="M2" s="4" t="s">
+        <v>1838</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>1839</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>1840</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>1841</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>1842</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>1843</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>1844</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>1845</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>2086</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>2091</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>1846</v>
+      </c>
+      <c r="X2" s="6" t="s">
         <v>2088</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>1838</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>1839</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>1840</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>1841</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>1842</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>1843</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>1844</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>1845</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>1846</v>
-      </c>
-      <c r="T2" s="5" t="s">
+      <c r="Y2" s="6" t="s">
         <v>1847</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
+        <v>1848</v>
+      </c>
+      <c r="AA2" s="6" t="s">
         <v>2089</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
+        <v>1849</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>1850</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>1851</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>1852</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>1853</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>1854</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>1858</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>1859</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>1860</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>1861</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>1862</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>1863</v>
+      </c>
+      <c r="AQ2" s="22" t="s">
         <v>2094</v>
       </c>
-      <c r="W2" s="6" t="s">
-        <v>1848</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>2091</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>1849</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>1850</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>2092</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>1851</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>1852</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>1853</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>1854</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>1855</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>1856</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>1857</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>1858</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>1859</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>1860</v>
-      </c>
-      <c r="AL2" s="6" t="s">
-        <v>1861</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>1862</v>
-      </c>
-      <c r="AN2" s="6" t="s">
-        <v>1863</v>
-      </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
+        <v>2090</v>
+      </c>
+      <c r="AS2" s="6" t="s">
         <v>1864</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>1865</v>
       </c>
-      <c r="AQ2" s="22" t="s">
-        <v>2097</v>
-      </c>
-      <c r="AR2" s="6" t="s">
-        <v>2093</v>
-      </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>1866</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AV2" s="6" t="s">
+        <v>2087</v>
+      </c>
+      <c r="AW2" s="6" t="s">
         <v>1867</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AX2" s="6" t="s">
         <v>1868</v>
       </c>
-      <c r="AV2" s="6" t="s">
-        <v>2090</v>
-      </c>
-      <c r="AW2" s="6" t="s">
+      <c r="AY2" s="7" t="s">
         <v>1869</v>
       </c>
-      <c r="AX2" s="6" t="s">
+      <c r="AZ2" s="7" t="s">
         <v>1870</v>
       </c>
-      <c r="AY2" s="7" t="s">
+      <c r="BA2" s="7" t="s">
         <v>1871</v>
       </c>
-      <c r="AZ2" s="7" t="s">
+      <c r="BB2" s="7" t="s">
         <v>1872</v>
       </c>
-      <c r="BA2" s="7" t="s">
+      <c r="BC2" s="7" t="s">
         <v>1873</v>
-      </c>
-      <c r="BB2" s="7" t="s">
-        <v>1874</v>
-      </c>
-      <c r="BC2" s="7" t="s">
-        <v>1875</v>
       </c>
       <c r="BD2" s="12"/>
       <c r="BE2" s="12"/>
@@ -28216,154 +28255,154 @@
         <v>57</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="AK3" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="AL3" s="4" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="AM3" s="4" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="AN3" s="4" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="AP3" s="4" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="AQ3" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AR3" s="4" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="AS3" s="4" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="AT3" s="4" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="AU3" s="4" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AV3" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AW3" s="4" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="AX3" s="4" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="AY3" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AZ3" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="BA3" s="4" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="BB3" s="4" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="BC3" s="4" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="BD3" s="2"/>
       <c r="BE3" s="2"/>
@@ -28382,154 +28421,154 @@
         <v>58</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="AI4" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="AJ4" s="4" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="AK4" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="AL4" s="4" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="AM4" s="4" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="AN4" s="4" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="AO4" s="4" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="AP4" s="4" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="AQ4" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AR4" s="4" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="AS4" s="4" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="AT4" s="4" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="AU4" s="4" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="AV4" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AW4" s="4" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="AX4" s="4" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="AY4" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AZ4" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="BA4" s="4" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="BB4" s="14" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="BC4" s="4" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="BD4" s="2"/>
       <c r="BE4" s="2"/>
@@ -28545,157 +28584,157 @@
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="4" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>2037</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>2038</v>
+      </c>
+      <c r="H5" s="23" t="s">
         <v>2039</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="I5" s="23" t="s">
         <v>2040</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="J5" s="23" t="s">
         <v>2041</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="K5" s="23" t="s">
         <v>2042</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="L5" s="23" t="s">
         <v>2043</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="M5" s="14" t="s">
         <v>2044</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="N5" s="23" t="s">
         <v>2045</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="O5" s="23" t="s">
         <v>2046</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="P5" s="23" t="s">
         <v>2047</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="Q5" s="23" t="s">
         <v>2048</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="R5" s="23" t="s">
         <v>2049</v>
       </c>
-      <c r="P5" s="23" t="s">
+      <c r="S5" s="23" t="s">
         <v>2050</v>
       </c>
-      <c r="Q5" s="23" t="s">
+      <c r="T5" s="23" t="s">
         <v>2051</v>
       </c>
-      <c r="R5" s="23" t="s">
+      <c r="U5" s="23" t="s">
+        <v>2036</v>
+      </c>
+      <c r="V5" s="23" t="s">
         <v>2052</v>
       </c>
-      <c r="S5" s="23" t="s">
+      <c r="W5" s="23" t="s">
         <v>2053</v>
       </c>
-      <c r="T5" s="23" t="s">
+      <c r="X5" s="23" t="s">
         <v>2054</v>
       </c>
-      <c r="U5" s="23" t="s">
-        <v>2039</v>
-      </c>
-      <c r="V5" s="23" t="s">
+      <c r="Y5" s="23" t="s">
         <v>2055</v>
       </c>
-      <c r="W5" s="23" t="s">
+      <c r="Z5" s="23" t="s">
         <v>2056</v>
       </c>
-      <c r="X5" s="23" t="s">
+      <c r="AA5" s="23" t="s">
         <v>2057</v>
       </c>
-      <c r="Y5" s="23" t="s">
+      <c r="AB5" s="23" t="s">
         <v>2058</v>
       </c>
-      <c r="Z5" s="23" t="s">
+      <c r="AC5" s="23" t="s">
         <v>2059</v>
       </c>
-      <c r="AA5" s="23" t="s">
+      <c r="AD5" s="23" t="s">
         <v>2060</v>
       </c>
-      <c r="AB5" s="23" t="s">
+      <c r="AE5" s="23" t="s">
         <v>2061</v>
       </c>
-      <c r="AC5" s="23" t="s">
+      <c r="AF5" s="23" t="s">
         <v>2062</v>
       </c>
-      <c r="AD5" s="23" t="s">
+      <c r="AG5" s="23" t="s">
         <v>2063</v>
       </c>
-      <c r="AE5" s="23" t="s">
+      <c r="AH5" s="23" t="s">
         <v>2064</v>
       </c>
-      <c r="AF5" s="23" t="s">
+      <c r="AI5" s="23" t="s">
         <v>2065</v>
       </c>
-      <c r="AG5" s="23" t="s">
+      <c r="AJ5" s="23" t="s">
         <v>2066</v>
       </c>
-      <c r="AH5" s="23" t="s">
+      <c r="AK5" s="23" t="s">
         <v>2067</v>
       </c>
-      <c r="AI5" s="23" t="s">
+      <c r="AL5" s="23" t="s">
         <v>2068</v>
       </c>
-      <c r="AJ5" s="23" t="s">
+      <c r="AM5" s="23" t="s">
         <v>2069</v>
       </c>
-      <c r="AK5" s="23" t="s">
+      <c r="AN5" s="23" t="s">
         <v>2070</v>
       </c>
-      <c r="AL5" s="23" t="s">
+      <c r="AO5" s="23" t="s">
         <v>2071</v>
       </c>
-      <c r="AM5" s="23" t="s">
+      <c r="AP5" s="23" t="s">
         <v>2072</v>
       </c>
-      <c r="AN5" s="23" t="s">
+      <c r="AQ5" s="23" t="s">
         <v>2073</v>
       </c>
-      <c r="AO5" s="23" t="s">
+      <c r="AR5" s="23" t="s">
         <v>2074</v>
       </c>
-      <c r="AP5" s="23" t="s">
+      <c r="AS5" s="23" t="s">
         <v>2075</v>
       </c>
-      <c r="AQ5" s="23" t="s">
+      <c r="AT5" s="23" t="s">
         <v>2076</v>
       </c>
-      <c r="AR5" s="23" t="s">
+      <c r="AU5" s="23" t="s">
         <v>2077</v>
       </c>
-      <c r="AS5" s="23" t="s">
+      <c r="AV5" s="23" t="s">
+        <v>2054</v>
+      </c>
+      <c r="AW5" s="23" t="s">
         <v>2078</v>
       </c>
-      <c r="AT5" s="23" t="s">
+      <c r="AX5" s="23" t="s">
         <v>2079</v>
       </c>
-      <c r="AU5" s="23" t="s">
+      <c r="AY5" s="23" t="s">
         <v>2080</v>
       </c>
-      <c r="AV5" s="23" t="s">
-        <v>2057</v>
-      </c>
-      <c r="AW5" s="23" t="s">
+      <c r="AZ5" s="23" t="s">
         <v>2081</v>
       </c>
-      <c r="AX5" s="23" t="s">
+      <c r="BA5" s="23" t="s">
         <v>2082</v>
       </c>
-      <c r="AY5" s="23" t="s">
+      <c r="BB5" s="14" t="s">
         <v>2083</v>
       </c>
-      <c r="AZ5" s="23" t="s">
+      <c r="BC5" s="23" t="s">
         <v>2084</v>
-      </c>
-      <c r="BA5" s="23" t="s">
-        <v>2085</v>
-      </c>
-      <c r="BB5" s="14" t="s">
-        <v>2086</v>
-      </c>
-      <c r="BC5" s="23" t="s">
-        <v>2087</v>
       </c>
       <c r="BD5" s="2"/>
       <c r="BE5" s="2"/>
@@ -28716,154 +28755,154 @@
         <v>64</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AG6" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AJ6" s="4" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="AK6" s="4" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="AM6" s="4" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AO6" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AP6" s="4" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="AQ6" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AR6" s="4" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="AS6" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AT6" s="4" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="AU6" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AV6" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="AY6" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AZ6" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="BA6" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="BB6" s="4" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="BC6" s="4" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="BD6" s="2"/>
       <c r="BE6" s="2"/>
@@ -28884,805 +28923,805 @@
         <v>65</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AF7" s="4" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AG7" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AI7" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AJ7" s="4" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="AK7" s="4" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="AL7" s="4" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="AM7" s="4" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="AO7" s="4" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="AP7" s="4" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="AQ7" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AR7" s="4" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="AS7" s="4" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="AT7" s="4" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="AU7" s="4" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="AV7" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AW7" s="4" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="AX7" s="4" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="AY7" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AZ7" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="BA7" s="4" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="BB7" s="4" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="BC7" s="4" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="8" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="4" t="s">
-        <v>66</v>
+        <v>2097</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AG8" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AI8" s="4" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="AJ8" s="4" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="AK8" s="4" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="AL8" s="4" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="AM8" s="4" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="AN8" s="4" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="AO8" s="4" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="AP8" s="4" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="AQ8" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AR8" s="4" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="AS8" s="4" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="AT8" s="4" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="AU8" s="4" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="AV8" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AW8" s="4" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="AX8" s="4" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="AY8" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AZ8" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="BA8" s="4" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="BB8" s="14" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="BC8" s="4" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="9" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AF9" s="4" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AG9" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AI9" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="AJ9" s="4" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="AK9" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="AL9" s="4" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="AM9" s="4" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="AN9" s="4" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="AO9" s="4" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="AP9" s="4" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="AQ9" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AR9" s="4" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="AS9" s="4" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="AT9" s="4" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="AU9" s="4" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="AV9" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AW9" s="4" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="AX9" s="4" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="AY9" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AZ9" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="BA9" s="4" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="BB9" s="14" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="BC9" s="4" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="10" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="4" t="s">
+        <v>2095</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>1952</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>1953</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>1954</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>1955</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>1956</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>1957</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>1958</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="M10" s="14" t="s">
+        <v>1880</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>1959</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>1960</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>1961</v>
       </c>
-      <c r="M10" s="14" t="s">
-        <v>1882</v>
-      </c>
-      <c r="N10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>1962</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>1963</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="S10" s="4" t="s">
         <v>1964</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="T10" s="4" t="s">
         <v>1965</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="U10" s="4" t="s">
         <v>1966</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="V10" s="4" t="s">
         <v>1967</v>
       </c>
-      <c r="T10" s="4" t="s">
+      <c r="W10" s="4" t="s">
         <v>1968</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="X10" s="4" t="s">
         <v>1969</v>
       </c>
-      <c r="V10" s="4" t="s">
+      <c r="Y10" s="4" t="s">
         <v>1970</v>
       </c>
-      <c r="W10" s="4" t="s">
+      <c r="Z10" s="4" t="s">
         <v>1971</v>
       </c>
-      <c r="X10" s="4" t="s">
+      <c r="AA10" s="4" t="s">
         <v>1972</v>
       </c>
-      <c r="Y10" s="4" t="s">
+      <c r="AB10" s="4" t="s">
         <v>1973</v>
       </c>
-      <c r="Z10" s="4" t="s">
+      <c r="AC10" s="4" t="s">
         <v>1974</v>
       </c>
-      <c r="AA10" s="4" t="s">
+      <c r="AD10" s="4" t="s">
         <v>1975</v>
       </c>
-      <c r="AB10" s="4" t="s">
+      <c r="AE10" s="4" t="s">
         <v>1976</v>
       </c>
-      <c r="AC10" s="4" t="s">
+      <c r="AF10" s="4" t="s">
         <v>1977</v>
       </c>
-      <c r="AD10" s="4" t="s">
+      <c r="AG10" s="4" t="s">
         <v>1978</v>
       </c>
-      <c r="AE10" s="4" t="s">
+      <c r="AH10" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="AI10" s="4" t="s">
         <v>1979</v>
       </c>
-      <c r="AF10" s="4" t="s">
+      <c r="AJ10" s="4" t="s">
         <v>1980</v>
       </c>
-      <c r="AG10" s="4" t="s">
+      <c r="AK10" s="4" t="s">
         <v>1981</v>
       </c>
-      <c r="AH10" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="AI10" s="4" t="s">
+      <c r="AL10" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="AJ10" s="4" t="s">
+      <c r="AM10" s="4" t="s">
         <v>1983</v>
       </c>
-      <c r="AK10" s="4" t="s">
+      <c r="AN10" s="4" t="s">
         <v>1984</v>
       </c>
-      <c r="AL10" s="4" t="s">
+      <c r="AO10" s="4" t="s">
         <v>1985</v>
       </c>
-      <c r="AM10" s="4" t="s">
+      <c r="AP10" s="4" t="s">
         <v>1986</v>
       </c>
-      <c r="AN10" s="4" t="s">
+      <c r="AQ10" s="4" t="s">
         <v>1987</v>
       </c>
-      <c r="AO10" s="4" t="s">
+      <c r="AR10" s="4" t="s">
         <v>1988</v>
       </c>
-      <c r="AP10" s="4" t="s">
+      <c r="AS10" s="4" t="s">
         <v>1989</v>
       </c>
-      <c r="AQ10" s="4" t="s">
+      <c r="AT10" s="4" t="s">
         <v>1990</v>
       </c>
-      <c r="AR10" s="4" t="s">
+      <c r="AU10" s="4" t="s">
         <v>1991</v>
       </c>
-      <c r="AS10" s="4" t="s">
+      <c r="AV10" s="4" t="s">
+        <v>1969</v>
+      </c>
+      <c r="AW10" s="4" t="s">
         <v>1992</v>
       </c>
-      <c r="AT10" s="4" t="s">
+      <c r="AX10" s="4" t="s">
         <v>1993</v>
       </c>
-      <c r="AU10" s="4" t="s">
+      <c r="AY10" s="4" t="s">
         <v>1994</v>
       </c>
-      <c r="AV10" s="4" t="s">
-        <v>1972</v>
-      </c>
-      <c r="AW10" s="4" t="s">
+      <c r="AZ10" s="4" t="s">
         <v>1995</v>
       </c>
-      <c r="AX10" s="4" t="s">
+      <c r="BA10" s="4" t="s">
         <v>1996</v>
       </c>
-      <c r="AY10" s="4" t="s">
+      <c r="BB10" s="14" t="s">
+        <v>1919</v>
+      </c>
+      <c r="BC10" s="4" t="s">
         <v>1997</v>
-      </c>
-      <c r="AZ10" s="4" t="s">
-        <v>1998</v>
-      </c>
-      <c r="BA10" s="4" t="s">
-        <v>1999</v>
-      </c>
-      <c r="BB10" s="14" t="s">
-        <v>1921</v>
-      </c>
-      <c r="BC10" s="4" t="s">
-        <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="4" t="s">
-        <v>71</v>
+        <v>2096</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AD11" s="4" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AG11" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AH11" s="4" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AI11" s="4" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="AJ11" s="4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="AK11" s="4" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AL11" s="4" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="AM11" s="4" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="AN11" s="4" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="AO11" s="4" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="AP11" s="4" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="AQ11" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AR11" s="4" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="AS11" s="4" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="AT11" s="4" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="AU11" s="4" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="AV11" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AW11" s="4" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="AX11" s="4" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="AY11" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AZ11" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="BA11" s="4" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="BB11" s="14" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="BC11" s="4" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="12" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" s="8">
         <v>22</v>
@@ -29691,5318 +29730,5322 @@
         <v>55</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AD12" s="4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AG12" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AH12" s="4" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="AI12" s="4" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="AJ12" s="4" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="AK12" s="4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AL12" s="4" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="AM12" s="4" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="AN12" s="4" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="AO12" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AP12" s="4" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="AQ12" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AR12" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="AS12" s="4" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="AT12" s="4" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="AU12" s="4" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="AV12" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AW12" s="4" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="AX12" s="4" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="AY12" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AZ12" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="BA12" s="4" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="BB12" s="4" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="BC12" s="4" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="13" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D13" s="8">
         <v>22</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AD13" s="4" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG13" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AH13" s="4" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="AI13" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AJ13" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="AK13" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AL13" s="4" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="AM13" s="4" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="AN13" s="4" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="AO13" s="4" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="AP13" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AQ13" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AR13" s="4" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="AS13" s="4" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="AT13" s="4" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="AU13" s="4" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="AV13" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AW13" s="4" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="AX13" s="4" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="AY13" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AZ13" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="BA13" s="4" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="BB13" s="4" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="BC13" s="4" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="14" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="Y14" s="4" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AD14" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AF14" s="4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AG14" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AH14" s="4" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AI14" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="AJ14" s="4" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="AK14" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AL14" s="4" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="AM14" s="4" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="AN14" s="4" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="AO14" s="4" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="AP14" s="4" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="AQ14" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AR14" s="4" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="AS14" s="4" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="AT14" s="4" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="AU14" s="4" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="AV14" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AW14" s="4" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="AX14" s="4" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="AY14" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AZ14" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="BA14" s="4" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="BB14" s="14" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="BC14" s="4" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="15" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AD15" s="4" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AF15" s="4" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AG15" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AH15" s="4" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AI15" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AJ15" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="AK15" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AL15" s="4" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="AM15" s="4" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="AN15" s="4" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="AO15" s="4" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="AP15" s="4" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="AQ15" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AR15" s="4" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="AS15" s="4" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="AT15" s="4" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="AU15" s="4" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="AV15" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AW15" s="4" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="AX15" s="4" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="AY15" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AZ15" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="BA15" s="4" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="BB15" s="14" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="BC15" s="4" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="16" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="Z16" s="4" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AC16" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AD16" s="4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="AG16" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AH16" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="AI16" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AJ16" s="4" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="AK16" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AL16" s="4" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="AM16" s="4" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="AN16" s="4" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="AO16" s="4" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="AP16" s="4" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="AQ16" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AR16" s="4" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="AS16" s="4" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="AT16" s="4" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="AU16" s="4" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="AV16" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AW16" s="4" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="AX16" s="4" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="AY16" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AZ16" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="BA16" s="4" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="BB16" s="14" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="BC16" s="4" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="17" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="W17" s="4" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="Y17" s="4" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="Z17" s="4" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AC17" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AD17" s="4" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AF17" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AG17" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AH17" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AI17" s="4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="AJ17" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="AK17" s="4" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="AL17" s="4" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="AM17" s="4" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="AN17" s="4" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="AO17" s="4" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="AP17" s="4" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="AQ17" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AR17" s="4" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="AS17" s="4" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="AT17" s="4" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="AU17" s="4" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="AV17" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AW17" s="4" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="AX17" s="4" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="AY17" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AZ17" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="BA17" s="4" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="BB17" s="14" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="BC17" s="4" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="18" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="W18" s="4" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="Y18" s="4" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="Z18" s="4" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="AB18" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AC18" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AD18" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AF18" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AG18" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AH18" s="4" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AI18" s="4" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="AJ18" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="AK18" s="4" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="AL18" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AM18" s="4" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="AN18" s="4" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="AO18" s="4" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="AP18" s="4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="AQ18" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AR18" s="4" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="AS18" s="4" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="AT18" s="4" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="AU18" s="4" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="AV18" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AW18" s="4" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="AX18" s="4" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="AY18" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AZ18" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="BA18" s="4" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="BB18" s="14" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="BC18" s="4" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="19" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="Y19" s="4" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="Z19" s="4" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="AB19" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AC19" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AD19" s="4" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="AG19" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AH19" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="AI19" s="4" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="AJ19" s="4" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AK19" s="4" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="AL19" s="4" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="AM19" s="4" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="AN19" s="4" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="AO19" s="4" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="AP19" s="4" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="AQ19" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AR19" s="4" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AS19" s="4" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="AT19" s="4" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="AU19" s="4" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="AV19" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AW19" s="4" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="AX19" s="4" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="AY19" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AZ19" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="BA19" s="4" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="BB19" s="14" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="BC19" s="4" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="20" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="V20" s="4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Y20" s="4" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="Z20" s="4" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="AB20" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AC20" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AD20" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AF20" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AG20" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AH20" s="4" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="AI20" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="AJ20" s="4" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="AK20" s="4" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="AL20" s="4" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="AM20" s="4" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="AN20" s="4" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="AO20" s="4" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="AP20" s="4" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="AQ20" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AR20" s="4" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="AS20" s="4" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="AT20" s="4" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="AU20" s="4" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="AV20" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AW20" s="4" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="AX20" s="4" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="AY20" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AZ20" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="BA20" s="4" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="BB20" s="14" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="BC20" s="4" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="21" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="V21" s="4" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="W21" s="4" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="Y21" s="4" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="Z21" s="4" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="AB21" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AC21" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AD21" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AE21" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AF21" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="AG21" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AH21" s="4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="AI21" s="4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="AJ21" s="4" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="AK21" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="AL21" s="4" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="AM21" s="4" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="AN21" s="4" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="AO21" s="4" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="AP21" s="4" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="AQ21" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AR21" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="AS21" s="4" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="AT21" s="4" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="AU21" s="4" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="AV21" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AW21" s="4" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="AX21" s="4" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="AY21" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AZ21" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="BA21" s="4" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="BB21" s="14" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="BC21" s="4" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="22" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="Y22" s="4" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="Z22" s="4" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="AB22" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AC22" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AD22" s="4" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="AE22" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AF22" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="AG22" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AH22" s="4" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="AI22" s="4" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="AJ22" s="4" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="AK22" s="4" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="AL22" s="4" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="AM22" s="4" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="AN22" s="4" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="AO22" s="4" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="AP22" s="4" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="AQ22" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AR22" s="4" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="AS22" s="4" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="AT22" s="4" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="AU22" s="4" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="AV22" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AW22" s="4" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="AX22" s="4" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="AY22" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AZ22" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="BA22" s="4" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="BB22" s="14" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="BC22" s="4" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="23" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="V23" s="4" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="W23" s="4" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="Y23" s="4" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="Z23" s="4" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="AA23" s="4" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="AB23" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AC23" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AD23" s="4" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="AE23" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AF23" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AG23" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AH23" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AI23" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="AJ23" s="4" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="AK23" s="4" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="AL23" s="4" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="AM23" s="4" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AN23" s="4" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="AO23" s="4" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="AP23" s="4" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="AQ23" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AR23" s="4" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="AS23" s="4" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="AT23" s="4" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="AU23" s="4" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="AV23" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AW23" s="4" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="AX23" s="4" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="AY23" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AZ23" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="BA23" s="4" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="BB23" s="14" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="BC23" s="4" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="24" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="S24" s="4" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="U24" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="V24" s="4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="W24" s="4" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="Y24" s="4" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="Z24" s="4" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="AB24" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AC24" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AD24" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AE24" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AF24" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AG24" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AH24" s="4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AI24" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="AJ24" s="4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="AK24" s="4" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="AL24" s="4" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="AM24" s="4" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="AN24" s="4" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="AO24" s="4" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="AP24" s="4" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="AQ24" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AR24" s="4" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="AS24" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AT24" s="4" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="AU24" s="4" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="AV24" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AW24" s="4" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="AX24" s="4" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="AY24" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AZ24" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="BA24" s="4" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="BB24" s="14" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="BC24" s="4" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="25" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="V25" s="4" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="W25" s="4" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="Y25" s="4" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="Z25" s="4" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="AB25" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AC25" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AD25" s="4" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="AE25" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AF25" s="4" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AG25" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AH25" s="4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="AI25" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="AJ25" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="AK25" s="4" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="AL25" s="4" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="AM25" s="4" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AN25" s="4" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="AO25" s="4" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="AP25" s="4" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="AQ25" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AR25" s="4" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="AS25" s="4" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="AT25" s="4" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="AU25" s="4" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="AV25" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AW25" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="AX25" s="4" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="AY25" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AZ25" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="BA25" s="4" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="BB25" s="14" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="BC25" s="4" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="26" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="S26" s="4" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="V26" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="W26" s="4" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="X26" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="Y26" s="4" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="Z26" s="4" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="AB26" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AC26" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AD26" s="4" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="AE26" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AF26" s="4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="AG26" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AH26" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AI26" s="4" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="AJ26" s="4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="AK26" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="AL26" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="AM26" s="4" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="AN26" s="4" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="AO26" s="4" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="AP26" s="4" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="AQ26" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AR26" s="4" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="AS26" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AT26" s="4" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="AU26" s="4" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="AV26" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AW26" s="4" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="AX26" s="4" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="AY26" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AZ26" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="BA26" s="4" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="BB26" s="14" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="BC26" s="4" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="27" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="M27" s="14" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="U27" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="V27" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="W27" s="4" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="X27" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="Y27" s="4" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="Z27" s="4" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="AA27" s="4" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="AB27" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AC27" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AD27" s="4" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="AE27" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AF27" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="AG27" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AH27" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="AI27" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="AJ27" s="4" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="AK27" s="4" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="AL27" s="4" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="AM27" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AN27" s="4" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="AO27" s="4" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="AP27" s="4" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="AQ27" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AR27" s="4" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="AS27" s="4" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="AT27" s="4" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="AU27" s="4" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="AV27" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AW27" s="4" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="AX27" s="4" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="AY27" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AZ27" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="BA27" s="4" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="BB27" s="14" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="BC27" s="4" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="28" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="U28" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="V28" s="4" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="W28" s="4" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="Y28" s="4" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="Z28" s="4" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="AA28" s="4" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="AB28" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AC28" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AD28" s="4" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="AE28" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AF28" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="AG28" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AH28" s="4" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AI28" s="4" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="AJ28" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="AK28" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="AL28" s="4" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="AM28" s="4" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="AN28" s="4" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="AO28" s="4" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="AP28" s="4" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="AQ28" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AR28" s="4" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="AS28" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AT28" s="4" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="AU28" s="4" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="AV28" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AW28" s="4" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="AX28" s="4" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="AY28" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AZ28" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="BA28" s="4" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="BB28" s="14" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="BC28" s="4" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="29" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="L29" s="20" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="N29" s="20" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="O29" s="20" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="P29" s="20" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="Q29" s="20" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="R29" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="S29" s="20" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="T29" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="U29" s="20" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V29" s="20" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="W29" s="20" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="X29" s="20" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="Y29" s="20" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="Z29" s="20" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="AA29" s="20" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="AB29" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AC29" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AD29" s="20" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="AE29" s="20" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AF29" s="20" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="AG29" s="20" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AH29" s="20" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AI29" s="20" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="AJ29" s="20" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="AK29" s="20" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="AL29" s="20" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="AM29" s="20" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="AN29" s="20" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="AO29" s="20" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="AP29" s="20" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="AQ29" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AR29" s="20" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="AS29" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AT29" s="20" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="AU29" s="20" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="AV29" s="20" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AW29" s="20" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="AX29" s="20" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="AY29" s="20" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AZ29" s="20" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="BA29" s="20" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="BB29" s="14" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="BC29" s="20" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="30" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="L30" s="20" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="N30" s="20" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="O30" s="20" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="P30" s="20" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="Q30" s="20" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="R30" s="20" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="S30" s="20" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="T30" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="U30" s="20" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="V30" s="20" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="W30" s="20" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="X30" s="20" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="Y30" s="20" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="Z30" s="20" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="AA30" s="20" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="AB30" s="20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AC30" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AD30" s="20" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="AE30" s="20" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="AF30" s="20" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="AG30" s="20" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AH30" s="20" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="AI30" s="20" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="AJ30" s="20" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="AK30" s="20" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="AL30" s="20" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="AM30" s="20" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="AN30" s="20" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="AO30" s="20" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="AP30" s="20" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="AQ30" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AR30" s="20" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="AS30" s="20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AT30" s="20" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="AU30" s="20" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="AV30" s="20" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AW30" s="20" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="AX30" s="20" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="AY30" s="20" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AZ30" s="20" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="BA30" s="20" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="BB30" s="14" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="BC30" s="20" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="31" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="I31" s="20" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L31" s="20" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="N31" s="20" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="O31" s="20" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="P31" s="20" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="Q31" s="20" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="R31" s="20" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S31" s="20" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="T31" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="U31" s="20" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="V31" s="20" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="W31" s="20" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="X31" s="20" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="Y31" s="20" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="Z31" s="20" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AA31" s="20" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="AB31" s="20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AC31" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AD31" s="20" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="AE31" s="20" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AF31" s="20" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AG31" s="20" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AH31" s="20" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="AI31" s="20" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="AJ31" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AK31" s="20" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="AL31" s="20" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="AM31" s="20" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="AN31" s="20" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="AO31" s="20" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="AP31" s="20" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="AQ31" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AR31" s="20" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="AS31" s="20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AT31" s="20" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="AU31" s="20" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="AV31" s="20" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AW31" s="20" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="AX31" s="20" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="AY31" s="20" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AZ31" s="20" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="BA31" s="20" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="BB31" s="14" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="BC31" s="20" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="32" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="V32" s="4" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="W32" s="4" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="X32" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Y32" s="4" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="Z32" s="4" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="AA32" s="4" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="AB32" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AC32" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AD32" s="4" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="AE32" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AF32" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="AG32" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AH32" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AI32" s="4" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="AJ32" s="4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="AK32" s="4" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="AL32" s="4" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="AM32" s="4" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="AN32" s="4" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="AO32" s="4" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="AP32" s="4" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="AQ32" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AR32" s="4" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="AS32" s="4" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="AT32" s="4" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="AU32" s="4" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="AV32" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AW32" s="4" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="AX32" s="4" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="AY32" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AZ32" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="BA32" s="4" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="BB32" s="14" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="BC32" s="4" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="33" spans="1:55" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="V33" s="4" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="W33" s="4" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="X33" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="Y33" s="4" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="Z33" s="4" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="AB33" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AC33" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AD33" s="4" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="AE33" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AF33" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="AG33" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AH33" s="4" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AI33" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="AJ33" s="4" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="AK33" s="4" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="AL33" s="4" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="AM33" s="4" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="AN33" s="4" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="AO33" s="4" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="AP33" s="4" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="AQ33" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AR33" s="4" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="AS33" s="4" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="AT33" s="4" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="AU33" s="4" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="AV33" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AW33" s="4" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="AX33" s="4" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="AY33" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AZ33" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="BA33" s="4" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="BB33" s="14" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="BC33" s="4" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="34" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="S34" s="4" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="V34" s="4" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="W34" s="4" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="X34" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="Y34" s="4" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="Z34" s="4" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="AA34" s="4" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="AB34" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AC34" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AD34" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="AE34" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AF34" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="AG34" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AH34" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AI34" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="AJ34" s="4" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="AK34" s="4" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="AL34" s="4" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="AM34" s="4" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="AN34" s="4" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AO34" s="4" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="AP34" s="4" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="AQ34" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AR34" s="4" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="AS34" s="4" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="AT34" s="4" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="AU34" s="4" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="AV34" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AW34" s="4" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="AX34" s="4" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="AY34" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AZ34" s="4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="BA34" s="4" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="BB34" s="14" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="BC34" s="4" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="35" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="N35" s="20" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="O35" s="20" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="P35" s="20" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="Q35" s="20" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="R35" s="20" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="S35" s="20" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="T35" s="20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="U35" s="20" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="V35" s="20" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="W35" s="20" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="X35" s="20" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="Y35" s="20" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="Z35" s="20" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="AA35" s="20" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="AB35" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AC35" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AD35" s="20" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="AE35" s="20" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AF35" s="20" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="AG35" s="20" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AH35" s="20" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AI35" s="20" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="AJ35" s="20" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="AK35" s="20" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AL35" s="20" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="AM35" s="20" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="AN35" s="20" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="AO35" s="20" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="AP35" s="20" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="AQ35" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AR35" s="20" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="AS35" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AT35" s="20" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="AU35" s="20" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="AV35" s="20" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AW35" s="20" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="AX35" s="20" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="AY35" s="20" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AZ35" s="20" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="BA35" s="20" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="BB35" s="14" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="BC35" s="20" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="36" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="K36" s="17" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="L36" s="17" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="M36" s="19" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="N36" s="17" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="O36" s="17" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="P36" s="17" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="Q36" s="17" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="R36" s="17" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="S36" s="17" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="T36" s="17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="U36" s="17" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="V36" s="17" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="W36" s="17" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="X36" s="17" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="Y36" s="17" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="Z36" s="17" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="AA36" s="17" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AB36" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AC36" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AD36" s="17" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="AE36" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AF36" s="17" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="AG36" s="17" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AH36" s="17" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="AI36" s="17" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="AJ36" s="17" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="AK36" s="17" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AL36" s="17" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="AM36" s="17" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="AN36" s="17" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="AO36" s="17" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="AP36" s="17" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="AQ36" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AR36" s="17" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="AS36" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AT36" s="17" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="AU36" s="17" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="AV36" s="17" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AW36" s="17" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="AX36" s="17" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="AY36" s="17" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AZ36" s="17" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="BA36" s="17" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="BB36" s="19" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="BC36" s="17" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="37" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="18">
         <v>17</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="S37" s="4" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="V37" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="W37" s="4" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="X37" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Y37" s="4" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="Z37" s="4" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="AA37" s="4" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="AB37" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AC37" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AD37" s="4" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="AE37" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AF37" s="4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="AG37" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AH37" s="4" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="AI37" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="AJ37" s="4" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="AK37" s="4" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="AL37" s="4" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="AM37" s="4" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="AN37" s="4" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="AO37" s="4" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="AP37" s="4" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="AQ37" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AR37" s="4" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="AS37" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AT37" s="4" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="AU37" s="4" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="AV37" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AW37" s="4" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="AX37" s="4" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="AY37" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AZ37" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="BA37" s="4" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="BB37" s="4" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="BC37" s="4" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="38" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="K38" s="17" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L38" s="17" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="M38" s="19" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="N38" s="17" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="O38" s="17" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="P38" s="17" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="Q38" s="17" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="R38" s="17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S38" s="17" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="T38" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="U38" s="17" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="V38" s="17" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="W38" s="17" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="X38" s="17" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="Y38" s="17" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="Z38" s="17" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AA38" s="17" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="AB38" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AC38" s="17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AD38" s="17" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="AE38" s="17" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AF38" s="17" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AG38" s="17" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AH38" s="17" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="AI38" s="17" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="AJ38" s="17" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AK38" s="17" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="AL38" s="17" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="AM38" s="17" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="AN38" s="17" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="AO38" s="17" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="AP38" s="17" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="AQ38" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AR38" s="17" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="AS38" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AT38" s="17" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="AU38" s="17" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="AV38" s="17" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AW38" s="17" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="AX38" s="17" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="AY38" s="17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AZ38" s="17" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="BA38" s="17" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="BB38" s="19" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="BC38" s="17" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="39" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" s="16"/>
       <c r="C39" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="17" t="s">
+        <v>2000</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>2001</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>2002</v>
+      </c>
+      <c r="H39" s="17" t="s">
         <v>2003</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="I39" s="17" t="s">
         <v>2004</v>
       </c>
-      <c r="G39" s="17" t="s">
+      <c r="J39" s="17" t="s">
+        <v>2004</v>
+      </c>
+      <c r="K39" s="17" t="s">
         <v>2005</v>
       </c>
-      <c r="H39" s="17" t="s">
+      <c r="L39" s="17" t="s">
+        <v>1999</v>
+      </c>
+      <c r="M39" s="19" t="s">
+        <v>1998</v>
+      </c>
+      <c r="N39" s="17" t="s">
         <v>2006</v>
       </c>
-      <c r="I39" s="17" t="s">
+      <c r="O39" s="17" t="s">
         <v>2007</v>
       </c>
-      <c r="J39" s="17" t="s">
+      <c r="P39" s="17" t="s">
+        <v>2008</v>
+      </c>
+      <c r="Q39" s="17" t="s">
+        <v>2009</v>
+      </c>
+      <c r="R39" s="17" t="s">
+        <v>2010</v>
+      </c>
+      <c r="S39" s="17" t="s">
+        <v>2011</v>
+      </c>
+      <c r="T39" s="17" t="s">
+        <v>2012</v>
+      </c>
+      <c r="U39" s="17" t="s">
+        <v>2000</v>
+      </c>
+      <c r="V39" s="17" t="s">
+        <v>2013</v>
+      </c>
+      <c r="W39" s="17" t="s">
+        <v>2014</v>
+      </c>
+      <c r="X39" s="17" t="s">
+        <v>2015</v>
+      </c>
+      <c r="Y39" s="17" t="s">
+        <v>2016</v>
+      </c>
+      <c r="Z39" s="17" t="s">
         <v>2007</v>
       </c>
-      <c r="K39" s="17" t="s">
-        <v>2008</v>
-      </c>
-      <c r="L39" s="17" t="s">
-        <v>2002</v>
-      </c>
-      <c r="M39" s="19" t="s">
-        <v>2001</v>
-      </c>
-      <c r="N39" s="17" t="s">
-        <v>2009</v>
-      </c>
-      <c r="O39" s="17" t="s">
-        <v>2010</v>
-      </c>
-      <c r="P39" s="17" t="s">
-        <v>2011</v>
-      </c>
-      <c r="Q39" s="17" t="s">
+      <c r="AA39" s="17" t="s">
+        <v>2017</v>
+      </c>
+      <c r="AB39" s="17" t="s">
+        <v>2018</v>
+      </c>
+      <c r="AC39" s="17" t="s">
+        <v>2019</v>
+      </c>
+      <c r="AD39" s="17" t="s">
+        <v>2018</v>
+      </c>
+      <c r="AE39" s="17" t="s">
+        <v>2020</v>
+      </c>
+      <c r="AF39" s="17" t="s">
+        <v>2021</v>
+      </c>
+      <c r="AG39" s="17" t="s">
+        <v>2022</v>
+      </c>
+      <c r="AH39" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="AI39" s="17" t="s">
+        <v>2023</v>
+      </c>
+      <c r="AJ39" s="17" t="s">
+        <v>2024</v>
+      </c>
+      <c r="AK39" s="17" t="s">
+        <v>2025</v>
+      </c>
+      <c r="AL39" s="17" t="s">
+        <v>2026</v>
+      </c>
+      <c r="AM39" s="17" t="s">
+        <v>2027</v>
+      </c>
+      <c r="AN39" s="17" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AO39" s="17" t="s">
+        <v>2029</v>
+      </c>
+      <c r="AP39" s="17" t="s">
+        <v>2000</v>
+      </c>
+      <c r="AQ39" s="17" t="s">
+        <v>2018</v>
+      </c>
+      <c r="AR39" s="17" t="s">
+        <v>2000</v>
+      </c>
+      <c r="AS39" s="17" t="s">
+        <v>2018</v>
+      </c>
+      <c r="AT39" s="17" t="s">
         <v>2012</v>
       </c>
-      <c r="R39" s="17" t="s">
-        <v>2013</v>
-      </c>
-      <c r="S39" s="17" t="s">
-        <v>2014</v>
-      </c>
-      <c r="T39" s="17" t="s">
+      <c r="AU39" s="17" t="s">
+        <v>2030</v>
+      </c>
+      <c r="AV39" s="17" t="s">
         <v>2015</v>
       </c>
-      <c r="U39" s="17" t="s">
-        <v>2003</v>
-      </c>
-      <c r="V39" s="17" t="s">
-        <v>2016</v>
-      </c>
-      <c r="W39" s="17" t="s">
-        <v>2017</v>
-      </c>
-      <c r="X39" s="17" t="s">
-        <v>2018</v>
-      </c>
-      <c r="Y39" s="17" t="s">
-        <v>2019</v>
-      </c>
-      <c r="Z39" s="17" t="s">
-        <v>2010</v>
-      </c>
-      <c r="AA39" s="17" t="s">
-        <v>2020</v>
-      </c>
-      <c r="AB39" s="17" t="s">
-        <v>2021</v>
-      </c>
-      <c r="AC39" s="17" t="s">
-        <v>2022</v>
-      </c>
-      <c r="AD39" s="17" t="s">
-        <v>2021</v>
-      </c>
-      <c r="AE39" s="17" t="s">
-        <v>2023</v>
-      </c>
-      <c r="AF39" s="17" t="s">
-        <v>2024</v>
-      </c>
-      <c r="AG39" s="17" t="s">
-        <v>2025</v>
-      </c>
-      <c r="AH39" s="17" t="s">
-        <v>714</v>
-      </c>
-      <c r="AI39" s="17" t="s">
-        <v>2026</v>
-      </c>
-      <c r="AJ39" s="17" t="s">
-        <v>2027</v>
-      </c>
-      <c r="AK39" s="17" t="s">
-        <v>2028</v>
-      </c>
-      <c r="AL39" s="17" t="s">
-        <v>2029</v>
-      </c>
-      <c r="AM39" s="17" t="s">
-        <v>2030</v>
-      </c>
-      <c r="AN39" s="17" t="s">
+      <c r="AW39" s="17" t="s">
         <v>2031</v>
       </c>
-      <c r="AO39" s="17" t="s">
+      <c r="AX39" s="17" t="s">
         <v>2032</v>
       </c>
-      <c r="AP39" s="17" t="s">
-        <v>2003</v>
-      </c>
-      <c r="AQ39" s="17" t="s">
-        <v>2021</v>
-      </c>
-      <c r="AR39" s="17" t="s">
-        <v>2003</v>
-      </c>
-      <c r="AS39" s="17" t="s">
-        <v>2021</v>
-      </c>
-      <c r="AT39" s="17" t="s">
-        <v>2015</v>
-      </c>
-      <c r="AU39" s="17" t="s">
+      <c r="AY39" s="17" t="s">
+        <v>2007</v>
+      </c>
+      <c r="AZ39" s="17" t="s">
         <v>2033</v>
       </c>
-      <c r="AV39" s="17" t="s">
-        <v>2018</v>
-      </c>
-      <c r="AW39" s="17" t="s">
+      <c r="BA39" s="17" t="s">
+        <v>2007</v>
+      </c>
+      <c r="BB39" s="19" t="s">
         <v>2034</v>
       </c>
-      <c r="AX39" s="17" t="s">
+      <c r="BC39" s="17" t="s">
         <v>2035</v>
-      </c>
-      <c r="AY39" s="17" t="s">
-        <v>2010</v>
-      </c>
-      <c r="AZ39" s="17" t="s">
-        <v>2036</v>
-      </c>
-      <c r="BA39" s="17" t="s">
-        <v>2010</v>
-      </c>
-      <c r="BB39" s="19" t="s">
-        <v>2037</v>
-      </c>
-      <c r="BC39" s="17" t="s">
-        <v>2038</v>
       </c>
     </row>
     <row r="40" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
       <c r="C40" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="I40" s="21" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="J40" s="21" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="K40" s="21" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="L40" s="21" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="M40" s="19" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="N40" s="21" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="P40" s="21" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="Q40" s="21" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="R40" s="21" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="S40" s="21" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="T40" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="U40" s="21" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="V40" s="21" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="W40" s="21" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="X40" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="Y40" s="21" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="Z40" s="21" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="AA40" s="21" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="AB40" s="21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AC40" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AD40" s="21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AE40" s="21" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AF40" s="21" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AG40" s="21" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AH40" s="21" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AI40" s="21" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="AJ40" s="21" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="AK40" s="21" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="AL40" s="21" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="AM40" s="21" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="AN40" s="21" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AO40" s="21" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="AP40" s="21" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="AQ40" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AR40" s="21" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="AS40" s="21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AT40" s="21" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="AU40" s="21" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="AV40" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AW40" s="21" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="AX40" s="21" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AY40" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AZ40" s="21" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="BA40" s="21" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="BB40" s="19" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="BC40" s="21" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="41" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
       <c r="B41" s="16"/>
       <c r="C41" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="I41" s="17" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="J41" s="17" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="K41" s="17" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="L41" s="17" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="M41" s="19" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="N41" s="17" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="O41" s="17" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="P41" s="17" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="Q41" s="17" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="R41" s="17" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="S41" s="17" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="T41" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="U41" s="17" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="V41" s="17" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="W41" s="17" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="X41" s="17" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="Y41" s="17" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="Z41" s="17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AA41" s="17" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="AB41" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AC41" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AD41" s="17" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="AE41" s="17" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AF41" s="17" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="AG41" s="17" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH41" s="17" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="AI41" s="17" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="AJ41" s="17" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="AK41" s="17" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="AL41" s="17" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="AM41" s="17" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="AN41" s="17" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="AO41" s="17" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="AP41" s="17" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AQ41" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AR41" s="17" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="AS41" s="17" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="AT41" s="17" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="AU41" s="17" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="AV41" s="17" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AW41" s="17" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="AX41" s="17" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="AY41" s="17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AZ41" s="17" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="BA41" s="17" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="BB41" s="19" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="BC41" s="17" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="42" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
       <c r="B42" s="16"/>
       <c r="C42" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="I42" s="17" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="K42" s="17" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="L42" s="17" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="M42" s="19" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="N42" s="17" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="O42" s="17" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="P42" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="Q42" s="17" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="R42" s="17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="S42" s="17" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="T42" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="U42" s="17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="V42" s="17" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="W42" s="17" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="X42" s="17" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="Y42" s="17" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="Z42" s="17" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="AA42" s="17" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="AB42" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AC42" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AD42" s="17" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="AE42" s="17" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AF42" s="17" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="AG42" s="17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AH42" s="17" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="AI42" s="17" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="AJ42" s="17" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="AK42" s="17" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="AL42" s="17" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="AM42" s="17" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="AN42" s="17" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="AO42" s="17" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="AP42" s="17" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="AQ42" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AR42" s="17" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="AS42" s="17" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="AT42" s="17" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="AU42" s="17" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="AV42" s="17" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AW42" s="17" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="AX42" s="17" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="AY42" s="17" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AZ42" s="17" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="BA42" s="17" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="BB42" s="19" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="BC42" s="17" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="43" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="M43" s="17" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="Q43" s="4" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="R43" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="S43" s="4" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="V43" s="4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="W43" s="4" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="X43" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="Y43" s="4" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="Z43" s="4" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="AA43" s="4" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="AB43" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AC43" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AD43" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="AE43" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AF43" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AG43" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AH43" s="4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AI43" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AJ43" s="4" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="AK43" s="4" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="AL43" s="4" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="AM43" s="4" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="AN43" s="4" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="AO43" s="4" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="AP43" s="4" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="AQ43" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AR43" s="4" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="AS43" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AT43" s="4" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="AU43" s="4" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="AV43" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AW43" s="4" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="AX43" s="4" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="AY43" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AZ43" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="BA43" s="4" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="BB43" s="1" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="BC43" s="4" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="44" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="M44" s="17" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="Q44" s="4" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="R44" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="S44" s="4" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="T44" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="U44" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="V44" s="4" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="W44" s="4" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="X44" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="Y44" s="4" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="Z44" s="4" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="AA44" s="4" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="AB44" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AC44" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AD44" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AE44" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AF44" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="AG44" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AH44" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AI44" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AJ44" s="4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="AK44" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="AL44" s="4" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="AM44" s="4" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="AN44" s="4" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="AO44" s="4" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="AP44" s="4" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="AQ44" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AR44" s="4" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="AS44" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AT44" s="4" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AU44" s="4" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="AV44" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AW44" s="4" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="AX44" s="4" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="AY44" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AZ44" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="BA44" s="4" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="BB44" s="1" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="BC44" s="4" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="45" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+      <c r="C45" s="4" t="s">
+        <v>2098</v>
+      </c>
       <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="E45" s="4" t="s">
+        <v>2099</v>
+      </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -35052,6 +35095,97 @@
       <c r="BA45" s="4"/>
       <c r="BC45" s="4"/>
     </row>
+    <row r="46" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="4" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D46" s="24"/>
+      <c r="E46" s="4" t="s">
+        <v>2101</v>
+      </c>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="24"/>
+      <c r="U46" s="24"/>
+      <c r="V46" s="24"/>
+      <c r="W46" s="24"/>
+      <c r="X46" s="24"/>
+      <c r="Y46" s="24"/>
+      <c r="Z46" s="24"/>
+      <c r="AA46" s="24"/>
+      <c r="AB46" s="24"/>
+      <c r="AC46" s="24"/>
+      <c r="AD46" s="24"/>
+      <c r="AE46" s="24"/>
+      <c r="AF46" s="24"/>
+      <c r="AG46" s="24"/>
+      <c r="AH46" s="24"/>
+      <c r="AI46" s="24"/>
+      <c r="AJ46" s="24"/>
+      <c r="AK46" s="24"/>
+      <c r="AL46" s="24"/>
+      <c r="AM46" s="24"/>
+      <c r="AN46" s="24"/>
+      <c r="AO46" s="24"/>
+      <c r="AP46" s="24"/>
+      <c r="AQ46" s="24"/>
+      <c r="AR46" s="24"/>
+      <c r="AS46" s="24"/>
+      <c r="AT46" s="24"/>
+      <c r="AU46" s="24"/>
+      <c r="AV46" s="24"/>
+      <c r="AW46" s="24"/>
+      <c r="AX46" s="24"/>
+      <c r="AY46" s="24"/>
+      <c r="AZ46" s="24"/>
+      <c r="BA46" s="24"/>
+      <c r="BC46" s="24"/>
+    </row>
+    <row r="47" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="4" t="s">
+        <v>2102</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="4" t="s">
+        <v>2104</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="4" t="s">
+        <v>2106</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="4" t="s">
+        <v>2108</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>2109</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="F3">
     <cfRule type="expression" dxfId="595" priority="1004">

--- a/hor-productregistration-localization/Localization.xlsx
+++ b/hor-productregistration-localization/Localization.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\product_registration\hor-productregistration-android\hor-productregistration-localization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310201263\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Localization" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="2110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="2353">
   <si>
     <t>Reference</t>
   </si>
@@ -20831,12 +20831,4083 @@
     </r>
   </si>
   <si>
+    <t>تسجيل منتجك</t>
+  </si>
+  <si>
+    <t>سجّل منتجك و:</t>
+  </si>
+  <si>
+    <t>نعم</t>
+  </si>
+  <si>
+    <t>لا شكرًا، سأسجّل لاحقًا</t>
+  </si>
+  <si>
+    <t>تم تسجيل كل المنتجات المتصلة حاليًا بهذا التطبيق بنجاح!</t>
+  </si>
+  <si>
+    <t>هل تريد تسجيل منتج آخر؟</t>
+  </si>
+  <si>
+    <t>إذا كان منتجًا متصلاً من Philips، فتأكد من أنه متصل بهذا التطبيق</t>
+  </si>
+  <si>
+    <t>أو سجّل منتجك في الإصدار على ويب على www.philips.com</t>
+  </si>
+  <si>
+    <t>الخلف</t>
+  </si>
+  <si>
+    <t>توصيل منتج</t>
+  </si>
+  <si>
+    <t>تم التسجيل بنجاح</t>
+  </si>
+  <si>
+    <t>تم تمديد فترة الضمان لغاية</t>
+  </si>
+  <si>
+    <t>تم إرسال بريد إلكتروني يتضمن عقد الضمان الممدد إلى عنوان بريدك الإلكتروني</t>
+  </si>
+  <si>
+    <t>شكراً لاختيار منتجات Philips!</t>
+  </si>
+  <si>
+    <t>يتم الآن البحث عن منتجاتك..</t>
+  </si>
+  <si>
+    <t>يتم الآن تسجيل منتجاتك..</t>
+  </si>
+  <si>
+    <t>ما من اتصال بالإنترنت!</t>
+  </si>
+  <si>
+    <t>يرجى التحقق من اتصال الإنترنت وإعادة المحاولة</t>
+  </si>
+  <si>
+    <t>فشل عملية المصادقة!</t>
+  </si>
+  <si>
+    <t>فشلت عملية مصادقة المستخدم؛ يرجى إعادة المحاولة بعد قليل</t>
+  </si>
+  <si>
+    <t>لم يتم العثور على المنتج!</t>
+  </si>
+  <si>
+    <t>المنتج غير معتمد في هذه المنطقة؛ يرجى الاتصال بخدمة المستهلك.</t>
+  </si>
+  <si>
+    <t>خطأ في الاتصال!</t>
+  </si>
+  <si>
+    <t>تعذّر توصيل الخادم؛ يرجى إعادة المحاولة بعد قليل. إذا استمرت المشكلة، فاتصل بخدمة المستهلك</t>
+  </si>
+  <si>
+    <t>الرقم التسلسلي غير صالح!</t>
+  </si>
+  <si>
+    <t>يُرجى إدخال رقم تسلسلي صالح</t>
+  </si>
+  <si>
+    <t>تاريخ الشراء غير صالح!</t>
+  </si>
+  <si>
+    <t>يرجى إدخال تاريخ الشراء</t>
+  </si>
+  <si>
+    <t>يرجى إدخال الرقم التسلسلي في هذا التنسيق:</t>
+  </si>
+  <si>
+    <t>خطأ في الشبكة!</t>
+  </si>
+  <si>
+    <t>يرجى المحاولة بعد قليل.</t>
+  </si>
+  <si>
+    <t>خطأ غير معروف</t>
+  </si>
+  <si>
+    <t>تاريخ الشراء غير صالح</t>
+  </si>
+  <si>
+    <t>تاريخ الشراء:</t>
+  </si>
+  <si>
+    <t>يُرجى إدخال رقم تسلسلي</t>
+  </si>
+  <si>
+    <t>التسجيل</t>
+  </si>
+  <si>
+    <t>يرجى إدخال تاريخ بين العام 2000 والتاريخ الحالي</t>
+  </si>
+  <si>
+    <t>تم تسجيل المنتج</t>
+  </si>
+  <si>
+    <t>سبق أن تم تسجيل المنتج</t>
+  </si>
+  <si>
+    <t>محصول خود را ثبت نام کنید</t>
+  </si>
+  <si>
+    <t>محصول خود را ثبت نام کنید و:</t>
+  </si>
+  <si>
+    <t>بله</t>
+  </si>
+  <si>
+    <t>خیر متشکرم، بعداً ثبت نام می‌کنم</t>
+  </si>
+  <si>
+    <t>همه محصولاتی که در حال حاضر به این برنامه متصل هستند، با موفقیت ثبت نام شدند!</t>
+  </si>
+  <si>
+    <t>آیا می‌خواهید محصول دیگری را ثبت نام کنید؟</t>
+  </si>
+  <si>
+    <t>اگر دستگاه یک محصول Philips متصل است، مطمئن شوید محصول را به این برنامه متصل کرده باشید</t>
+  </si>
+  <si>
+    <t>یا محصول خود را در نسخه وب در www.philips.com ثبت نام کنید</t>
+  </si>
+  <si>
+    <t>برگشت</t>
+  </si>
+  <si>
+    <t>متصل کردن یک محصول</t>
+  </si>
+  <si>
+    <t>با موفقیت ثبت نام شد!</t>
+  </si>
+  <si>
+    <t>دوره ضمانت شما تمدید شد تا</t>
+  </si>
+  <si>
+    <t>یک ایمیل با قرارداد ضمانت تمدید شده به آدرس ایمیل شما ارسال شد</t>
+  </si>
+  <si>
+    <t>از شما به خاطر انتخاب محصولات Philips متشکریم!</t>
+  </si>
+  <si>
+    <t>در جستجوی محصولات شما..</t>
+  </si>
+  <si>
+    <t>در حال ثبت نام محصولات شما..</t>
+  </si>
+  <si>
+    <t>اتصال اینترنت وجود ندارد!</t>
+  </si>
+  <si>
+    <t>لطفا اتصال اینترنت خود را بررسی کرده و دوباره امتحان کنید</t>
+  </si>
+  <si>
+    <t>اشکال در تأیید اعتبار!</t>
+  </si>
+  <si>
+    <t>تأیید اعتبار کاربر ناموفق بود، لطفا بعد از مدتی دوباره امتحان کنید</t>
+  </si>
+  <si>
+    <t>محصول یافت نشد!</t>
+  </si>
+  <si>
+    <t>محصول در این منطقه پشتیبانی نمی‌شود، لطفا با خدمات مشتری تماس بگیرید.</t>
+  </si>
+  <si>
+    <t>خطای ارتباطی!</t>
+  </si>
+  <si>
+    <t>اتصال سرور ممکن نیست، لطفا بعد از مدتی دوباره امتحان کنید، اگر مشکل همچنان وجود داشت با خدمات مشتری تماس بگیرید</t>
+  </si>
+  <si>
+    <t>شماره سریال نامعتبر است!</t>
+  </si>
+  <si>
+    <t>لطفا شماره سریال معتبر را وارد کنید</t>
+  </si>
+  <si>
+    <t>تاریخ خرید نامعتبر است!</t>
+  </si>
+  <si>
+    <t>لطفا تاریخ خرید را وارد کنید</t>
+  </si>
+  <si>
+    <t>لطفا شماره سریال را با این فرمت وارد کنید:</t>
+  </si>
+  <si>
+    <t>خطای شبکه!</t>
+  </si>
+  <si>
+    <t>لطفا بعد از مدتی امتحان کنید.</t>
+  </si>
+  <si>
+    <t>خطای ناشناخته</t>
+  </si>
+  <si>
+    <t>تاریخ خرید نامعتبر است</t>
+  </si>
+  <si>
+    <t>تاریخ خرید:</t>
+  </si>
+  <si>
+    <t>لطفا شماره سریال را وارد کنید</t>
+  </si>
+  <si>
+    <t>ثبت نام</t>
+  </si>
+  <si>
+    <t>لطفا تاریخی از سال 2000 تا تاریخ امروز وارد کنید</t>
+  </si>
+  <si>
+    <t>محصول ثبت نام شد</t>
+  </si>
+  <si>
+    <t>محصول قبلا ثبت نام شده است</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Stellen Sie bei vernetzten Philips Produkten sicher, dass sie mit der App verbunden sind.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>S'il s'agit d'un produit Philips connecté, veillez à connecter le produit à cette application</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>如果是已联网的飞利浦产品，请确保您已将该产品与此应用程序连接。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>如果是連線的飛利浦產品，請確認您已將產品連線到此應用程式</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>如屬連接性的的 Philips 產品，請確保將產品連接此應用程式</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Se se tratar de um produto Philips ligado, certifique-se de que ligou o produto a esta aplicação</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Если это подключаемый продукт Philips, убедитесь, что он подключен к этому приложению</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>接続されているフィリップス製品がある場合は、製品がこのアプリに接続されていることを確認してください</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Als het een gekoppeld Philips-product is, zorg dan dat u het product aan deze app koppelt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Se si tratta di un prodotto connesso Philips, assicurati che sia connesso a questa app</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Jeśli jest to łączący się z Internetem produkt firmy Philips, należy go połączyć z tą aplikacją</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Si es un producto de Philips conectado, asegúrate de conectarlo a esta aplicación</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>연결형 필립스 제품인 경우 제품이 이 앱에 연결되었는지 확인하십시오.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Pokud jde o výrobek, který umožňuje připojení Philips, ujistěte se, že jste ho připojili k této aplikaci</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>If it is a connected Philips product, make sure you have connected the product to this app</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>S'il s'agit d'un produit Philips connecté, assurez-vous d'avoir établi la connexion avec cette application</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Dacă este un produs Philips conectat, asigură-te că ai conectat produsul la această aplicaţie</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Si es un producto conectado con Philips, asegúrese de que esté conectado con esta aplicación</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Якщо це пов’язаний виріб Philips, обов’язково підключіть його до цього додатка</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Dersom det er et tilkoblet Philips-produkt, må du sørge for at du har koblet produktet til denne appen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Nëse është produkt i lidhur "Philips", sigurohu ta kesh lidhur produktin me këtë aplikacion</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ako je povezan proizvod kompanije Philips, provjerite da li ste proizvod povezali s ovom aplikacijom</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ако това е свързан продукт на Philips, уверете се, че сте свързали продукта с приложението</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ako se radi o povezanom proizvodu tvrtke Philips, provjerite jeste li ga povezali s ovom aplikacijom</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Kui tegu on ühendatud Philipsi tootega, veenduge, et ühendasite toote selle rakendusega.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Más táirge Philips nasctha é, cinntigh go bhfuil an táirge nasctha agat leis an bhfeidhmchlár seo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Αν πρόκειται για κάποιο αντιστοιχισμένο προϊόν της Philips, βεβαιωθείτε ότι έχετε αντιστοιχίσει το προϊόν με την εφαρμογή.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>यदि यह कनेक्ट किया गया कोई Philips उत्पाद है, तो सुनिश्चित करें कि आपने इस अनुप्रयोग से उत्पाद को कनेक्ट किया है या नहीं</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ha ez csatlakoztatott Philips termék, ellenőrizze, hogy csatlakoztatta-e ehhez az alkalmazáshoz</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Jika ini adalah produk Philips yang tersambung, pastikan Anda menyambungkan produk ke aplikasi ini</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Егер бұл қосылған Philips өнімі болса, өнімді міндетті түрде осы қолданбаға қосыңыз</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ja tas ir pievienots Philips produkts, pārliecinieties, ka esat savienojis produktu ar šo lietotni</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Jei tai prijungiamas „Philips“ gaminys, patikrinkite, ar prijungėte gaminį prie šios programos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Доколку поврзаниот производ е од Philips, проверете дали сте го поврзале производот со оваа апликација</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Jika produk yang disambungkan merupakan produk Philips, pastikan anda menyambungkan produk tersebut kepada aplikasi ini</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ukoliko je ovo povezani proizvod kompanije Philips, uvjerite se da ste povezali taj proizvod sa ovom aplikacijom</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Se for um produto conectado da Philips, conecte-o a este app</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ako je taj proizvod kompanije Philips već povezan, proverite da li ste ga povezali sa ovom aplikacijom</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ak ide o pripojený výrobok Philips, skontrolujte, či je pripojený k tejto aplikácii</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Če imate povezan izdelek Philips, zagotovite, da je povezan s to aplikacijo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>หากเป็นผลิตภัณฑ์ Philips ที่เชื่อมโยงแล้ว โปรดตรวจสอบให้แน่ใจว่าคุณได้เชื่อมโยงผลิตภัณฑ์กับแอปนี้</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Nếu đó là sản phẩm Philips đã được kết nối, hãy đảm bảo bạn đã kết nối sản phẩm với ứng dụng này</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Hvis det er et Philips-produkt, der er tilknyttet, skal du sørge for, at det er knyttet til denne app</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Jos kyseessä on yhdistetty Philips-tuote, varmista, että se on yhdistetty tähän sovellukseen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Om det är en ansluten Philips-produkt ska du se till att du har anslutit produkten till den här appen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Bağlı bir Philips ürünüyse ürünü bu uygulamaya bağladığınızdan emin olun</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>الرقم</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>التسلسلي:</t>
+    </r>
+  </si>
+  <si>
+    <t>Серийный номер:</t>
+  </si>
+  <si>
+    <t>SerialNumber:</t>
+  </si>
+  <si>
+    <t>Seriennummer:</t>
+  </si>
+  <si>
+    <t>Numéro de série :</t>
+  </si>
+  <si>
+    <t>序列号 :</t>
+  </si>
+  <si>
+    <t>序號 :</t>
+  </si>
+  <si>
+    <t>Número de série:</t>
+  </si>
+  <si>
+    <t>シリアル番号 :</t>
+  </si>
+  <si>
+    <t>Serienummer:</t>
+  </si>
+  <si>
+    <t>Numero di serie:</t>
+  </si>
+  <si>
+    <t>Numer seryjny:</t>
+  </si>
+  <si>
+    <t>Núm.Serie:</t>
+  </si>
+  <si>
+    <t>일련 번호:</t>
+  </si>
+  <si>
+    <t>Sériové číslo:</t>
+  </si>
+  <si>
+    <t>Numéro de série:</t>
+  </si>
+  <si>
+    <t>Număr de serie:</t>
+  </si>
+  <si>
+    <t>Número de serie:</t>
+  </si>
+  <si>
+    <t>Серійний номер:</t>
+  </si>
+  <si>
+    <t>Numri i serisë:</t>
+  </si>
+  <si>
+    <t>Serijski broj:</t>
+  </si>
+  <si>
+    <t>Сериен номер:</t>
+  </si>
+  <si>
+    <t>Seerianumber:</t>
+  </si>
+  <si>
+    <t>Sraithuimhir:</t>
+  </si>
+  <si>
+    <t>Σειριακός αριθμός:</t>
+  </si>
+  <si>
+    <t>क्रमांक संख्या:</t>
+  </si>
+  <si>
+    <t>Sorozatszám:</t>
+  </si>
+  <si>
+    <t>Nomor Seri:</t>
+  </si>
+  <si>
+    <t>Сериялық нөмірі:</t>
+  </si>
+  <si>
+    <t>Sērijas numurs:</t>
+  </si>
+  <si>
+    <t>Serijos numeris:</t>
+  </si>
+  <si>
+    <t>Сериски број:</t>
+  </si>
+  <si>
+    <t>Serijska številka:</t>
+  </si>
+  <si>
+    <t>หมายเลขผลิตภัณฑ์:</t>
+  </si>
+  <si>
+    <t>Số sê-ri:</t>
+  </si>
+  <si>
+    <t>Sarjanumero:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>شماره</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>سریال:</t>
+    </r>
+  </si>
+  <si>
+    <t>Seri Numarası:</t>
+  </si>
+  <si>
+    <t>- Receive important updates about your products</t>
+  </si>
+  <si>
+    <t>- wichtige Updates zum Produkt erhalten</t>
+  </si>
+  <si>
+    <t>- Recevez des mises à jour importantes concernant vos produits</t>
+  </si>
+  <si>
+    <t>- 接收有关您产品的重要更新</t>
+  </si>
+  <si>
+    <t>- 接收產品的重要更新資訊</t>
+  </si>
+  <si>
+    <t>- 接收有關產品的重要更新</t>
+  </si>
+  <si>
+    <t>- Receba actualizações importantes sobre os seus produtos</t>
+  </si>
+  <si>
+    <t>- Получайте важную информацию о своих продуктах</t>
+  </si>
+  <si>
+    <t>تلقَّ تحديثات مهمة حول منتجاتك -</t>
+  </si>
+  <si>
+    <t>- お使いの製品に関する重要なアップデートを受信することができます</t>
+  </si>
+  <si>
+    <t>- Ontvang belangrijke informatie over uw producten</t>
+  </si>
+  <si>
+    <t>- Ricevi aggiornamenti importanti sui tuoi prodotti</t>
+  </si>
+  <si>
+    <t>- Otrzymuj ważne aktualizacje dotyczące produktów</t>
+  </si>
+  <si>
+    <t>- Recibe novedades importantes sobre tus productos</t>
+  </si>
+  <si>
+    <t>- 중요 제품 업데이트 수신</t>
+  </si>
+  <si>
+    <t>- Získejte důležité aktualizace o svých produktech</t>
+  </si>
+  <si>
+    <t>- Recevez des mises à jour importantes sur vos produits</t>
+  </si>
+  <si>
+    <t>- Primeşti actualizări importante despre produsele tale</t>
+  </si>
+  <si>
+    <t>- Reciba actualizaciones importantes sobre sus productos</t>
+  </si>
+  <si>
+    <t>- отримуйте важливу найсвіжішу інформацію про свої вироби</t>
+  </si>
+  <si>
+    <t>- Motta viktige oppdateringer om produktene dine</t>
+  </si>
+  <si>
+    <t>- Merr përditësime të rëndësishme rreth produkteve të tua</t>
+  </si>
+  <si>
+    <t>- Primajte važna ažuriranja o svojim proizvodima</t>
+  </si>
+  <si>
+    <t>- Получавайте важни актуализации за вашите продукти</t>
+  </si>
+  <si>
+    <t>- Primajte važne obavijesti o svojim proizvodima</t>
+  </si>
+  <si>
+    <t>- Saage oma toodetele olulisi värskendusi.</t>
+  </si>
+  <si>
+    <t>- Faigh nuashonruithe tábhachtacha faoi do tháirgí</t>
+  </si>
+  <si>
+    <t>- Να λαμβάνετε σημαντικές ενημερώσεις σχετικά με τα προϊόντα σας.</t>
+  </si>
+  <si>
+    <t>קבל עדכונים חשובים לגבי המוצרים שלך -</t>
+  </si>
+  <si>
+    <t>- अपने उत्पाद के बारे में महत्वपूर्ण अद्यतन प्राप्त करें</t>
+  </si>
+  <si>
+    <t>- Fontos frissítéseket kap a termékkel kapcsolatban</t>
+  </si>
+  <si>
+    <t>- Dapatkan pembaruan penting tentang produk Anda</t>
+  </si>
+  <si>
+    <t>- Өнімдер туралы маңызды жаңартулар алыңыз</t>
+  </si>
+  <si>
+    <t>- Saņemiet svarīgus atjauninājumus par saviem produktiem</t>
+  </si>
+  <si>
+    <t>- Gaukite svarbius naujinimus apie savo gaminius</t>
+  </si>
+  <si>
+    <t>- Добивајте важни ажурирања за вашите производи</t>
+  </si>
+  <si>
+    <t>- Terima kemas kini penting tentang produk anda</t>
+  </si>
+  <si>
+    <t>- Dobijajte najnovije informacije o Vašem proizvodu</t>
+  </si>
+  <si>
+    <t>- receba atualizações importantes sobre produtos</t>
+  </si>
+  <si>
+    <t>- Primajte važne ispravke za vaše proizvode</t>
+  </si>
+  <si>
+    <t>- dostávajte dôležité informácie o svojich výrobkoch</t>
+  </si>
+  <si>
+    <t>- Prejemajte pomembne novice o svojih izdelkih</t>
+  </si>
+  <si>
+    <t>- รับการอัพเดตสำคัญเกี่ยวกับผลิตภัณฑ์ของคุณ</t>
+  </si>
+  <si>
+    <t>- Nhận cập nhật quan trọng về sản phẩm của bạn</t>
+  </si>
+  <si>
+    <t>- Modtag vigtige opdateringer om dine produkter</t>
+  </si>
+  <si>
+    <t>- Saat tärkeitä uutisia tuotteestasi</t>
+  </si>
+  <si>
+    <t>- få viktiga uppdateringar om dina produkter</t>
+  </si>
+  <si>
+    <t>مطالب به‌روز و مهم درباره محصولات خود را دریافت کنید -</t>
+  </si>
+  <si>
+    <t>- Ürünlerinizle ilgili önemli güncellemeleri alın</t>
+  </si>
+  <si>
+    <t>- If it is a connected Philips product, make sure you have connected the product to this app</t>
+  </si>
+  <si>
+    <t>- Or register your product in the web version at www.philips.com</t>
+  </si>
+  <si>
+    <t>All the products that are currently connected to this app have been registered successfully!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPR_Continue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPR_Missing_Ctn_Title </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing CTN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPR_Missing_Ctn_ErrMsg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please enter CTN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPR_Register_Next </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register next </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPR_Back_To_List </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back to list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPR_OK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">متابعة </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">CTN مفقود </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">يرجى إدخال CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">تسجيل التالي </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">عودة إلى القائمة </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">موافق </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Dalje </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Nedostaje CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Molimo vas da unesete CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Registrujte naredni </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Nazad na spisak </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">U redu </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Продължи </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Липсва CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Въведете CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Регистриране на следващ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Обратно в списъка </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">OK </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Nastavi </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Unesite CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Registrujte sljedeći </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Povratak na popis </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Pokračovat </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Chybí kód CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Zadejte kód CTN. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Zaregistrovat další </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Zpět na seznam </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Fortsæt </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">CTN mangler </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Indtast CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Registrer næste </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Tilbage til liste </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Weiter </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Fehlende CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Bitte CTN eingeben </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Nächstes Produkt registrieren </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Zurück zur Liste </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Συνέχεια </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Ελλιπές CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Εισαγάγετε CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Εγγραφή επόμενου </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Πίσω στη λίστα </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">ΟΚ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Continue </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Missing CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Please enter CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Register next </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Back to list </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Continuar </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Falta CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Introduce el CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Registrar siguiente </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Volver a la lista </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">CTN faltante </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Ingrese el CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Aceptar </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Jätka </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">CTN puudub </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Palun sisestage CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Registreerige järgmine </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Tagasi loendisse </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">ادامه </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">CTN وجود ندارد </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">لطفاً CTN را وارد کنید </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">ثبت بعدی </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">برگشت به لیست </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">تایید </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Jatka </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">CTN puuttuu </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Anna CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Rekisteröi seuraava tuote </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Takaisin luetteloon </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Continuer </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">CTN manquant </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Indiquer le CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Enregistrer le produit suivant </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Retour à la liste </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Veuillez entrer un CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Enregistrer le suivant </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Ar aghaidh </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">CTN ar iarraidh </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Cuir isteach an CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Cláraigh an chéad táirge eile </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Siar ag an liosta </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">המשך </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">CTN חסר </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">הזן CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">רשום את הבא </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">חזרה לרשימה </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">אישור </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">जारी रखें </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">गुम CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">कृपया CTN दर्ज करें </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">अगला उत्पाद पंजीकृत करें </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">सूची पर वापस जाएँ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">ठीक </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">CTN nedostaje </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Registrirajte sljedeći </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Natrag na popis </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Folytatás </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Hiányzó CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Adja meg a CTN értéket </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">A következő regisztrálása </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Vissza a listához </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Lanjutkan </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">CTN Tidak Ditemukan </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Silakan masukkan CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Daftarkan produk berikutnya </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Kembali ke daftar </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Continua </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">CTN mancante </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Inserisci il CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Registra il prossimo </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Torna all'elenco </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">続行 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">CTN がありません </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">CTN を入力してください </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">次を登録 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">リストに戻る </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Жалғаст-у </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">CTN жоқ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">CTN енгізіңіз </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Келесіні тіркеу </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Бетке қайта оралу </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">계속 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">누락된 CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">CTN을 입력하십시오 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">다음 등록하기 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">목록으로 돌아가기 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">확인 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Tęsti </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Nėra CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Įveskite CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Registruoti kitą </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Atgal į sąrašą </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Gerai </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Turpināt </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Trūkst CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Lūdzu, ievadiet CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Reģistrēt nākamo </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Atpakaļ uz sarakstu </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Labi </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Продолжи </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Недостасува CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Ве молиме внесете CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Регистрирај следно </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Назад кон листата </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Teruskan </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Tiada CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Sila masukkan CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Daftar seterusnya </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Kembali ke senarai </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Doorgaan </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">CTN ontbreekt </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Geef een CTN op </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Volgende registreren </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Terug naar lijst </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Fortsett </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Angi CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Registrer neste </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Tilbake til liste </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Kontynuuj </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Brakuje kodu CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Wprowadź kod CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Zarejestruj następny </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Powrót do listy </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">CTN em falta </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Introduza o CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Registar seguinte </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Voltar à lista </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Sem CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Insira CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Registre o próximo produto </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Continuă </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">CTN lipsă </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Introdu CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Înregistrează următorul </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Înapoi la listă </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Продолжить </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Код CTN не указан </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Введите код CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Зарегистрировать другой продукт </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Вернуться к списку </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Oк </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Pokračovať </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Kód CTN chýba </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Zadajte kód CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Zaregistrovať ďalší </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Späť na zoznam </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Naprej </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Manjka CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Vnesite CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Druga registracija </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Nazaj na seznam </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">V redu </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Vazhdo </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Mungon CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Jep CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Regjistro tjetrin </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Kthehu te lista </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Registrujte sledeći </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Nazad na listu </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Fortsätt </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">CTN saknas. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Ange CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Registrera nästa </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Tillbaka till listan </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">ดำเนินการต่อ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">CTN หายไป </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">โปรดป้อน CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">ลงทะเบียนถัดไป </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">กลับไปยังรายการ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">ตกลง </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Devam et </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Eksik CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Lütfen CTN'yi girin </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Bir sonraki ürünü kaydet </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Listeye geri dön </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Продовжити </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Немає CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Введіть CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Зареєструвати наступний </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Назад до списку </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Tiếp tục </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">CTN bị thiếu </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Vui lòng nhập CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Đăng ký tiếp </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Quay lại phần danh sách </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">继续 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">缺失 CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">请输入 CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">注册下一个产品 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">返回列表 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">确定 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">繼續 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">缺少 CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">請輸入 CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">登記下一個 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">返回清單 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">確定 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">遺失 CTN </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">註冊下一個 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">回到清單 </t>
+    </r>
+  </si>
+  <si>
     <t>de</t>
   </si>
   <si>
     <t>fr</t>
   </si>
   <si>
+    <t>zh-rCN</t>
+  </si>
+  <si>
+    <t>zh-rTW</t>
+  </si>
+  <si>
+    <t>zh-rHK</t>
+  </si>
+  <si>
     <t>pt</t>
   </si>
   <si>
@@ -20867,15 +24938,27 @@
     <t>cs</t>
   </si>
   <si>
+    <t>en-rGB</t>
+  </si>
+  <si>
+    <t>fr-rCA</t>
+  </si>
+  <si>
     <t>ro</t>
   </si>
   <si>
+    <t>es-rMX</t>
+  </si>
+  <si>
     <t>uk</t>
   </si>
   <si>
     <t>nb</t>
   </si>
   <si>
+    <t>sq-rAL</t>
+  </si>
+  <si>
     <t>bs</t>
   </si>
   <si>
@@ -20921,6 +25004,12 @@
     <t>ms</t>
   </si>
   <si>
+    <t>sr-rME</t>
+  </si>
+  <si>
+    <t>pt-rBR</t>
+  </si>
+  <si>
     <t>sr</t>
   </si>
   <si>
@@ -20930,6 +25019,9 @@
     <t>sl</t>
   </si>
   <si>
+    <t>es-rAR</t>
+  </si>
+  <si>
     <t>th</t>
   </si>
   <si>
@@ -20949,1182 +25041,6 @@
   </si>
   <si>
     <t>tr</t>
-  </si>
-  <si>
-    <t>تسجيل منتجك</t>
-  </si>
-  <si>
-    <t>سجّل منتجك و:</t>
-  </si>
-  <si>
-    <t>نعم</t>
-  </si>
-  <si>
-    <t>لا شكرًا، سأسجّل لاحقًا</t>
-  </si>
-  <si>
-    <t>تم تسجيل كل المنتجات المتصلة حاليًا بهذا التطبيق بنجاح!</t>
-  </si>
-  <si>
-    <t>هل تريد تسجيل منتج آخر؟</t>
-  </si>
-  <si>
-    <t>إذا كان منتجًا متصلاً من Philips، فتأكد من أنه متصل بهذا التطبيق</t>
-  </si>
-  <si>
-    <t>أو سجّل منتجك في الإصدار على ويب على www.philips.com</t>
-  </si>
-  <si>
-    <t>الخلف</t>
-  </si>
-  <si>
-    <t>توصيل منتج</t>
-  </si>
-  <si>
-    <t>تم التسجيل بنجاح</t>
-  </si>
-  <si>
-    <t>تم تمديد فترة الضمان لغاية</t>
-  </si>
-  <si>
-    <t>تم إرسال بريد إلكتروني يتضمن عقد الضمان الممدد إلى عنوان بريدك الإلكتروني</t>
-  </si>
-  <si>
-    <t>شكراً لاختيار منتجات Philips!</t>
-  </si>
-  <si>
-    <t>يتم الآن البحث عن منتجاتك..</t>
-  </si>
-  <si>
-    <t>يتم الآن تسجيل منتجاتك..</t>
-  </si>
-  <si>
-    <t>ما من اتصال بالإنترنت!</t>
-  </si>
-  <si>
-    <t>يرجى التحقق من اتصال الإنترنت وإعادة المحاولة</t>
-  </si>
-  <si>
-    <t>فشل عملية المصادقة!</t>
-  </si>
-  <si>
-    <t>فشلت عملية مصادقة المستخدم؛ يرجى إعادة المحاولة بعد قليل</t>
-  </si>
-  <si>
-    <t>لم يتم العثور على المنتج!</t>
-  </si>
-  <si>
-    <t>المنتج غير معتمد في هذه المنطقة؛ يرجى الاتصال بخدمة المستهلك.</t>
-  </si>
-  <si>
-    <t>خطأ في الاتصال!</t>
-  </si>
-  <si>
-    <t>تعذّر توصيل الخادم؛ يرجى إعادة المحاولة بعد قليل. إذا استمرت المشكلة، فاتصل بخدمة المستهلك</t>
-  </si>
-  <si>
-    <t>الرقم التسلسلي غير صالح!</t>
-  </si>
-  <si>
-    <t>يُرجى إدخال رقم تسلسلي صالح</t>
-  </si>
-  <si>
-    <t>تاريخ الشراء غير صالح!</t>
-  </si>
-  <si>
-    <t>يرجى إدخال تاريخ الشراء</t>
-  </si>
-  <si>
-    <t>يرجى إدخال الرقم التسلسلي في هذا التنسيق:</t>
-  </si>
-  <si>
-    <t>خطأ في الشبكة!</t>
-  </si>
-  <si>
-    <t>يرجى المحاولة بعد قليل.</t>
-  </si>
-  <si>
-    <t>خطأ غير معروف</t>
-  </si>
-  <si>
-    <t>تاريخ الشراء غير صالح</t>
-  </si>
-  <si>
-    <t>تاريخ الشراء:</t>
-  </si>
-  <si>
-    <t>يُرجى إدخال رقم تسلسلي</t>
-  </si>
-  <si>
-    <t>التسجيل</t>
-  </si>
-  <si>
-    <t>يرجى إدخال تاريخ بين العام 2000 والتاريخ الحالي</t>
-  </si>
-  <si>
-    <t>تم تسجيل المنتج</t>
-  </si>
-  <si>
-    <t>سبق أن تم تسجيل المنتج</t>
-  </si>
-  <si>
-    <t>محصول خود را ثبت نام کنید</t>
-  </si>
-  <si>
-    <t>محصول خود را ثبت نام کنید و:</t>
-  </si>
-  <si>
-    <t>بله</t>
-  </si>
-  <si>
-    <t>خیر متشکرم، بعداً ثبت نام می‌کنم</t>
-  </si>
-  <si>
-    <t>همه محصولاتی که در حال حاضر به این برنامه متصل هستند، با موفقیت ثبت نام شدند!</t>
-  </si>
-  <si>
-    <t>آیا می‌خواهید محصول دیگری را ثبت نام کنید؟</t>
-  </si>
-  <si>
-    <t>اگر دستگاه یک محصول Philips متصل است، مطمئن شوید محصول را به این برنامه متصل کرده باشید</t>
-  </si>
-  <si>
-    <t>یا محصول خود را در نسخه وب در www.philips.com ثبت نام کنید</t>
-  </si>
-  <si>
-    <t>برگشت</t>
-  </si>
-  <si>
-    <t>متصل کردن یک محصول</t>
-  </si>
-  <si>
-    <t>با موفقیت ثبت نام شد!</t>
-  </si>
-  <si>
-    <t>دوره ضمانت شما تمدید شد تا</t>
-  </si>
-  <si>
-    <t>یک ایمیل با قرارداد ضمانت تمدید شده به آدرس ایمیل شما ارسال شد</t>
-  </si>
-  <si>
-    <t>از شما به خاطر انتخاب محصولات Philips متشکریم!</t>
-  </si>
-  <si>
-    <t>در جستجوی محصولات شما..</t>
-  </si>
-  <si>
-    <t>در حال ثبت نام محصولات شما..</t>
-  </si>
-  <si>
-    <t>اتصال اینترنت وجود ندارد!</t>
-  </si>
-  <si>
-    <t>لطفا اتصال اینترنت خود را بررسی کرده و دوباره امتحان کنید</t>
-  </si>
-  <si>
-    <t>اشکال در تأیید اعتبار!</t>
-  </si>
-  <si>
-    <t>تأیید اعتبار کاربر ناموفق بود، لطفا بعد از مدتی دوباره امتحان کنید</t>
-  </si>
-  <si>
-    <t>محصول یافت نشد!</t>
-  </si>
-  <si>
-    <t>محصول در این منطقه پشتیبانی نمی‌شود، لطفا با خدمات مشتری تماس بگیرید.</t>
-  </si>
-  <si>
-    <t>خطای ارتباطی!</t>
-  </si>
-  <si>
-    <t>اتصال سرور ممکن نیست، لطفا بعد از مدتی دوباره امتحان کنید، اگر مشکل همچنان وجود داشت با خدمات مشتری تماس بگیرید</t>
-  </si>
-  <si>
-    <t>شماره سریال نامعتبر است!</t>
-  </si>
-  <si>
-    <t>لطفا شماره سریال معتبر را وارد کنید</t>
-  </si>
-  <si>
-    <t>تاریخ خرید نامعتبر است!</t>
-  </si>
-  <si>
-    <t>لطفا تاریخ خرید را وارد کنید</t>
-  </si>
-  <si>
-    <t>لطفا شماره سریال را با این فرمت وارد کنید:</t>
-  </si>
-  <si>
-    <t>خطای شبکه!</t>
-  </si>
-  <si>
-    <t>لطفا بعد از مدتی امتحان کنید.</t>
-  </si>
-  <si>
-    <t>خطای ناشناخته</t>
-  </si>
-  <si>
-    <t>تاریخ خرید نامعتبر است</t>
-  </si>
-  <si>
-    <t>تاریخ خرید:</t>
-  </si>
-  <si>
-    <t>لطفا شماره سریال را وارد کنید</t>
-  </si>
-  <si>
-    <t>ثبت نام</t>
-  </si>
-  <si>
-    <t>لطفا تاریخی از سال 2000 تا تاریخ امروز وارد کنید</t>
-  </si>
-  <si>
-    <t>محصول ثبت نام شد</t>
-  </si>
-  <si>
-    <t>محصول قبلا ثبت نام شده است</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Stellen Sie bei vernetzten Philips Produkten sicher, dass sie mit der App verbunden sind.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>S'il s'agit d'un produit Philips connecté, veillez à connecter le produit à cette application</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>如果是已联网的飞利浦产品，请确保您已将该产品与此应用程序连接。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>如果是連線的飛利浦產品，請確認您已將產品連線到此應用程式</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>如屬連接性的的 Philips 產品，請確保將產品連接此應用程式</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Se se tratar de um produto Philips ligado, certifique-se de que ligou o produto a esta aplicação</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Если это подключаемый продукт Philips, убедитесь, что он подключен к этому приложению</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>接続されているフィリップス製品がある場合は、製品がこのアプリに接続されていることを確認してください</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Als het een gekoppeld Philips-product is, zorg dan dat u het product aan deze app koppelt</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Se si tratta di un prodotto connesso Philips, assicurati che sia connesso a questa app</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Jeśli jest to łączący się z Internetem produkt firmy Philips, należy go połączyć z tą aplikacją</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Si es un producto de Philips conectado, asegúrate de conectarlo a esta aplicación</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>연결형 필립스 제품인 경우 제품이 이 앱에 연결되었는지 확인하십시오.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Pokud jde o výrobek, který umožňuje připojení Philips, ujistěte se, že jste ho připojili k této aplikaci</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>If it is a connected Philips product, make sure you have connected the product to this app</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>S'il s'agit d'un produit Philips connecté, assurez-vous d'avoir établi la connexion avec cette application</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Dacă este un produs Philips conectat, asigură-te că ai conectat produsul la această aplicaţie</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Si es un producto conectado con Philips, asegúrese de que esté conectado con esta aplicación</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Якщо це пов’язаний виріб Philips, обов’язково підключіть його до цього додатка</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Dersom det er et tilkoblet Philips-produkt, må du sørge for at du har koblet produktet til denne appen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Nëse është produkt i lidhur "Philips", sigurohu ta kesh lidhur produktin me këtë aplikacion</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Ako je povezan proizvod kompanije Philips, provjerite da li ste proizvod povezali s ovom aplikacijom</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Ако това е свързан продукт на Philips, уверете се, че сте свързали продукта с приложението</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Ako se radi o povezanom proizvodu tvrtke Philips, provjerite jeste li ga povezali s ovom aplikacijom</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Kui tegu on ühendatud Philipsi tootega, veenduge, et ühendasite toote selle rakendusega.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Más táirge Philips nasctha é, cinntigh go bhfuil an táirge nasctha agat leis an bhfeidhmchlár seo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Αν πρόκειται για κάποιο αντιστοιχισμένο προϊόν της Philips, βεβαιωθείτε ότι έχετε αντιστοιχίσει το προϊόν με την εφαρμογή.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>यदि यह कनेक्ट किया गया कोई Philips उत्पाद है, तो सुनिश्चित करें कि आपने इस अनुप्रयोग से उत्पाद को कनेक्ट किया है या नहीं</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Ha ez csatlakoztatott Philips termék, ellenőrizze, hogy csatlakoztatta-e ehhez az alkalmazáshoz</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Jika ini adalah produk Philips yang tersambung, pastikan Anda menyambungkan produk ke aplikasi ini</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Егер бұл қосылған Philips өнімі болса, өнімді міндетті түрде осы қолданбаға қосыңыз</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Ja tas ir pievienots Philips produkts, pārliecinieties, ka esat savienojis produktu ar šo lietotni</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Jei tai prijungiamas „Philips“ gaminys, patikrinkite, ar prijungėte gaminį prie šios programos</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Доколку поврзаниот производ е од Philips, проверете дали сте го поврзале производот со оваа апликација</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Jika produk yang disambungkan merupakan produk Philips, pastikan anda menyambungkan produk tersebut kepada aplikasi ini</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Ukoliko je ovo povezani proizvod kompanije Philips, uvjerite se da ste povezali taj proizvod sa ovom aplikacijom</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Se for um produto conectado da Philips, conecte-o a este app</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Ako je taj proizvod kompanije Philips već povezan, proverite da li ste ga povezali sa ovom aplikacijom</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Ak ide o pripojený výrobok Philips, skontrolujte, či je pripojený k tejto aplikácii</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Če imate povezan izdelek Philips, zagotovite, da je povezan s to aplikacijo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>หากเป็นผลิตภัณฑ์ Philips ที่เชื่อมโยงแล้ว โปรดตรวจสอบให้แน่ใจว่าคุณได้เชื่อมโยงผลิตภัณฑ์กับแอปนี้</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Nếu đó là sản phẩm Philips đã được kết nối, hãy đảm bảo bạn đã kết nối sản phẩm với ứng dụng này</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Hvis det er et Philips-produkt, der er tilknyttet, skal du sørge for, at det er knyttet til denne app</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Jos kyseessä on yhdistetty Philips-tuote, varmista, että se on yhdistetty tähän sovellukseen.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Om det är en ansluten Philips-produkt ska du se till att du har anslutit produkten till den här appen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Bağlı bir Philips ürünüyse ürünü bu uygulamaya bağladığınızdan emin olun</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>الرقم</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>التسلسلي:</t>
-    </r>
-  </si>
-  <si>
-    <t>Серийный номер:</t>
-  </si>
-  <si>
-    <t>SerialNumber:</t>
-  </si>
-  <si>
-    <t>Seriennummer:</t>
-  </si>
-  <si>
-    <t>Numéro de série :</t>
-  </si>
-  <si>
-    <t>序列号 :</t>
-  </si>
-  <si>
-    <t>序號 :</t>
-  </si>
-  <si>
-    <t>Número de série:</t>
-  </si>
-  <si>
-    <t>シリアル番号 :</t>
-  </si>
-  <si>
-    <t>Serienummer:</t>
-  </si>
-  <si>
-    <t>Numero di serie:</t>
-  </si>
-  <si>
-    <t>Numer seryjny:</t>
-  </si>
-  <si>
-    <t>Núm.Serie:</t>
-  </si>
-  <si>
-    <t>일련 번호:</t>
-  </si>
-  <si>
-    <t>Sériové číslo:</t>
-  </si>
-  <si>
-    <t>Numéro de série:</t>
-  </si>
-  <si>
-    <t>Număr de serie:</t>
-  </si>
-  <si>
-    <t>Número de serie:</t>
-  </si>
-  <si>
-    <t>Серійний номер:</t>
-  </si>
-  <si>
-    <t>Numri i serisë:</t>
-  </si>
-  <si>
-    <t>Serijski broj:</t>
-  </si>
-  <si>
-    <t>Сериен номер:</t>
-  </si>
-  <si>
-    <t>Seerianumber:</t>
-  </si>
-  <si>
-    <t>Sraithuimhir:</t>
-  </si>
-  <si>
-    <t>Σειριακός αριθμός:</t>
-  </si>
-  <si>
-    <t>क्रमांक संख्या:</t>
-  </si>
-  <si>
-    <t>Sorozatszám:</t>
-  </si>
-  <si>
-    <t>Nomor Seri:</t>
-  </si>
-  <si>
-    <t>Сериялық нөмірі:</t>
-  </si>
-  <si>
-    <t>Sērijas numurs:</t>
-  </si>
-  <si>
-    <t>Serijos numeris:</t>
-  </si>
-  <si>
-    <t>Сериски број:</t>
-  </si>
-  <si>
-    <t>Serijska številka:</t>
-  </si>
-  <si>
-    <t>หมายเลขผลิตภัณฑ์:</t>
-  </si>
-  <si>
-    <t>Số sê-ri:</t>
-  </si>
-  <si>
-    <t>Sarjanumero:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>شماره</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>سریال:</t>
-    </r>
-  </si>
-  <si>
-    <t>Seri Numarası:</t>
-  </si>
-  <si>
-    <t>- Receive important updates about your products</t>
-  </si>
-  <si>
-    <t>- wichtige Updates zum Produkt erhalten</t>
-  </si>
-  <si>
-    <t>- Recevez des mises à jour importantes concernant vos produits</t>
-  </si>
-  <si>
-    <t>- 接收有关您产品的重要更新</t>
-  </si>
-  <si>
-    <t>- 接收產品的重要更新資訊</t>
-  </si>
-  <si>
-    <t>- 接收有關產品的重要更新</t>
-  </si>
-  <si>
-    <t>- Receba actualizações importantes sobre os seus produtos</t>
-  </si>
-  <si>
-    <t>- Получайте важную информацию о своих продуктах</t>
-  </si>
-  <si>
-    <t>تلقَّ تحديثات مهمة حول منتجاتك -</t>
-  </si>
-  <si>
-    <t>- お使いの製品に関する重要なアップデートを受信することができます</t>
-  </si>
-  <si>
-    <t>- Ontvang belangrijke informatie over uw producten</t>
-  </si>
-  <si>
-    <t>- Ricevi aggiornamenti importanti sui tuoi prodotti</t>
-  </si>
-  <si>
-    <t>- Otrzymuj ważne aktualizacje dotyczące produktów</t>
-  </si>
-  <si>
-    <t>- Recibe novedades importantes sobre tus productos</t>
-  </si>
-  <si>
-    <t>- 중요 제품 업데이트 수신</t>
-  </si>
-  <si>
-    <t>- Získejte důležité aktualizace o svých produktech</t>
-  </si>
-  <si>
-    <t>- Recevez des mises à jour importantes sur vos produits</t>
-  </si>
-  <si>
-    <t>- Primeşti actualizări importante despre produsele tale</t>
-  </si>
-  <si>
-    <t>- Reciba actualizaciones importantes sobre sus productos</t>
-  </si>
-  <si>
-    <t>- отримуйте важливу найсвіжішу інформацію про свої вироби</t>
-  </si>
-  <si>
-    <t>- Motta viktige oppdateringer om produktene dine</t>
-  </si>
-  <si>
-    <t>- Merr përditësime të rëndësishme rreth produkteve të tua</t>
-  </si>
-  <si>
-    <t>- Primajte važna ažuriranja o svojim proizvodima</t>
-  </si>
-  <si>
-    <t>- Получавайте важни актуализации за вашите продукти</t>
-  </si>
-  <si>
-    <t>- Primajte važne obavijesti o svojim proizvodima</t>
-  </si>
-  <si>
-    <t>- Saage oma toodetele olulisi värskendusi.</t>
-  </si>
-  <si>
-    <t>- Faigh nuashonruithe tábhachtacha faoi do tháirgí</t>
-  </si>
-  <si>
-    <t>- Να λαμβάνετε σημαντικές ενημερώσεις σχετικά με τα προϊόντα σας.</t>
-  </si>
-  <si>
-    <t>קבל עדכונים חשובים לגבי המוצרים שלך -</t>
-  </si>
-  <si>
-    <t>- अपने उत्पाद के बारे में महत्वपूर्ण अद्यतन प्राप्त करें</t>
-  </si>
-  <si>
-    <t>- Fontos frissítéseket kap a termékkel kapcsolatban</t>
-  </si>
-  <si>
-    <t>- Dapatkan pembaruan penting tentang produk Anda</t>
-  </si>
-  <si>
-    <t>- Өнімдер туралы маңызды жаңартулар алыңыз</t>
-  </si>
-  <si>
-    <t>- Saņemiet svarīgus atjauninājumus par saviem produktiem</t>
-  </si>
-  <si>
-    <t>- Gaukite svarbius naujinimus apie savo gaminius</t>
-  </si>
-  <si>
-    <t>- Добивајте важни ажурирања за вашите производи</t>
-  </si>
-  <si>
-    <t>- Terima kemas kini penting tentang produk anda</t>
-  </si>
-  <si>
-    <t>- Dobijajte najnovije informacije o Vašem proizvodu</t>
-  </si>
-  <si>
-    <t>- receba atualizações importantes sobre produtos</t>
-  </si>
-  <si>
-    <t>- Primajte važne ispravke za vaše proizvode</t>
-  </si>
-  <si>
-    <t>- dostávajte dôležité informácie o svojich výrobkoch</t>
-  </si>
-  <si>
-    <t>- Prejemajte pomembne novice o svojih izdelkih</t>
-  </si>
-  <si>
-    <t>- รับการอัพเดตสำคัญเกี่ยวกับผลิตภัณฑ์ของคุณ</t>
-  </si>
-  <si>
-    <t>- Nhận cập nhật quan trọng về sản phẩm của bạn</t>
-  </si>
-  <si>
-    <t>- Modtag vigtige opdateringer om dine produkter</t>
-  </si>
-  <si>
-    <t>- Saat tärkeitä uutisia tuotteestasi</t>
-  </si>
-  <si>
-    <t>- få viktiga uppdateringar om dina produkter</t>
-  </si>
-  <si>
-    <t>مطالب به‌روز و مهم درباره محصولات خود را دریافت کنید -</t>
-  </si>
-  <si>
-    <t>- Ürünlerinizle ilgili önemli güncellemeleri alın</t>
-  </si>
-  <si>
-    <t>zh-rHK</t>
-  </si>
-  <si>
-    <t>en-rGB</t>
-  </si>
-  <si>
-    <t>es-rAR</t>
-  </si>
-  <si>
-    <t>es-rMX</t>
-  </si>
-  <si>
-    <t>sq-rAL</t>
-  </si>
-  <si>
-    <t>pt-rBR</t>
-  </si>
-  <si>
-    <t>fr-rCA</t>
-  </si>
-  <si>
-    <t>zh-rTW</t>
-  </si>
-  <si>
-    <t>zh-rCN</t>
-  </si>
-  <si>
-    <t>sr-rME</t>
-  </si>
-  <si>
-    <t>- If it is a connected Philips product, make sure you have connected the product to this app</t>
-  </si>
-  <si>
-    <t>- Or register your product in the web version at www.philips.com</t>
-  </si>
-  <si>
-    <t>All the products that are currently connected to this app have been registered successfully!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPR_Continue </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Continue </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPR_Missing_Ctn_Title </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missing CTN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPR_Missing_Ctn_ErrMsg </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please enter CTN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPR_Register_Next </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Register next </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPR_Back_To_List </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Back to list </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPR_OK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OK </t>
   </si>
 </sst>
 </file>
@@ -22410,7 +25326,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -22468,9 +25384,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -22485,6 +25398,21 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="38">
@@ -27889,8 +30817,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:IW50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D27" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.3984375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28087,154 +31015,154 @@
         <v>54</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1834</v>
+        <v>2303</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>1835</v>
+        <v>2304</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>2093</v>
+        <v>2305</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>2092</v>
+        <v>2306</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>2085</v>
+        <v>2307</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>1836</v>
+        <v>2308</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>1837</v>
+        <v>2309</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>1838</v>
+        <v>2310</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>1839</v>
+        <v>2311</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>1840</v>
+        <v>2312</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>1841</v>
+        <v>2313</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>1842</v>
+        <v>2314</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>1843</v>
+        <v>2315</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>1844</v>
+        <v>2316</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>1845</v>
+        <v>2317</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>2086</v>
+        <v>2318</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>2091</v>
+        <v>2319</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>1846</v>
+        <v>2320</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>2088</v>
+        <v>2321</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>1847</v>
+        <v>2322</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>1848</v>
+        <v>2323</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>2089</v>
+        <v>2324</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>1849</v>
+        <v>2325</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>1850</v>
+        <v>2326</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>1851</v>
+        <v>2327</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>1852</v>
+        <v>2328</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>1853</v>
+        <v>2329</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>1854</v>
+        <v>2330</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>1855</v>
+        <v>2331</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>1856</v>
+        <v>2332</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>1857</v>
+        <v>2333</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>1858</v>
+        <v>2334</v>
       </c>
       <c r="AL2" s="6" t="s">
-        <v>1859</v>
+        <v>2335</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>1860</v>
+        <v>2336</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>1861</v>
+        <v>2337</v>
       </c>
       <c r="AO2" s="6" t="s">
-        <v>1862</v>
+        <v>2338</v>
       </c>
       <c r="AP2" s="6" t="s">
-        <v>1863</v>
-      </c>
-      <c r="AQ2" s="22" t="s">
-        <v>2094</v>
+        <v>2339</v>
+      </c>
+      <c r="AQ2" s="21" t="s">
+        <v>2340</v>
       </c>
       <c r="AR2" s="6" t="s">
-        <v>2090</v>
+        <v>2341</v>
       </c>
       <c r="AS2" s="6" t="s">
-        <v>1864</v>
+        <v>2342</v>
       </c>
       <c r="AT2" s="6" t="s">
-        <v>1865</v>
+        <v>2343</v>
       </c>
       <c r="AU2" s="6" t="s">
-        <v>1866</v>
+        <v>2344</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>2087</v>
+        <v>2345</v>
       </c>
       <c r="AW2" s="6" t="s">
-        <v>1867</v>
+        <v>2346</v>
       </c>
       <c r="AX2" s="6" t="s">
-        <v>1868</v>
+        <v>2347</v>
       </c>
       <c r="AY2" s="7" t="s">
-        <v>1869</v>
+        <v>2348</v>
       </c>
       <c r="AZ2" s="7" t="s">
-        <v>1870</v>
+        <v>2349</v>
       </c>
       <c r="BA2" s="7" t="s">
-        <v>1871</v>
+        <v>2350</v>
       </c>
       <c r="BB2" s="7" t="s">
-        <v>1872</v>
+        <v>2351</v>
       </c>
       <c r="BC2" s="7" t="s">
-        <v>1873</v>
+        <v>2352</v>
       </c>
       <c r="BD2" s="12"/>
       <c r="BE2" s="12"/>
@@ -28275,8 +31203,8 @@
       <c r="L3" s="4" t="s">
         <v>1377</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>1874</v>
+      <c r="M3" s="14" t="s">
+        <v>1834</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>901</v>
@@ -28338,7 +31266,7 @@
       <c r="AG3" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AH3" s="14" t="s">
         <v>678</v>
       </c>
       <c r="AI3" s="4" t="s">
@@ -28398,8 +31326,8 @@
       <c r="BA3" s="4" t="s">
         <v>1547</v>
       </c>
-      <c r="BB3" s="4" t="s">
-        <v>1913</v>
+      <c r="BB3" s="14" t="s">
+        <v>1873</v>
       </c>
       <c r="BC3" s="4" t="s">
         <v>1622</v>
@@ -28442,7 +31370,7 @@
         <v>1378</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>1875</v>
+        <v>1835</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>902</v>
@@ -28504,7 +31432,7 @@
       <c r="AG4" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AH4" s="14" t="s">
         <v>679</v>
       </c>
       <c r="AI4" s="4" t="s">
@@ -28565,7 +31493,7 @@
         <v>1548</v>
       </c>
       <c r="BB4" s="14" t="s">
-        <v>1914</v>
+        <v>1874</v>
       </c>
       <c r="BC4" s="4" t="s">
         <v>1623</v>
@@ -28584,157 +31512,157 @@
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="4" t="s">
+        <v>1996</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>1997</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>1998</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>1999</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>2000</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>2001</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>2002</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>2003</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>2004</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>2005</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>2006</v>
+      </c>
+      <c r="P5" s="22" t="s">
+        <v>2007</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>2008</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>2009</v>
+      </c>
+      <c r="S5" s="22" t="s">
+        <v>2010</v>
+      </c>
+      <c r="T5" s="22" t="s">
+        <v>2011</v>
+      </c>
+      <c r="U5" s="22" t="s">
+        <v>1996</v>
+      </c>
+      <c r="V5" s="22" t="s">
+        <v>2012</v>
+      </c>
+      <c r="W5" s="22" t="s">
+        <v>2013</v>
+      </c>
+      <c r="X5" s="22" t="s">
+        <v>2014</v>
+      </c>
+      <c r="Y5" s="22" t="s">
+        <v>2015</v>
+      </c>
+      <c r="Z5" s="22" t="s">
+        <v>2016</v>
+      </c>
+      <c r="AA5" s="22" t="s">
+        <v>2017</v>
+      </c>
+      <c r="AB5" s="22" t="s">
+        <v>2018</v>
+      </c>
+      <c r="AC5" s="22" t="s">
+        <v>2019</v>
+      </c>
+      <c r="AD5" s="22" t="s">
+        <v>2020</v>
+      </c>
+      <c r="AE5" s="22" t="s">
+        <v>2021</v>
+      </c>
+      <c r="AF5" s="22" t="s">
+        <v>2022</v>
+      </c>
+      <c r="AG5" s="22" t="s">
+        <v>2023</v>
+      </c>
+      <c r="AH5" s="26" t="s">
+        <v>2024</v>
+      </c>
+      <c r="AI5" s="22" t="s">
+        <v>2025</v>
+      </c>
+      <c r="AJ5" s="22" t="s">
+        <v>2026</v>
+      </c>
+      <c r="AK5" s="22" t="s">
+        <v>2027</v>
+      </c>
+      <c r="AL5" s="22" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AM5" s="22" t="s">
+        <v>2029</v>
+      </c>
+      <c r="AN5" s="22" t="s">
+        <v>2030</v>
+      </c>
+      <c r="AO5" s="22" t="s">
+        <v>2031</v>
+      </c>
+      <c r="AP5" s="22" t="s">
+        <v>2032</v>
+      </c>
+      <c r="AQ5" s="22" t="s">
+        <v>2033</v>
+      </c>
+      <c r="AR5" s="22" t="s">
+        <v>2034</v>
+      </c>
+      <c r="AS5" s="22" t="s">
+        <v>2035</v>
+      </c>
+      <c r="AT5" s="22" t="s">
         <v>2036</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="AU5" s="22" t="s">
         <v>2037</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="AV5" s="22" t="s">
+        <v>2014</v>
+      </c>
+      <c r="AW5" s="22" t="s">
         <v>2038</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="AX5" s="22" t="s">
         <v>2039</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="AY5" s="22" t="s">
         <v>2040</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="AZ5" s="22" t="s">
         <v>2041</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="BA5" s="22" t="s">
         <v>2042</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="BB5" s="14" t="s">
         <v>2043</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="BC5" s="22" t="s">
         <v>2044</v>
-      </c>
-      <c r="N5" s="23" t="s">
-        <v>2045</v>
-      </c>
-      <c r="O5" s="23" t="s">
-        <v>2046</v>
-      </c>
-      <c r="P5" s="23" t="s">
-        <v>2047</v>
-      </c>
-      <c r="Q5" s="23" t="s">
-        <v>2048</v>
-      </c>
-      <c r="R5" s="23" t="s">
-        <v>2049</v>
-      </c>
-      <c r="S5" s="23" t="s">
-        <v>2050</v>
-      </c>
-      <c r="T5" s="23" t="s">
-        <v>2051</v>
-      </c>
-      <c r="U5" s="23" t="s">
-        <v>2036</v>
-      </c>
-      <c r="V5" s="23" t="s">
-        <v>2052</v>
-      </c>
-      <c r="W5" s="23" t="s">
-        <v>2053</v>
-      </c>
-      <c r="X5" s="23" t="s">
-        <v>2054</v>
-      </c>
-      <c r="Y5" s="23" t="s">
-        <v>2055</v>
-      </c>
-      <c r="Z5" s="23" t="s">
-        <v>2056</v>
-      </c>
-      <c r="AA5" s="23" t="s">
-        <v>2057</v>
-      </c>
-      <c r="AB5" s="23" t="s">
-        <v>2058</v>
-      </c>
-      <c r="AC5" s="23" t="s">
-        <v>2059</v>
-      </c>
-      <c r="AD5" s="23" t="s">
-        <v>2060</v>
-      </c>
-      <c r="AE5" s="23" t="s">
-        <v>2061</v>
-      </c>
-      <c r="AF5" s="23" t="s">
-        <v>2062</v>
-      </c>
-      <c r="AG5" s="23" t="s">
-        <v>2063</v>
-      </c>
-      <c r="AH5" s="23" t="s">
-        <v>2064</v>
-      </c>
-      <c r="AI5" s="23" t="s">
-        <v>2065</v>
-      </c>
-      <c r="AJ5" s="23" t="s">
-        <v>2066</v>
-      </c>
-      <c r="AK5" s="23" t="s">
-        <v>2067</v>
-      </c>
-      <c r="AL5" s="23" t="s">
-        <v>2068</v>
-      </c>
-      <c r="AM5" s="23" t="s">
-        <v>2069</v>
-      </c>
-      <c r="AN5" s="23" t="s">
-        <v>2070</v>
-      </c>
-      <c r="AO5" s="23" t="s">
-        <v>2071</v>
-      </c>
-      <c r="AP5" s="23" t="s">
-        <v>2072</v>
-      </c>
-      <c r="AQ5" s="23" t="s">
-        <v>2073</v>
-      </c>
-      <c r="AR5" s="23" t="s">
-        <v>2074</v>
-      </c>
-      <c r="AS5" s="23" t="s">
-        <v>2075</v>
-      </c>
-      <c r="AT5" s="23" t="s">
-        <v>2076</v>
-      </c>
-      <c r="AU5" s="23" t="s">
-        <v>2077</v>
-      </c>
-      <c r="AV5" s="23" t="s">
-        <v>2054</v>
-      </c>
-      <c r="AW5" s="23" t="s">
-        <v>2078</v>
-      </c>
-      <c r="AX5" s="23" t="s">
-        <v>2079</v>
-      </c>
-      <c r="AY5" s="23" t="s">
-        <v>2080</v>
-      </c>
-      <c r="AZ5" s="23" t="s">
-        <v>2081</v>
-      </c>
-      <c r="BA5" s="23" t="s">
-        <v>2082</v>
-      </c>
-      <c r="BB5" s="14" t="s">
-        <v>2083</v>
-      </c>
-      <c r="BC5" s="23" t="s">
-        <v>2084</v>
       </c>
       <c r="BD5" s="2"/>
       <c r="BE5" s="2"/>
@@ -28775,8 +31703,8 @@
       <c r="L6" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>1876</v>
+      <c r="M6" s="14" t="s">
+        <v>1836</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>903</v>
@@ -28838,7 +31766,7 @@
       <c r="AG6" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="AH6" s="4" t="s">
+      <c r="AH6" s="14" t="s">
         <v>680</v>
       </c>
       <c r="AI6" s="4" t="s">
@@ -28898,8 +31826,8 @@
       <c r="BA6" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="BB6" s="4" t="s">
-        <v>1915</v>
+      <c r="BB6" s="14" t="s">
+        <v>1875</v>
       </c>
       <c r="BC6" s="4" t="s">
         <v>1624</v>
@@ -28943,8 +31871,8 @@
       <c r="L7" s="4" t="s">
         <v>1379</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>1877</v>
+      <c r="M7" s="14" t="s">
+        <v>1837</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>904</v>
@@ -29006,7 +31934,7 @@
       <c r="AG7" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="AH7" s="4" t="s">
+      <c r="AH7" s="14" t="s">
         <v>681</v>
       </c>
       <c r="AI7" s="4" t="s">
@@ -29066,8 +31994,8 @@
       <c r="BA7" s="4" t="s">
         <v>1549</v>
       </c>
-      <c r="BB7" s="4" t="s">
-        <v>1916</v>
+      <c r="BB7" s="14" t="s">
+        <v>1876</v>
       </c>
       <c r="BC7" s="4" t="s">
         <v>1625</v>
@@ -29081,7 +32009,7 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="4" t="s">
-        <v>2097</v>
+        <v>2047</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>321</v>
@@ -29105,7 +32033,7 @@
         <v>1380</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>1878</v>
+        <v>1838</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>905</v>
@@ -29167,7 +32095,7 @@
       <c r="AG8" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="AH8" s="4" t="s">
+      <c r="AH8" s="14" t="s">
         <v>682</v>
       </c>
       <c r="AI8" s="4" t="s">
@@ -29228,7 +32156,7 @@
         <v>1550</v>
       </c>
       <c r="BB8" s="14" t="s">
-        <v>1917</v>
+        <v>1877</v>
       </c>
       <c r="BC8" s="4" t="s">
         <v>1626</v>
@@ -29266,7 +32194,7 @@
         <v>1381</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>1879</v>
+        <v>1839</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>906</v>
@@ -29328,7 +32256,7 @@
       <c r="AG9" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="AH9" s="4" t="s">
+      <c r="AH9" s="14" t="s">
         <v>683</v>
       </c>
       <c r="AI9" s="4" t="s">
@@ -29389,7 +32317,7 @@
         <v>1551</v>
       </c>
       <c r="BB9" s="14" t="s">
-        <v>1918</v>
+        <v>1878</v>
       </c>
       <c r="BC9" s="4" t="s">
         <v>1627</v>
@@ -29403,157 +32331,157 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="4" t="s">
-        <v>2095</v>
+        <v>2045</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>1912</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>1913</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>1914</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>1915</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>1916</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>1917</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>1918</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>1840</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>1919</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>1920</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>1921</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>1922</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>1923</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>1924</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>1925</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>1926</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>1927</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>1928</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>1929</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>1930</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>1931</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>1932</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>1933</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>1934</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>1935</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>1936</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>1937</v>
+      </c>
+      <c r="AG10" s="4" t="s">
+        <v>1938</v>
+      </c>
+      <c r="AH10" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="AI10" s="4" t="s">
+        <v>1939</v>
+      </c>
+      <c r="AJ10" s="4" t="s">
+        <v>1940</v>
+      </c>
+      <c r="AK10" s="4" t="s">
+        <v>1941</v>
+      </c>
+      <c r="AL10" s="4" t="s">
+        <v>1942</v>
+      </c>
+      <c r="AM10" s="4" t="s">
+        <v>1943</v>
+      </c>
+      <c r="AN10" s="4" t="s">
+        <v>1944</v>
+      </c>
+      <c r="AO10" s="4" t="s">
+        <v>1945</v>
+      </c>
+      <c r="AP10" s="4" t="s">
+        <v>1946</v>
+      </c>
+      <c r="AQ10" s="4" t="s">
+        <v>1947</v>
+      </c>
+      <c r="AR10" s="4" t="s">
+        <v>1948</v>
+      </c>
+      <c r="AS10" s="4" t="s">
+        <v>1949</v>
+      </c>
+      <c r="AT10" s="4" t="s">
+        <v>1950</v>
+      </c>
+      <c r="AU10" s="4" t="s">
+        <v>1951</v>
+      </c>
+      <c r="AV10" s="4" t="s">
+        <v>1929</v>
+      </c>
+      <c r="AW10" s="4" t="s">
         <v>1952</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="AX10" s="4" t="s">
         <v>1953</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="AY10" s="4" t="s">
         <v>1954</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="AZ10" s="4" t="s">
         <v>1955</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="BA10" s="4" t="s">
         <v>1956</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="BB10" s="14" t="s">
+        <v>1879</v>
+      </c>
+      <c r="BC10" s="4" t="s">
         <v>1957</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>1958</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>1880</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>1959</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>1960</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>1961</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>1962</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>1963</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>1964</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>1965</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>1966</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>1967</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>1968</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>1969</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>1970</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>1971</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>1972</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>1973</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>1974</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>1975</v>
-      </c>
-      <c r="AE10" s="4" t="s">
-        <v>1976</v>
-      </c>
-      <c r="AF10" s="4" t="s">
-        <v>1977</v>
-      </c>
-      <c r="AG10" s="4" t="s">
-        <v>1978</v>
-      </c>
-      <c r="AH10" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="AI10" s="4" t="s">
-        <v>1979</v>
-      </c>
-      <c r="AJ10" s="4" t="s">
-        <v>1980</v>
-      </c>
-      <c r="AK10" s="4" t="s">
-        <v>1981</v>
-      </c>
-      <c r="AL10" s="4" t="s">
-        <v>1982</v>
-      </c>
-      <c r="AM10" s="4" t="s">
-        <v>1983</v>
-      </c>
-      <c r="AN10" s="4" t="s">
-        <v>1984</v>
-      </c>
-      <c r="AO10" s="4" t="s">
-        <v>1985</v>
-      </c>
-      <c r="AP10" s="4" t="s">
-        <v>1986</v>
-      </c>
-      <c r="AQ10" s="4" t="s">
-        <v>1987</v>
-      </c>
-      <c r="AR10" s="4" t="s">
-        <v>1988</v>
-      </c>
-      <c r="AS10" s="4" t="s">
-        <v>1989</v>
-      </c>
-      <c r="AT10" s="4" t="s">
-        <v>1990</v>
-      </c>
-      <c r="AU10" s="4" t="s">
-        <v>1991</v>
-      </c>
-      <c r="AV10" s="4" t="s">
-        <v>1969</v>
-      </c>
-      <c r="AW10" s="4" t="s">
-        <v>1992</v>
-      </c>
-      <c r="AX10" s="4" t="s">
-        <v>1993</v>
-      </c>
-      <c r="AY10" s="4" t="s">
-        <v>1994</v>
-      </c>
-      <c r="AZ10" s="4" t="s">
-        <v>1995</v>
-      </c>
-      <c r="BA10" s="4" t="s">
-        <v>1996</v>
-      </c>
-      <c r="BB10" s="14" t="s">
-        <v>1919</v>
-      </c>
-      <c r="BC10" s="4" t="s">
-        <v>1997</v>
       </c>
     </row>
     <row r="11" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -29564,7 +32492,7 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="4" t="s">
-        <v>2096</v>
+        <v>2046</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>323</v>
@@ -29588,7 +32516,7 @@
         <v>1382</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>1881</v>
+        <v>1841</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>907</v>
@@ -29650,7 +32578,7 @@
       <c r="AG11" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="AH11" s="4" t="s">
+      <c r="AH11" s="14" t="s">
         <v>685</v>
       </c>
       <c r="AI11" s="4" t="s">
@@ -29711,7 +32639,7 @@
         <v>1552</v>
       </c>
       <c r="BB11" s="14" t="s">
-        <v>1920</v>
+        <v>1880</v>
       </c>
       <c r="BC11" s="4" t="s">
         <v>1628</v>
@@ -29750,8 +32678,8 @@
       <c r="L12" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>1882</v>
+      <c r="M12" s="14" t="s">
+        <v>1842</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>908</v>
@@ -29813,7 +32741,7 @@
       <c r="AG12" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="AH12" s="4" t="s">
+      <c r="AH12" s="14" t="s">
         <v>686</v>
       </c>
       <c r="AI12" s="4" t="s">
@@ -29873,8 +32801,8 @@
       <c r="BA12" s="4" t="s">
         <v>1553</v>
       </c>
-      <c r="BB12" s="4" t="s">
-        <v>1921</v>
+      <c r="BB12" s="14" t="s">
+        <v>1881</v>
       </c>
       <c r="BC12" s="4" t="s">
         <v>1629</v>
@@ -29913,8 +32841,8 @@
       <c r="L13" s="4" t="s">
         <v>1383</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>1883</v>
+      <c r="M13" s="14" t="s">
+        <v>1843</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>909</v>
@@ -29976,7 +32904,7 @@
       <c r="AG13" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="AH13" s="4" t="s">
+      <c r="AH13" s="14" t="s">
         <v>687</v>
       </c>
       <c r="AI13" s="4" t="s">
@@ -30036,8 +32964,8 @@
       <c r="BA13" s="4" t="s">
         <v>1554</v>
       </c>
-      <c r="BB13" s="4" t="s">
-        <v>1922</v>
+      <c r="BB13" s="14" t="s">
+        <v>1882</v>
       </c>
       <c r="BC13" s="4" t="s">
         <v>1630</v>
@@ -30075,7 +33003,7 @@
         <v>1384</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>1884</v>
+        <v>1844</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>910</v>
@@ -30137,7 +33065,7 @@
       <c r="AG14" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="AH14" s="4" t="s">
+      <c r="AH14" s="14" t="s">
         <v>688</v>
       </c>
       <c r="AI14" s="4" t="s">
@@ -30198,7 +33126,7 @@
         <v>1555</v>
       </c>
       <c r="BB14" s="14" t="s">
-        <v>1923</v>
+        <v>1883</v>
       </c>
       <c r="BC14" s="4" t="s">
         <v>1631</v>
@@ -30236,7 +33164,7 @@
         <v>1385</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>1885</v>
+        <v>1845</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>911</v>
@@ -30298,7 +33226,7 @@
       <c r="AG15" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="AH15" s="4" t="s">
+      <c r="AH15" s="14" t="s">
         <v>689</v>
       </c>
       <c r="AI15" s="4" t="s">
@@ -30359,7 +33287,7 @@
         <v>1556</v>
       </c>
       <c r="BB15" s="14" t="s">
-        <v>1924</v>
+        <v>1884</v>
       </c>
       <c r="BC15" s="4" t="s">
         <v>1632</v>
@@ -30397,7 +33325,7 @@
         <v>1386</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>1886</v>
+        <v>1846</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>912</v>
@@ -30459,7 +33387,7 @@
       <c r="AG16" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="AH16" s="4" t="s">
+      <c r="AH16" s="14" t="s">
         <v>690</v>
       </c>
       <c r="AI16" s="4" t="s">
@@ -30520,7 +33448,7 @@
         <v>1557</v>
       </c>
       <c r="BB16" s="14" t="s">
-        <v>1925</v>
+        <v>1885</v>
       </c>
       <c r="BC16" s="4" t="s">
         <v>1633</v>
@@ -30558,7 +33486,7 @@
         <v>1387</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>1887</v>
+        <v>1847</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>913</v>
@@ -30620,7 +33548,7 @@
       <c r="AG17" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="AH17" s="4" t="s">
+      <c r="AH17" s="14" t="s">
         <v>691</v>
       </c>
       <c r="AI17" s="4" t="s">
@@ -30681,7 +33609,7 @@
         <v>1558</v>
       </c>
       <c r="BB17" s="14" t="s">
-        <v>1926</v>
+        <v>1886</v>
       </c>
       <c r="BC17" s="4" t="s">
         <v>1634</v>
@@ -30719,7 +33647,7 @@
         <v>1388</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>1888</v>
+        <v>1848</v>
       </c>
       <c r="N18" s="4" t="s">
         <v>914</v>
@@ -30781,7 +33709,7 @@
       <c r="AG18" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="AH18" s="4" t="s">
+      <c r="AH18" s="14" t="s">
         <v>692</v>
       </c>
       <c r="AI18" s="4" t="s">
@@ -30842,7 +33770,7 @@
         <v>1559</v>
       </c>
       <c r="BB18" s="14" t="s">
-        <v>1927</v>
+        <v>1887</v>
       </c>
       <c r="BC18" s="4" t="s">
         <v>1635</v>
@@ -30880,7 +33808,7 @@
         <v>1389</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>1889</v>
+        <v>1849</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>915</v>
@@ -30942,7 +33870,7 @@
       <c r="AG19" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="AH19" s="4" t="s">
+      <c r="AH19" s="14" t="s">
         <v>693</v>
       </c>
       <c r="AI19" s="4" t="s">
@@ -31003,7 +33931,7 @@
         <v>1560</v>
       </c>
       <c r="BB19" s="14" t="s">
-        <v>1928</v>
+        <v>1888</v>
       </c>
       <c r="BC19" s="4" t="s">
         <v>1636</v>
@@ -31041,7 +33969,7 @@
         <v>1390</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>1890</v>
+        <v>1850</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>916</v>
@@ -31103,7 +34031,7 @@
       <c r="AG20" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="AH20" s="4" t="s">
+      <c r="AH20" s="14" t="s">
         <v>694</v>
       </c>
       <c r="AI20" s="4" t="s">
@@ -31164,7 +34092,7 @@
         <v>1561</v>
       </c>
       <c r="BB20" s="14" t="s">
-        <v>1929</v>
+        <v>1889</v>
       </c>
       <c r="BC20" s="4" t="s">
         <v>1637</v>
@@ -31202,7 +34130,7 @@
         <v>1391</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>1891</v>
+        <v>1851</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>917</v>
@@ -31264,7 +34192,7 @@
       <c r="AG21" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="AH21" s="4" t="s">
+      <c r="AH21" s="14" t="s">
         <v>695</v>
       </c>
       <c r="AI21" s="4" t="s">
@@ -31325,7 +34253,7 @@
         <v>1562</v>
       </c>
       <c r="BB21" s="14" t="s">
-        <v>1930</v>
+        <v>1890</v>
       </c>
       <c r="BC21" s="4" t="s">
         <v>1638</v>
@@ -31363,7 +34291,7 @@
         <v>1392</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>1892</v>
+        <v>1852</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>918</v>
@@ -31425,7 +34353,7 @@
       <c r="AG22" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="AH22" s="4" t="s">
+      <c r="AH22" s="14" t="s">
         <v>696</v>
       </c>
       <c r="AI22" s="4" t="s">
@@ -31486,7 +34414,7 @@
         <v>1563</v>
       </c>
       <c r="BB22" s="14" t="s">
-        <v>1931</v>
+        <v>1891</v>
       </c>
       <c r="BC22" s="4" t="s">
         <v>1639</v>
@@ -31524,7 +34452,7 @@
         <v>1393</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>1893</v>
+        <v>1853</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>919</v>
@@ -31586,7 +34514,7 @@
       <c r="AG23" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="AH23" s="4" t="s">
+      <c r="AH23" s="14" t="s">
         <v>697</v>
       </c>
       <c r="AI23" s="4" t="s">
@@ -31647,7 +34575,7 @@
         <v>1564</v>
       </c>
       <c r="BB23" s="14" t="s">
-        <v>1932</v>
+        <v>1892</v>
       </c>
       <c r="BC23" s="4" t="s">
         <v>1640</v>
@@ -31685,7 +34613,7 @@
         <v>1394</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>1894</v>
+        <v>1854</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>920</v>
@@ -31747,7 +34675,7 @@
       <c r="AG24" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="AH24" s="4" t="s">
+      <c r="AH24" s="14" t="s">
         <v>698</v>
       </c>
       <c r="AI24" s="4" t="s">
@@ -31808,7 +34736,7 @@
         <v>1565</v>
       </c>
       <c r="BB24" s="14" t="s">
-        <v>1933</v>
+        <v>1893</v>
       </c>
       <c r="BC24" s="4" t="s">
         <v>1641</v>
@@ -31846,7 +34774,7 @@
         <v>1395</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>1895</v>
+        <v>1855</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>921</v>
@@ -31908,7 +34836,7 @@
       <c r="AG25" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="AH25" s="4" t="s">
+      <c r="AH25" s="14" t="s">
         <v>699</v>
       </c>
       <c r="AI25" s="4" t="s">
@@ -31969,7 +34897,7 @@
         <v>1566</v>
       </c>
       <c r="BB25" s="14" t="s">
-        <v>1934</v>
+        <v>1894</v>
       </c>
       <c r="BC25" s="4" t="s">
         <v>1642</v>
@@ -32007,7 +34935,7 @@
         <v>1396</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>1896</v>
+        <v>1856</v>
       </c>
       <c r="N26" s="4" t="s">
         <v>922</v>
@@ -32069,7 +34997,7 @@
       <c r="AG26" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="AH26" s="4" t="s">
+      <c r="AH26" s="14" t="s">
         <v>700</v>
       </c>
       <c r="AI26" s="4" t="s">
@@ -32130,7 +35058,7 @@
         <v>1567</v>
       </c>
       <c r="BB26" s="14" t="s">
-        <v>1935</v>
+        <v>1895</v>
       </c>
       <c r="BC26" s="4" t="s">
         <v>1643</v>
@@ -32168,7 +35096,7 @@
         <v>1397</v>
       </c>
       <c r="M27" s="14" t="s">
-        <v>1897</v>
+        <v>1857</v>
       </c>
       <c r="N27" s="4" t="s">
         <v>923</v>
@@ -32230,7 +35158,7 @@
       <c r="AG27" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="AH27" s="4" t="s">
+      <c r="AH27" s="14" t="s">
         <v>701</v>
       </c>
       <c r="AI27" s="4" t="s">
@@ -32291,7 +35219,7 @@
         <v>1568</v>
       </c>
       <c r="BB27" s="14" t="s">
-        <v>1936</v>
+        <v>1896</v>
       </c>
       <c r="BC27" s="4" t="s">
         <v>1644</v>
@@ -32329,7 +35257,7 @@
         <v>1398</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>1898</v>
+        <v>1858</v>
       </c>
       <c r="N28" s="4" t="s">
         <v>924</v>
@@ -32391,7 +35319,7 @@
       <c r="AG28" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="AH28" s="4" t="s">
+      <c r="AH28" s="14" t="s">
         <v>702</v>
       </c>
       <c r="AI28" s="4" t="s">
@@ -32452,7 +35380,7 @@
         <v>1569</v>
       </c>
       <c r="BB28" s="14" t="s">
-        <v>1937</v>
+        <v>1897</v>
       </c>
       <c r="BC28" s="4" t="s">
         <v>1645</v>
@@ -32465,157 +35393,157 @@
         <v>122</v>
       </c>
       <c r="D29" s="8"/>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="19" t="s">
         <v>601</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="H29" s="19" t="s">
         <v>1759</v>
       </c>
-      <c r="I29" s="20" t="s">
+      <c r="I29" s="19" t="s">
         <v>1826</v>
       </c>
-      <c r="J29" s="20" t="s">
+      <c r="J29" s="19" t="s">
         <v>1794</v>
       </c>
-      <c r="K29" s="20" t="s">
+      <c r="K29" s="19" t="s">
         <v>1296</v>
       </c>
-      <c r="L29" s="20" t="s">
+      <c r="L29" s="19" t="s">
         <v>1399</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>1899</v>
-      </c>
-      <c r="N29" s="20" t="s">
+        <v>1859</v>
+      </c>
+      <c r="N29" s="19" t="s">
         <v>925</v>
       </c>
-      <c r="O29" s="20" t="s">
+      <c r="O29" s="19" t="s">
         <v>1184</v>
       </c>
-      <c r="P29" s="20" t="s">
+      <c r="P29" s="19" t="s">
         <v>887</v>
       </c>
-      <c r="Q29" s="20" t="s">
+      <c r="Q29" s="19" t="s">
         <v>1258</v>
       </c>
-      <c r="R29" s="20" t="s">
+      <c r="R29" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="S29" s="20" t="s">
+      <c r="S29" s="19" t="s">
         <v>999</v>
       </c>
-      <c r="T29" s="20" t="s">
+      <c r="T29" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="U29" s="20" t="s">
+      <c r="U29" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="V29" s="20" t="s">
+      <c r="V29" s="19" t="s">
         <v>632</v>
       </c>
-      <c r="W29" s="20" t="s">
+      <c r="W29" s="19" t="s">
         <v>1363</v>
       </c>
-      <c r="X29" s="20" t="s">
+      <c r="X29" s="19" t="s">
         <v>491</v>
       </c>
-      <c r="Y29" s="20" t="s">
+      <c r="Y29" s="19" t="s">
         <v>1683</v>
       </c>
-      <c r="Z29" s="20" t="s">
+      <c r="Z29" s="19" t="s">
         <v>1221</v>
       </c>
-      <c r="AA29" s="20" t="s">
+      <c r="AA29" s="19" t="s">
         <v>1510</v>
       </c>
-      <c r="AB29" s="20" t="s">
+      <c r="AB29" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="AC29" s="20" t="s">
+      <c r="AC29" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="AD29" s="20" t="s">
+      <c r="AD29" s="19" t="s">
         <v>775</v>
       </c>
-      <c r="AE29" s="20" t="s">
+      <c r="AE29" s="19" t="s">
         <v>525</v>
       </c>
-      <c r="AF29" s="20" t="s">
+      <c r="AF29" s="19" t="s">
         <v>664</v>
       </c>
-      <c r="AG29" s="20" t="s">
+      <c r="AG29" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="AH29" s="20" t="s">
+      <c r="AH29" s="27" t="s">
         <v>703</v>
       </c>
-      <c r="AI29" s="20" t="s">
+      <c r="AI29" s="19" t="s">
         <v>742</v>
       </c>
-      <c r="AJ29" s="20" t="s">
+      <c r="AJ29" s="19" t="s">
         <v>811</v>
       </c>
-      <c r="AK29" s="20" t="s">
+      <c r="AK29" s="19" t="s">
         <v>849</v>
       </c>
-      <c r="AL29" s="20" t="s">
+      <c r="AL29" s="19" t="s">
         <v>962</v>
       </c>
-      <c r="AM29" s="20" t="s">
+      <c r="AM29" s="19" t="s">
         <v>1074</v>
       </c>
-      <c r="AN29" s="20" t="s">
+      <c r="AN29" s="19" t="s">
         <v>1037</v>
       </c>
-      <c r="AO29" s="20" t="s">
+      <c r="AO29" s="19" t="s">
         <v>1110</v>
       </c>
-      <c r="AP29" s="20" t="s">
+      <c r="AP29" s="19" t="s">
         <v>1147</v>
       </c>
-      <c r="AQ29" s="20" t="s">
+      <c r="AQ29" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="AR29" s="20" t="s">
+      <c r="AR29" s="19" t="s">
         <v>1329</v>
       </c>
-      <c r="AS29" s="20" t="s">
+      <c r="AS29" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="AT29" s="20" t="s">
+      <c r="AT29" s="19" t="s">
         <v>1437</v>
       </c>
-      <c r="AU29" s="20" t="s">
+      <c r="AU29" s="19" t="s">
         <v>1473</v>
       </c>
-      <c r="AV29" s="20" t="s">
+      <c r="AV29" s="19" t="s">
         <v>491</v>
       </c>
-      <c r="AW29" s="20" t="s">
+      <c r="AW29" s="19" t="s">
         <v>1608</v>
       </c>
-      <c r="AX29" s="20" t="s">
+      <c r="AX29" s="19" t="s">
         <v>1721</v>
       </c>
-      <c r="AY29" s="20" t="s">
+      <c r="AY29" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="AZ29" s="20" t="s">
+      <c r="AZ29" s="19" t="s">
         <v>563</v>
       </c>
-      <c r="BA29" s="20" t="s">
+      <c r="BA29" s="19" t="s">
         <v>1570</v>
       </c>
       <c r="BB29" s="14" t="s">
-        <v>1938</v>
-      </c>
-      <c r="BC29" s="20" t="s">
+        <v>1898</v>
+      </c>
+      <c r="BC29" s="19" t="s">
         <v>1646</v>
       </c>
     </row>
@@ -32626,325 +35554,325 @@
         <v>102</v>
       </c>
       <c r="D30" s="8"/>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="19" t="s">
         <v>602</v>
       </c>
-      <c r="H30" s="20" t="s">
+      <c r="H30" s="19" t="s">
         <v>1760</v>
       </c>
-      <c r="I30" s="20" t="s">
+      <c r="I30" s="19" t="s">
         <v>1795</v>
       </c>
-      <c r="J30" s="20" t="s">
+      <c r="J30" s="19" t="s">
         <v>1795</v>
       </c>
-      <c r="K30" s="20" t="s">
+      <c r="K30" s="19" t="s">
         <v>1297</v>
       </c>
-      <c r="L30" s="20" t="s">
+      <c r="L30" s="19" t="s">
         <v>1400</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>1900</v>
-      </c>
-      <c r="N30" s="20" t="s">
+        <v>1860</v>
+      </c>
+      <c r="N30" s="19" t="s">
         <v>926</v>
       </c>
-      <c r="O30" s="20" t="s">
+      <c r="O30" s="19" t="s">
         <v>1185</v>
       </c>
-      <c r="P30" s="20" t="s">
+      <c r="P30" s="19" t="s">
         <v>888</v>
       </c>
-      <c r="Q30" s="20" t="s">
+      <c r="Q30" s="19" t="s">
         <v>1259</v>
       </c>
-      <c r="R30" s="20" t="s">
+      <c r="R30" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="S30" s="20" t="s">
+      <c r="S30" s="19" t="s">
         <v>1000</v>
       </c>
-      <c r="T30" s="20" t="s">
+      <c r="T30" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="U30" s="20" t="s">
+      <c r="U30" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="V30" s="20" t="s">
+      <c r="V30" s="19" t="s">
         <v>633</v>
       </c>
-      <c r="W30" s="20" t="s">
+      <c r="W30" s="19" t="s">
         <v>1364</v>
       </c>
-      <c r="X30" s="20" t="s">
+      <c r="X30" s="19" t="s">
         <v>492</v>
       </c>
-      <c r="Y30" s="20" t="s">
+      <c r="Y30" s="19" t="s">
         <v>1684</v>
       </c>
-      <c r="Z30" s="20" t="s">
+      <c r="Z30" s="19" t="s">
         <v>1222</v>
       </c>
-      <c r="AA30" s="20" t="s">
+      <c r="AA30" s="19" t="s">
         <v>1511</v>
       </c>
-      <c r="AB30" s="20" t="s">
+      <c r="AB30" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="AC30" s="20" t="s">
+      <c r="AC30" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="AD30" s="20" t="s">
+      <c r="AD30" s="19" t="s">
         <v>776</v>
       </c>
-      <c r="AE30" s="20" t="s">
+      <c r="AE30" s="19" t="s">
         <v>526</v>
       </c>
-      <c r="AF30" s="20" t="s">
+      <c r="AF30" s="19" t="s">
         <v>665</v>
       </c>
-      <c r="AG30" s="20" t="s">
+      <c r="AG30" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="AH30" s="20" t="s">
+      <c r="AH30" s="27" t="s">
         <v>704</v>
       </c>
-      <c r="AI30" s="20" t="s">
+      <c r="AI30" s="19" t="s">
         <v>743</v>
       </c>
-      <c r="AJ30" s="20" t="s">
+      <c r="AJ30" s="19" t="s">
         <v>812</v>
       </c>
-      <c r="AK30" s="20" t="s">
+      <c r="AK30" s="19" t="s">
         <v>850</v>
       </c>
-      <c r="AL30" s="20" t="s">
+      <c r="AL30" s="19" t="s">
         <v>963</v>
       </c>
-      <c r="AM30" s="20" t="s">
+      <c r="AM30" s="19" t="s">
         <v>1075</v>
       </c>
-      <c r="AN30" s="20" t="s">
+      <c r="AN30" s="19" t="s">
         <v>1038</v>
       </c>
-      <c r="AO30" s="20" t="s">
+      <c r="AO30" s="19" t="s">
         <v>1111</v>
       </c>
-      <c r="AP30" s="20" t="s">
+      <c r="AP30" s="19" t="s">
         <v>1148</v>
       </c>
-      <c r="AQ30" s="20" t="s">
+      <c r="AQ30" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="AR30" s="20" t="s">
+      <c r="AR30" s="19" t="s">
         <v>1297</v>
       </c>
-      <c r="AS30" s="20" t="s">
+      <c r="AS30" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="AT30" s="20" t="s">
+      <c r="AT30" s="19" t="s">
         <v>1438</v>
       </c>
-      <c r="AU30" s="20" t="s">
+      <c r="AU30" s="19" t="s">
         <v>1474</v>
       </c>
-      <c r="AV30" s="20" t="s">
+      <c r="AV30" s="19" t="s">
         <v>492</v>
       </c>
-      <c r="AW30" s="20" t="s">
+      <c r="AW30" s="19" t="s">
         <v>1609</v>
       </c>
-      <c r="AX30" s="20" t="s">
+      <c r="AX30" s="19" t="s">
         <v>1722</v>
       </c>
-      <c r="AY30" s="20" t="s">
+      <c r="AY30" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="AZ30" s="20" t="s">
+      <c r="AZ30" s="19" t="s">
         <v>564</v>
       </c>
-      <c r="BA30" s="20" t="s">
+      <c r="BA30" s="19" t="s">
         <v>1571</v>
       </c>
       <c r="BB30" s="14" t="s">
-        <v>1939</v>
-      </c>
-      <c r="BC30" s="20" t="s">
+        <v>1899</v>
+      </c>
+      <c r="BC30" s="19" t="s">
         <v>1647</v>
       </c>
     </row>
     <row r="31" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="19" t="s">
         <v>103</v>
       </c>
       <c r="D31" s="8"/>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="19" t="s">
         <v>603</v>
       </c>
-      <c r="H31" s="20" t="s">
+      <c r="H31" s="19" t="s">
         <v>1761</v>
       </c>
-      <c r="I31" s="20" t="s">
+      <c r="I31" s="19" t="s">
         <v>1827</v>
       </c>
-      <c r="J31" s="20" t="s">
+      <c r="J31" s="19" t="s">
         <v>1796</v>
       </c>
-      <c r="K31" s="20" t="s">
+      <c r="K31" s="19" t="s">
         <v>1298</v>
       </c>
-      <c r="L31" s="20" t="s">
+      <c r="L31" s="19" t="s">
         <v>1401</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>1901</v>
-      </c>
-      <c r="N31" s="20" t="s">
+        <v>1861</v>
+      </c>
+      <c r="N31" s="19" t="s">
         <v>927</v>
       </c>
-      <c r="O31" s="20" t="s">
+      <c r="O31" s="19" t="s">
         <v>1186</v>
       </c>
-      <c r="P31" s="20" t="s">
+      <c r="P31" s="19" t="s">
         <v>889</v>
       </c>
-      <c r="Q31" s="20" t="s">
+      <c r="Q31" s="19" t="s">
         <v>1260</v>
       </c>
-      <c r="R31" s="20" t="s">
+      <c r="R31" s="19" t="s">
         <v>457</v>
       </c>
-      <c r="S31" s="20" t="s">
+      <c r="S31" s="19" t="s">
         <v>1001</v>
       </c>
-      <c r="T31" s="20" t="s">
+      <c r="T31" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="U31" s="20" t="s">
+      <c r="U31" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="V31" s="20" t="s">
+      <c r="V31" s="19" t="s">
         <v>634</v>
       </c>
-      <c r="W31" s="20" t="s">
+      <c r="W31" s="19" t="s">
         <v>1365</v>
       </c>
-      <c r="X31" s="20" t="s">
+      <c r="X31" s="19" t="s">
         <v>493</v>
       </c>
-      <c r="Y31" s="20" t="s">
+      <c r="Y31" s="19" t="s">
         <v>1685</v>
       </c>
-      <c r="Z31" s="20" t="s">
+      <c r="Z31" s="19" t="s">
         <v>1223</v>
       </c>
-      <c r="AA31" s="20" t="s">
+      <c r="AA31" s="19" t="s">
         <v>1512</v>
       </c>
-      <c r="AB31" s="20" t="s">
+      <c r="AB31" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="AC31" s="20" t="s">
+      <c r="AC31" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="AD31" s="20" t="s">
+      <c r="AD31" s="19" t="s">
         <v>777</v>
       </c>
-      <c r="AE31" s="20" t="s">
+      <c r="AE31" s="19" t="s">
         <v>527</v>
       </c>
-      <c r="AF31" s="20" t="s">
+      <c r="AF31" s="19" t="s">
         <v>666</v>
       </c>
-      <c r="AG31" s="20" t="s">
+      <c r="AG31" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="AH31" s="20" t="s">
+      <c r="AH31" s="27" t="s">
         <v>705</v>
       </c>
-      <c r="AI31" s="20" t="s">
+      <c r="AI31" s="19" t="s">
         <v>744</v>
       </c>
-      <c r="AJ31" s="20" t="s">
+      <c r="AJ31" s="19" t="s">
         <v>813</v>
       </c>
-      <c r="AK31" s="20" t="s">
+      <c r="AK31" s="19" t="s">
         <v>851</v>
       </c>
-      <c r="AL31" s="20" t="s">
+      <c r="AL31" s="19" t="s">
         <v>964</v>
       </c>
-      <c r="AM31" s="20" t="s">
+      <c r="AM31" s="19" t="s">
         <v>1076</v>
       </c>
-      <c r="AN31" s="20" t="s">
+      <c r="AN31" s="19" t="s">
         <v>1039</v>
       </c>
-      <c r="AO31" s="20" t="s">
+      <c r="AO31" s="19" t="s">
         <v>1112</v>
       </c>
-      <c r="AP31" s="20" t="s">
+      <c r="AP31" s="19" t="s">
         <v>1149</v>
       </c>
-      <c r="AQ31" s="20" t="s">
+      <c r="AQ31" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="AR31" s="20" t="s">
+      <c r="AR31" s="19" t="s">
         <v>1330</v>
       </c>
-      <c r="AS31" s="20" t="s">
+      <c r="AS31" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="AT31" s="20" t="s">
+      <c r="AT31" s="19" t="s">
         <v>1439</v>
       </c>
-      <c r="AU31" s="20" t="s">
+      <c r="AU31" s="19" t="s">
         <v>1475</v>
       </c>
-      <c r="AV31" s="20" t="s">
+      <c r="AV31" s="19" t="s">
         <v>493</v>
       </c>
-      <c r="AW31" s="20" t="s">
+      <c r="AW31" s="19" t="s">
         <v>1610</v>
       </c>
-      <c r="AX31" s="20" t="s">
+      <c r="AX31" s="19" t="s">
         <v>1723</v>
       </c>
-      <c r="AY31" s="20" t="s">
+      <c r="AY31" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="AZ31" s="20" t="s">
+      <c r="AZ31" s="19" t="s">
         <v>565</v>
       </c>
-      <c r="BA31" s="20" t="s">
+      <c r="BA31" s="19" t="s">
         <v>1572</v>
       </c>
       <c r="BB31" s="14" t="s">
-        <v>1940</v>
-      </c>
-      <c r="BC31" s="20" t="s">
+        <v>1900</v>
+      </c>
+      <c r="BC31" s="19" t="s">
         <v>1648</v>
       </c>
     </row>
     <row r="32" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="19" t="s">
         <v>123</v>
       </c>
       <c r="D32" s="8"/>
@@ -32973,7 +35901,7 @@
         <v>1402</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>1902</v>
+        <v>1862</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>928</v>
@@ -33035,7 +35963,7 @@
       <c r="AG32" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="AH32" s="4" t="s">
+      <c r="AH32" s="14" t="s">
         <v>706</v>
       </c>
       <c r="AI32" s="4" t="s">
@@ -33096,7 +36024,7 @@
         <v>1573</v>
       </c>
       <c r="BB32" s="14" t="s">
-        <v>1941</v>
+        <v>1901</v>
       </c>
       <c r="BC32" s="4" t="s">
         <v>1649</v>
@@ -33134,7 +36062,7 @@
         <v>1403</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>1903</v>
+        <v>1863</v>
       </c>
       <c r="N33" s="4" t="s">
         <v>929</v>
@@ -33196,7 +36124,7 @@
       <c r="AG33" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="AH33" s="4" t="s">
+      <c r="AH33" s="14" t="s">
         <v>707</v>
       </c>
       <c r="AI33" s="4" t="s">
@@ -33257,7 +36185,7 @@
         <v>1574</v>
       </c>
       <c r="BB33" s="14" t="s">
-        <v>1942</v>
+        <v>1902</v>
       </c>
       <c r="BC33" s="4" t="s">
         <v>1650</v>
@@ -33295,7 +36223,7 @@
         <v>1404</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>1904</v>
+        <v>1864</v>
       </c>
       <c r="N34" s="4" t="s">
         <v>930</v>
@@ -33357,7 +36285,7 @@
       <c r="AG34" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="AH34" s="4" t="s">
+      <c r="AH34" s="14" t="s">
         <v>708</v>
       </c>
       <c r="AI34" s="4" t="s">
@@ -33418,7 +36346,7 @@
         <v>1575</v>
       </c>
       <c r="BB34" s="14" t="s">
-        <v>1943</v>
+        <v>1903</v>
       </c>
       <c r="BC34" s="4" t="s">
         <v>1651</v>
@@ -33431,157 +36359,157 @@
         <v>110</v>
       </c>
       <c r="D35" s="8"/>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="F35" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="19" t="s">
         <v>607</v>
       </c>
-      <c r="H35" s="20" t="s">
+      <c r="H35" s="19" t="s">
         <v>1765</v>
       </c>
-      <c r="I35" s="20" t="s">
+      <c r="I35" s="19" t="s">
         <v>1830</v>
       </c>
-      <c r="J35" s="20" t="s">
+      <c r="J35" s="19" t="s">
         <v>1800</v>
       </c>
-      <c r="K35" s="20" t="s">
+      <c r="K35" s="19" t="s">
         <v>1302</v>
       </c>
-      <c r="L35" s="20" t="s">
+      <c r="L35" s="19" t="s">
         <v>1405</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>1905</v>
-      </c>
-      <c r="N35" s="20" t="s">
+        <v>1865</v>
+      </c>
+      <c r="N35" s="19" t="s">
         <v>931</v>
       </c>
-      <c r="O35" s="20" t="s">
+      <c r="O35" s="19" t="s">
         <v>1190</v>
       </c>
-      <c r="P35" s="20" t="s">
+      <c r="P35" s="19" t="s">
         <v>893</v>
       </c>
-      <c r="Q35" s="20" t="s">
+      <c r="Q35" s="19" t="s">
         <v>1264</v>
       </c>
-      <c r="R35" s="20" t="s">
+      <c r="R35" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="S35" s="20" t="s">
+      <c r="S35" s="19" t="s">
         <v>1005</v>
       </c>
-      <c r="T35" s="20" t="s">
+      <c r="T35" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="U35" s="20" t="s">
+      <c r="U35" s="19" t="s">
         <v>423</v>
       </c>
-      <c r="V35" s="20" t="s">
+      <c r="V35" s="19" t="s">
         <v>607</v>
       </c>
-      <c r="W35" s="20" t="s">
+      <c r="W35" s="19" t="s">
         <v>1369</v>
       </c>
-      <c r="X35" s="20" t="s">
+      <c r="X35" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="Y35" s="20" t="s">
+      <c r="Y35" s="19" t="s">
         <v>1689</v>
       </c>
-      <c r="Z35" s="20" t="s">
+      <c r="Z35" s="19" t="s">
         <v>1227</v>
       </c>
-      <c r="AA35" s="20" t="s">
+      <c r="AA35" s="19" t="s">
         <v>1516</v>
       </c>
-      <c r="AB35" s="20" t="s">
+      <c r="AB35" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="AC35" s="20" t="s">
+      <c r="AC35" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="AD35" s="20" t="s">
+      <c r="AD35" s="19" t="s">
         <v>781</v>
       </c>
-      <c r="AE35" s="20" t="s">
+      <c r="AE35" s="19" t="s">
         <v>531</v>
       </c>
-      <c r="AF35" s="20" t="s">
+      <c r="AF35" s="19" t="s">
         <v>670</v>
       </c>
-      <c r="AG35" s="20" t="s">
+      <c r="AG35" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="AH35" s="20" t="s">
+      <c r="AH35" s="27" t="s">
         <v>709</v>
       </c>
-      <c r="AI35" s="20" t="s">
+      <c r="AI35" s="19" t="s">
         <v>748</v>
       </c>
-      <c r="AJ35" s="20" t="s">
+      <c r="AJ35" s="19" t="s">
         <v>817</v>
       </c>
-      <c r="AK35" s="20" t="s">
+      <c r="AK35" s="19" t="s">
         <v>855</v>
       </c>
-      <c r="AL35" s="20" t="s">
+      <c r="AL35" s="19" t="s">
         <v>968</v>
       </c>
-      <c r="AM35" s="20" t="s">
+      <c r="AM35" s="19" t="s">
         <v>1080</v>
       </c>
-      <c r="AN35" s="20" t="s">
+      <c r="AN35" s="19" t="s">
         <v>1043</v>
       </c>
-      <c r="AO35" s="20" t="s">
+      <c r="AO35" s="19" t="s">
         <v>1116</v>
       </c>
-      <c r="AP35" s="20" t="s">
+      <c r="AP35" s="19" t="s">
         <v>1153</v>
       </c>
-      <c r="AQ35" s="20" t="s">
+      <c r="AQ35" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="AR35" s="20" t="s">
+      <c r="AR35" s="19" t="s">
         <v>1302</v>
       </c>
-      <c r="AS35" s="20" t="s">
+      <c r="AS35" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="AT35" s="20" t="s">
+      <c r="AT35" s="19" t="s">
         <v>1443</v>
       </c>
-      <c r="AU35" s="20" t="s">
+      <c r="AU35" s="19" t="s">
         <v>1479</v>
       </c>
-      <c r="AV35" s="20" t="s">
+      <c r="AV35" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="AW35" s="20" t="s">
+      <c r="AW35" s="19" t="s">
         <v>1614</v>
       </c>
-      <c r="AX35" s="20" t="s">
+      <c r="AX35" s="19" t="s">
         <v>1727</v>
       </c>
-      <c r="AY35" s="20" t="s">
+      <c r="AY35" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="AZ35" s="20" t="s">
+      <c r="AZ35" s="19" t="s">
         <v>569</v>
       </c>
-      <c r="BA35" s="20" t="s">
+      <c r="BA35" s="19" t="s">
         <v>1576</v>
       </c>
       <c r="BB35" s="14" t="s">
-        <v>1944</v>
-      </c>
-      <c r="BC35" s="20" t="s">
+        <v>1904</v>
+      </c>
+      <c r="BC35" s="19" t="s">
         <v>1652</v>
       </c>
     </row>
@@ -33616,8 +36544,8 @@
       <c r="L36" s="17" t="s">
         <v>1406</v>
       </c>
-      <c r="M36" s="19" t="s">
-        <v>1906</v>
+      <c r="M36" s="24" t="s">
+        <v>1866</v>
       </c>
       <c r="N36" s="17" t="s">
         <v>926</v>
@@ -33679,7 +36607,7 @@
       <c r="AG36" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="AH36" s="17" t="s">
+      <c r="AH36" s="24" t="s">
         <v>710</v>
       </c>
       <c r="AI36" s="17" t="s">
@@ -33739,8 +36667,8 @@
       <c r="BA36" s="17" t="s">
         <v>1577</v>
       </c>
-      <c r="BB36" s="19" t="s">
-        <v>1945</v>
+      <c r="BB36" s="24" t="s">
+        <v>1905</v>
       </c>
       <c r="BC36" s="17" t="s">
         <v>1653</v>
@@ -33749,7 +36677,7 @@
     <row r="37" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="20" t="s">
         <v>113</v>
       </c>
       <c r="D37" s="18">
@@ -33779,8 +36707,8 @@
       <c r="L37" s="4" t="s">
         <v>1407</v>
       </c>
-      <c r="M37" s="4" t="s">
-        <v>1907</v>
+      <c r="M37" s="14" t="s">
+        <v>1867</v>
       </c>
       <c r="N37" s="4" t="s">
         <v>932</v>
@@ -33842,7 +36770,7 @@
       <c r="AG37" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="AH37" s="4" t="s">
+      <c r="AH37" s="14" t="s">
         <v>711</v>
       </c>
       <c r="AI37" s="4" t="s">
@@ -33902,8 +36830,8 @@
       <c r="BA37" s="4" t="s">
         <v>1578</v>
       </c>
-      <c r="BB37" s="4" t="s">
-        <v>1946</v>
+      <c r="BB37" s="14" t="s">
+        <v>1906</v>
       </c>
       <c r="BC37" s="4" t="s">
         <v>1654</v>
@@ -33940,8 +36868,8 @@
       <c r="L38" s="17" t="s">
         <v>1401</v>
       </c>
-      <c r="M38" s="19" t="s">
-        <v>1901</v>
+      <c r="M38" s="24" t="s">
+        <v>1861</v>
       </c>
       <c r="N38" s="17" t="s">
         <v>927</v>
@@ -34003,7 +36931,7 @@
       <c r="AG38" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="AH38" s="17" t="s">
+      <c r="AH38" s="24" t="s">
         <v>705</v>
       </c>
       <c r="AI38" s="17" t="s">
@@ -34063,8 +36991,8 @@
       <c r="BA38" s="17" t="s">
         <v>1572</v>
       </c>
-      <c r="BB38" s="19" t="s">
-        <v>1940</v>
+      <c r="BB38" s="24" t="s">
+        <v>1900</v>
       </c>
       <c r="BC38" s="17" t="s">
         <v>1648</v>
@@ -34078,157 +37006,157 @@
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="17" t="s">
-        <v>2000</v>
+        <v>1960</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>2001</v>
+        <v>1961</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>2002</v>
+        <v>1962</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>2003</v>
+        <v>1963</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>2004</v>
+        <v>1964</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>2004</v>
+        <v>1964</v>
       </c>
       <c r="K39" s="17" t="s">
-        <v>2005</v>
+        <v>1965</v>
       </c>
       <c r="L39" s="17" t="s">
-        <v>1999</v>
-      </c>
-      <c r="M39" s="19" t="s">
-        <v>1998</v>
+        <v>1959</v>
+      </c>
+      <c r="M39" s="24" t="s">
+        <v>1958</v>
       </c>
       <c r="N39" s="17" t="s">
-        <v>2006</v>
+        <v>1966</v>
       </c>
       <c r="O39" s="17" t="s">
-        <v>2007</v>
+        <v>1967</v>
       </c>
       <c r="P39" s="17" t="s">
-        <v>2008</v>
+        <v>1968</v>
       </c>
       <c r="Q39" s="17" t="s">
-        <v>2009</v>
+        <v>1969</v>
       </c>
       <c r="R39" s="17" t="s">
-        <v>2010</v>
+        <v>1970</v>
       </c>
       <c r="S39" s="17" t="s">
-        <v>2011</v>
+        <v>1971</v>
       </c>
       <c r="T39" s="17" t="s">
-        <v>2012</v>
+        <v>1972</v>
       </c>
       <c r="U39" s="17" t="s">
-        <v>2000</v>
+        <v>1960</v>
       </c>
       <c r="V39" s="17" t="s">
-        <v>2013</v>
+        <v>1973</v>
       </c>
       <c r="W39" s="17" t="s">
-        <v>2014</v>
+        <v>1974</v>
       </c>
       <c r="X39" s="17" t="s">
-        <v>2015</v>
+        <v>1975</v>
       </c>
       <c r="Y39" s="17" t="s">
-        <v>2016</v>
+        <v>1976</v>
       </c>
       <c r="Z39" s="17" t="s">
-        <v>2007</v>
+        <v>1967</v>
       </c>
       <c r="AA39" s="17" t="s">
-        <v>2017</v>
+        <v>1977</v>
       </c>
       <c r="AB39" s="17" t="s">
-        <v>2018</v>
+        <v>1978</v>
       </c>
       <c r="AC39" s="17" t="s">
-        <v>2019</v>
+        <v>1979</v>
       </c>
       <c r="AD39" s="17" t="s">
-        <v>2018</v>
+        <v>1978</v>
       </c>
       <c r="AE39" s="17" t="s">
-        <v>2020</v>
+        <v>1980</v>
       </c>
       <c r="AF39" s="17" t="s">
-        <v>2021</v>
+        <v>1981</v>
       </c>
       <c r="AG39" s="17" t="s">
-        <v>2022</v>
-      </c>
-      <c r="AH39" s="17" t="s">
+        <v>1982</v>
+      </c>
+      <c r="AH39" s="24" t="s">
         <v>712</v>
       </c>
       <c r="AI39" s="17" t="s">
-        <v>2023</v>
+        <v>1983</v>
       </c>
       <c r="AJ39" s="17" t="s">
-        <v>2024</v>
+        <v>1984</v>
       </c>
       <c r="AK39" s="17" t="s">
-        <v>2025</v>
+        <v>1985</v>
       </c>
       <c r="AL39" s="17" t="s">
-        <v>2026</v>
+        <v>1986</v>
       </c>
       <c r="AM39" s="17" t="s">
-        <v>2027</v>
+        <v>1987</v>
       </c>
       <c r="AN39" s="17" t="s">
-        <v>2028</v>
+        <v>1988</v>
       </c>
       <c r="AO39" s="17" t="s">
-        <v>2029</v>
+        <v>1989</v>
       </c>
       <c r="AP39" s="17" t="s">
-        <v>2000</v>
+        <v>1960</v>
       </c>
       <c r="AQ39" s="17" t="s">
-        <v>2018</v>
+        <v>1978</v>
       </c>
       <c r="AR39" s="17" t="s">
-        <v>2000</v>
+        <v>1960</v>
       </c>
       <c r="AS39" s="17" t="s">
-        <v>2018</v>
+        <v>1978</v>
       </c>
       <c r="AT39" s="17" t="s">
-        <v>2012</v>
+        <v>1972</v>
       </c>
       <c r="AU39" s="17" t="s">
-        <v>2030</v>
+        <v>1990</v>
       </c>
       <c r="AV39" s="17" t="s">
-        <v>2015</v>
+        <v>1975</v>
       </c>
       <c r="AW39" s="17" t="s">
-        <v>2031</v>
+        <v>1991</v>
       </c>
       <c r="AX39" s="17" t="s">
-        <v>2032</v>
+        <v>1992</v>
       </c>
       <c r="AY39" s="17" t="s">
-        <v>2007</v>
+        <v>1967</v>
       </c>
       <c r="AZ39" s="17" t="s">
-        <v>2033</v>
+        <v>1993</v>
       </c>
       <c r="BA39" s="17" t="s">
-        <v>2007</v>
-      </c>
-      <c r="BB39" s="19" t="s">
-        <v>2034</v>
+        <v>1967</v>
+      </c>
+      <c r="BB39" s="24" t="s">
+        <v>1994</v>
       </c>
       <c r="BC39" s="17" t="s">
-        <v>2035</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="40" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -34238,157 +37166,157 @@
         <v>116</v>
       </c>
       <c r="D40" s="18"/>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="F40" s="21" t="s">
+      <c r="F40" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="G40" s="21" t="s">
+      <c r="G40" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="H40" s="21" t="s">
+      <c r="H40" s="20" t="s">
         <v>1768</v>
       </c>
-      <c r="I40" s="21" t="s">
+      <c r="I40" s="20" t="s">
         <v>1802</v>
       </c>
-      <c r="J40" s="21" t="s">
+      <c r="J40" s="20" t="s">
         <v>1802</v>
       </c>
-      <c r="K40" s="21" t="s">
+      <c r="K40" s="20" t="s">
         <v>1305</v>
       </c>
-      <c r="L40" s="21" t="s">
+      <c r="L40" s="20" t="s">
         <v>1408</v>
       </c>
-      <c r="M40" s="19" t="s">
-        <v>1908</v>
-      </c>
-      <c r="N40" s="21" t="s">
+      <c r="M40" s="24" t="s">
+        <v>1868</v>
+      </c>
+      <c r="N40" s="20" t="s">
         <v>933</v>
       </c>
-      <c r="O40" s="21" t="s">
+      <c r="O40" s="20" t="s">
         <v>1193</v>
       </c>
-      <c r="P40" s="21" t="s">
+      <c r="P40" s="20" t="s">
         <v>896</v>
       </c>
-      <c r="Q40" s="21" t="s">
+      <c r="Q40" s="20" t="s">
         <v>1267</v>
       </c>
-      <c r="R40" s="21" t="s">
+      <c r="R40" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="S40" s="21" t="s">
+      <c r="S40" s="20" t="s">
         <v>1008</v>
       </c>
-      <c r="T40" s="21" t="s">
+      <c r="T40" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="U40" s="21" t="s">
+      <c r="U40" s="20" t="s">
         <v>426</v>
       </c>
-      <c r="V40" s="21" t="s">
+      <c r="V40" s="20" t="s">
         <v>638</v>
       </c>
-      <c r="W40" s="21" t="s">
+      <c r="W40" s="20" t="s">
         <v>1372</v>
       </c>
-      <c r="X40" s="21" t="s">
+      <c r="X40" s="20" t="s">
         <v>498</v>
       </c>
-      <c r="Y40" s="21" t="s">
+      <c r="Y40" s="20" t="s">
         <v>1692</v>
       </c>
-      <c r="Z40" s="21" t="s">
+      <c r="Z40" s="20" t="s">
         <v>1230</v>
       </c>
-      <c r="AA40" s="21" t="s">
+      <c r="AA40" s="20" t="s">
         <v>1519</v>
       </c>
-      <c r="AB40" s="21" t="s">
+      <c r="AB40" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="AC40" s="21" t="s">
+      <c r="AC40" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="AD40" s="21" t="s">
+      <c r="AD40" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="AE40" s="21" t="s">
+      <c r="AE40" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="AF40" s="21" t="s">
+      <c r="AF40" s="20" t="s">
         <v>673</v>
       </c>
-      <c r="AG40" s="21" t="s">
+      <c r="AG40" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="AH40" s="21" t="s">
+      <c r="AH40" s="28" t="s">
         <v>713</v>
       </c>
-      <c r="AI40" s="21" t="s">
+      <c r="AI40" s="20" t="s">
         <v>751</v>
       </c>
-      <c r="AJ40" s="21" t="s">
+      <c r="AJ40" s="20" t="s">
         <v>820</v>
       </c>
-      <c r="AK40" s="21" t="s">
+      <c r="AK40" s="20" t="s">
         <v>858</v>
       </c>
-      <c r="AL40" s="21" t="s">
+      <c r="AL40" s="20" t="s">
         <v>971</v>
       </c>
-      <c r="AM40" s="21" t="s">
+      <c r="AM40" s="20" t="s">
         <v>1083</v>
       </c>
-      <c r="AN40" s="21" t="s">
+      <c r="AN40" s="20" t="s">
         <v>1046</v>
       </c>
-      <c r="AO40" s="21" t="s">
+      <c r="AO40" s="20" t="s">
         <v>1119</v>
       </c>
-      <c r="AP40" s="21" t="s">
+      <c r="AP40" s="20" t="s">
         <v>1156</v>
       </c>
-      <c r="AQ40" s="21" t="s">
+      <c r="AQ40" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="AR40" s="21" t="s">
+      <c r="AR40" s="20" t="s">
         <v>1335</v>
       </c>
-      <c r="AS40" s="21" t="s">
+      <c r="AS40" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="AT40" s="21" t="s">
+      <c r="AT40" s="20" t="s">
         <v>1445</v>
       </c>
-      <c r="AU40" s="21" t="s">
+      <c r="AU40" s="20" t="s">
         <v>1482</v>
       </c>
-      <c r="AV40" s="21" t="s">
+      <c r="AV40" s="20" t="s">
         <v>498</v>
       </c>
-      <c r="AW40" s="21" t="s">
+      <c r="AW40" s="20" t="s">
         <v>1617</v>
       </c>
-      <c r="AX40" s="21" t="s">
+      <c r="AX40" s="20" t="s">
         <v>1730</v>
       </c>
-      <c r="AY40" s="21" t="s">
+      <c r="AY40" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="AZ40" s="21" t="s">
+      <c r="AZ40" s="20" t="s">
         <v>572</v>
       </c>
-      <c r="BA40" s="21" t="s">
+      <c r="BA40" s="20" t="s">
         <v>1579</v>
       </c>
-      <c r="BB40" s="19" t="s">
-        <v>1947</v>
-      </c>
-      <c r="BC40" s="21" t="s">
+      <c r="BB40" s="24" t="s">
+        <v>1907</v>
+      </c>
+      <c r="BC40" s="20" t="s">
         <v>1655</v>
       </c>
     </row>
@@ -34423,8 +37351,8 @@
       <c r="L41" s="17" t="s">
         <v>1409</v>
       </c>
-      <c r="M41" s="19" t="s">
-        <v>1909</v>
+      <c r="M41" s="24" t="s">
+        <v>1869</v>
       </c>
       <c r="N41" s="17" t="s">
         <v>934</v>
@@ -34486,7 +37414,7 @@
       <c r="AG41" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="AH41" s="17" t="s">
+      <c r="AH41" s="24" t="s">
         <v>714</v>
       </c>
       <c r="AI41" s="17" t="s">
@@ -34546,8 +37474,8 @@
       <c r="BA41" s="17" t="s">
         <v>1580</v>
       </c>
-      <c r="BB41" s="19" t="s">
-        <v>1948</v>
+      <c r="BB41" s="24" t="s">
+        <v>1908</v>
       </c>
       <c r="BC41" s="17" t="s">
         <v>1656</v>
@@ -34584,8 +37512,8 @@
       <c r="L42" s="17" t="s">
         <v>1410</v>
       </c>
-      <c r="M42" s="19" t="s">
-        <v>1910</v>
+      <c r="M42" s="24" t="s">
+        <v>1870</v>
       </c>
       <c r="N42" s="17" t="s">
         <v>935</v>
@@ -34647,7 +37575,7 @@
       <c r="AG42" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="AH42" s="17" t="s">
+      <c r="AH42" s="24" t="s">
         <v>715</v>
       </c>
       <c r="AI42" s="17" t="s">
@@ -34707,8 +37635,8 @@
       <c r="BA42" s="17" t="s">
         <v>1581</v>
       </c>
-      <c r="BB42" s="19" t="s">
-        <v>1949</v>
+      <c r="BB42" s="24" t="s">
+        <v>1909</v>
       </c>
       <c r="BC42" s="17" t="s">
         <v>1657</v>
@@ -34745,8 +37673,8 @@
       <c r="L43" s="4" t="s">
         <v>1411</v>
       </c>
-      <c r="M43" s="17" t="s">
-        <v>1911</v>
+      <c r="M43" s="24" t="s">
+        <v>1871</v>
       </c>
       <c r="N43" s="4" t="s">
         <v>936</v>
@@ -34808,7 +37736,7 @@
       <c r="AG43" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="AH43" s="4" t="s">
+      <c r="AH43" s="14" t="s">
         <v>716</v>
       </c>
       <c r="AI43" s="4" t="s">
@@ -34868,8 +37796,8 @@
       <c r="BA43" s="4" t="s">
         <v>1582</v>
       </c>
-      <c r="BB43" s="1" t="s">
-        <v>1950</v>
+      <c r="BB43" s="25" t="s">
+        <v>1910</v>
       </c>
       <c r="BC43" s="4" t="s">
         <v>1658</v>
@@ -34906,8 +37834,8 @@
       <c r="L44" s="4" t="s">
         <v>1412</v>
       </c>
-      <c r="M44" s="17" t="s">
-        <v>1912</v>
+      <c r="M44" s="24" t="s">
+        <v>1872</v>
       </c>
       <c r="N44" s="4" t="s">
         <v>937</v>
@@ -34969,7 +37897,7 @@
       <c r="AG44" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="AH44" s="4" t="s">
+      <c r="AH44" s="14" t="s">
         <v>717</v>
       </c>
       <c r="AI44" s="4" t="s">
@@ -35029,8 +37957,8 @@
       <c r="BA44" s="4" t="s">
         <v>1583</v>
       </c>
-      <c r="BB44" s="1" t="s">
-        <v>1951</v>
+      <c r="BB44" s="25" t="s">
+        <v>1911</v>
       </c>
       <c r="BC44" s="4" t="s">
         <v>1659</v>
@@ -35040,150 +37968,958 @@
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4" t="s">
-        <v>2098</v>
+        <v>2048</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>2099</v>
-      </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
-      <c r="Y45" s="4"/>
-      <c r="Z45" s="4"/>
-      <c r="AA45" s="4"/>
-      <c r="AB45" s="4"/>
-      <c r="AC45" s="4"/>
-      <c r="AD45" s="4"/>
-      <c r="AE45" s="4"/>
-      <c r="AF45" s="4"/>
-      <c r="AG45" s="4"/>
-      <c r="AH45" s="4"/>
-      <c r="AI45" s="4"/>
-      <c r="AJ45" s="4"/>
-      <c r="AK45" s="4"/>
-      <c r="AL45" s="4"/>
-      <c r="AM45" s="4"/>
-      <c r="AN45" s="4"/>
-      <c r="AO45" s="4"/>
-      <c r="AP45" s="4"/>
-      <c r="AQ45" s="4"/>
-      <c r="AR45" s="4"/>
-      <c r="AS45" s="4"/>
-      <c r="AT45" s="4"/>
-      <c r="AU45" s="4"/>
-      <c r="AV45" s="4"/>
-      <c r="AW45" s="4"/>
-      <c r="AX45" s="4"/>
-      <c r="AY45" s="4"/>
-      <c r="AZ45" s="4"/>
-      <c r="BA45" s="4"/>
-      <c r="BC45" s="4"/>
+        <v>2049</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>2132</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>2288</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>2294</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>2294</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>2108</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>2238</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>2060</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>2174</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>2212</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>2169</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>2221</v>
+      </c>
+      <c r="R45" s="4" t="s">
+        <v>2108</v>
+      </c>
+      <c r="S45" s="4" t="s">
+        <v>2184</v>
+      </c>
+      <c r="T45" s="4" t="s">
+        <v>2082</v>
+      </c>
+      <c r="U45" s="4" t="s">
+        <v>2103</v>
+      </c>
+      <c r="V45" s="4" t="s">
+        <v>2132</v>
+      </c>
+      <c r="W45" s="4" t="s">
+        <v>2233</v>
+      </c>
+      <c r="X45" s="4" t="s">
+        <v>2108</v>
+      </c>
+      <c r="Y45" s="4" t="s">
+        <v>2278</v>
+      </c>
+      <c r="Z45" s="4" t="s">
+        <v>2217</v>
+      </c>
+      <c r="AA45" s="4" t="s">
+        <v>2255</v>
+      </c>
+      <c r="AB45" s="4" t="s">
+        <v>2078</v>
+      </c>
+      <c r="AC45" s="4" t="s">
+        <v>2072</v>
+      </c>
+      <c r="AD45" s="4" t="s">
+        <v>2078</v>
+      </c>
+      <c r="AE45" s="4" t="s">
+        <v>2116</v>
+      </c>
+      <c r="AF45" s="4" t="s">
+        <v>2139</v>
+      </c>
+      <c r="AG45" s="4" t="s">
+        <v>2097</v>
+      </c>
+      <c r="AH45" s="4" t="s">
+        <v>2144</v>
+      </c>
+      <c r="AI45" s="4" t="s">
+        <v>2150</v>
+      </c>
+      <c r="AJ45" s="4" t="s">
+        <v>2159</v>
+      </c>
+      <c r="AK45" s="4" t="s">
+        <v>2164</v>
+      </c>
+      <c r="AL45" s="4" t="s">
+        <v>2179</v>
+      </c>
+      <c r="AM45" s="4" t="s">
+        <v>2196</v>
+      </c>
+      <c r="AN45" s="4" t="s">
+        <v>2190</v>
+      </c>
+      <c r="AO45" s="4" t="s">
+        <v>2202</v>
+      </c>
+      <c r="AP45" s="4" t="s">
+        <v>2207</v>
+      </c>
+      <c r="AQ45" s="4" t="s">
+        <v>2066</v>
+      </c>
+      <c r="AR45" s="4" t="s">
+        <v>2108</v>
+      </c>
+      <c r="AS45" s="4" t="s">
+        <v>2078</v>
+      </c>
+      <c r="AT45" s="4" t="s">
+        <v>2244</v>
+      </c>
+      <c r="AU45" s="4" t="s">
+        <v>2249</v>
+      </c>
+      <c r="AV45" s="4" t="s">
+        <v>2108</v>
+      </c>
+      <c r="AW45" s="4" t="s">
+        <v>2267</v>
+      </c>
+      <c r="AX45" s="4" t="s">
+        <v>2283</v>
+      </c>
+      <c r="AY45" s="4" t="s">
+        <v>2087</v>
+      </c>
+      <c r="AZ45" s="4" t="s">
+        <v>2127</v>
+      </c>
+      <c r="BA45" s="4" t="s">
+        <v>2262</v>
+      </c>
+      <c r="BB45" s="4" t="s">
+        <v>2121</v>
+      </c>
+      <c r="BC45" s="4" t="s">
+        <v>2273</v>
+      </c>
     </row>
     <row r="46" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
       <c r="C46" s="4" t="s">
-        <v>2100</v>
-      </c>
-      <c r="D46" s="24"/>
+        <v>2050</v>
+      </c>
+      <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>2101</v>
-      </c>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="24"/>
-      <c r="R46" s="24"/>
-      <c r="S46" s="24"/>
-      <c r="T46" s="24"/>
-      <c r="U46" s="24"/>
-      <c r="V46" s="24"/>
-      <c r="W46" s="24"/>
-      <c r="X46" s="24"/>
-      <c r="Y46" s="24"/>
-      <c r="Z46" s="24"/>
-      <c r="AA46" s="24"/>
-      <c r="AB46" s="24"/>
-      <c r="AC46" s="24"/>
-      <c r="AD46" s="24"/>
-      <c r="AE46" s="24"/>
-      <c r="AF46" s="24"/>
-      <c r="AG46" s="24"/>
-      <c r="AH46" s="24"/>
-      <c r="AI46" s="24"/>
-      <c r="AJ46" s="24"/>
-      <c r="AK46" s="24"/>
-      <c r="AL46" s="24"/>
-      <c r="AM46" s="24"/>
-      <c r="AN46" s="24"/>
-      <c r="AO46" s="24"/>
-      <c r="AP46" s="24"/>
-      <c r="AQ46" s="24"/>
-      <c r="AR46" s="24"/>
-      <c r="AS46" s="24"/>
-      <c r="AT46" s="24"/>
-      <c r="AU46" s="24"/>
-      <c r="AV46" s="24"/>
-      <c r="AW46" s="24"/>
-      <c r="AX46" s="24"/>
-      <c r="AY46" s="24"/>
-      <c r="AZ46" s="24"/>
-      <c r="BA46" s="24"/>
-      <c r="BC46" s="24"/>
+        <v>2051</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>2093</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>2133</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>2289</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>2300</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>2295</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>2226</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>2239</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>2061</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>2175</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>2213</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>2170</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>2222</v>
+      </c>
+      <c r="R46" s="4" t="s">
+        <v>2109</v>
+      </c>
+      <c r="S46" s="4" t="s">
+        <v>2185</v>
+      </c>
+      <c r="T46" s="4" t="s">
+        <v>2083</v>
+      </c>
+      <c r="U46" s="4" t="s">
+        <v>2104</v>
+      </c>
+      <c r="V46" s="4" t="s">
+        <v>2133</v>
+      </c>
+      <c r="W46" s="4" t="s">
+        <v>2234</v>
+      </c>
+      <c r="X46" s="4" t="s">
+        <v>2113</v>
+      </c>
+      <c r="Y46" s="4" t="s">
+        <v>2279</v>
+      </c>
+      <c r="Z46" s="4" t="s">
+        <v>2088</v>
+      </c>
+      <c r="AA46" s="4" t="s">
+        <v>2256</v>
+      </c>
+      <c r="AB46" s="4" t="s">
+        <v>2067</v>
+      </c>
+      <c r="AC46" s="4" t="s">
+        <v>2073</v>
+      </c>
+      <c r="AD46" s="4" t="s">
+        <v>2156</v>
+      </c>
+      <c r="AE46" s="4" t="s">
+        <v>2117</v>
+      </c>
+      <c r="AF46" s="4" t="s">
+        <v>2140</v>
+      </c>
+      <c r="AG46" s="4" t="s">
+        <v>2098</v>
+      </c>
+      <c r="AH46" s="4" t="s">
+        <v>2145</v>
+      </c>
+      <c r="AI46" s="4" t="s">
+        <v>2151</v>
+      </c>
+      <c r="AJ46" s="4" t="s">
+        <v>2160</v>
+      </c>
+      <c r="AK46" s="4" t="s">
+        <v>2165</v>
+      </c>
+      <c r="AL46" s="4" t="s">
+        <v>2180</v>
+      </c>
+      <c r="AM46" s="4" t="s">
+        <v>2197</v>
+      </c>
+      <c r="AN46" s="4" t="s">
+        <v>2191</v>
+      </c>
+      <c r="AO46" s="4" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AP46" s="4" t="s">
+        <v>2208</v>
+      </c>
+      <c r="AQ46" s="4" t="s">
+        <v>2067</v>
+      </c>
+      <c r="AR46" s="4" t="s">
+        <v>2230</v>
+      </c>
+      <c r="AS46" s="4" t="s">
+        <v>2067</v>
+      </c>
+      <c r="AT46" s="4" t="s">
+        <v>2245</v>
+      </c>
+      <c r="AU46" s="4" t="s">
+        <v>2250</v>
+      </c>
+      <c r="AV46" s="4" t="s">
+        <v>2113</v>
+      </c>
+      <c r="AW46" s="4" t="s">
+        <v>2268</v>
+      </c>
+      <c r="AX46" s="4" t="s">
+        <v>2284</v>
+      </c>
+      <c r="AY46" s="4" t="s">
+        <v>2088</v>
+      </c>
+      <c r="AZ46" s="4" t="s">
+        <v>2128</v>
+      </c>
+      <c r="BA46" s="4" t="s">
+        <v>2263</v>
+      </c>
+      <c r="BB46" s="4" t="s">
+        <v>2122</v>
+      </c>
+      <c r="BC46" s="4" t="s">
+        <v>2274</v>
+      </c>
     </row>
     <row r="47" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="4" t="s">
-        <v>2102</v>
-      </c>
+        <v>2052</v>
+      </c>
+      <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>2103</v>
+        <v>2053</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>2094</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>2134</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>2290</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>2296</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>2296</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>2227</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>2240</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>2062</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>2176</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>2214</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>2171</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>2223</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>2110</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>2186</v>
+      </c>
+      <c r="T47" s="4" t="s">
+        <v>2084</v>
+      </c>
+      <c r="U47" s="4" t="s">
+        <v>2105</v>
+      </c>
+      <c r="V47" s="4" t="s">
+        <v>2137</v>
+      </c>
+      <c r="W47" s="4" t="s">
+        <v>2235</v>
+      </c>
+      <c r="X47" s="4" t="s">
+        <v>2114</v>
+      </c>
+      <c r="Y47" s="4" t="s">
+        <v>2280</v>
+      </c>
+      <c r="Z47" s="4" t="s">
+        <v>2218</v>
+      </c>
+      <c r="AA47" s="4" t="s">
+        <v>2257</v>
+      </c>
+      <c r="AB47" s="4" t="s">
+        <v>2079</v>
+      </c>
+      <c r="AC47" s="4" t="s">
+        <v>2074</v>
+      </c>
+      <c r="AD47" s="4" t="s">
+        <v>2079</v>
+      </c>
+      <c r="AE47" s="4" t="s">
+        <v>2118</v>
+      </c>
+      <c r="AF47" s="4" t="s">
+        <v>2141</v>
+      </c>
+      <c r="AG47" s="4" t="s">
+        <v>2099</v>
+      </c>
+      <c r="AH47" s="4" t="s">
+        <v>2146</v>
+      </c>
+      <c r="AI47" s="4" t="s">
+        <v>2152</v>
+      </c>
+      <c r="AJ47" s="4" t="s">
+        <v>2161</v>
+      </c>
+      <c r="AK47" s="4" t="s">
+        <v>2166</v>
+      </c>
+      <c r="AL47" s="4" t="s">
+        <v>2181</v>
+      </c>
+      <c r="AM47" s="4" t="s">
+        <v>2198</v>
+      </c>
+      <c r="AN47" s="4" t="s">
+        <v>2192</v>
+      </c>
+      <c r="AO47" s="4" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AP47" s="4" t="s">
+        <v>2209</v>
+      </c>
+      <c r="AQ47" s="4" t="s">
+        <v>2068</v>
+      </c>
+      <c r="AR47" s="4" t="s">
+        <v>2231</v>
+      </c>
+      <c r="AS47" s="4" t="s">
+        <v>2079</v>
+      </c>
+      <c r="AT47" s="4" t="s">
+        <v>2246</v>
+      </c>
+      <c r="AU47" s="4" t="s">
+        <v>2251</v>
+      </c>
+      <c r="AV47" s="4" t="s">
+        <v>2114</v>
+      </c>
+      <c r="AW47" s="4" t="s">
+        <v>2269</v>
+      </c>
+      <c r="AX47" s="4" t="s">
+        <v>2285</v>
+      </c>
+      <c r="AY47" s="4" t="s">
+        <v>2089</v>
+      </c>
+      <c r="AZ47" s="4" t="s">
+        <v>2129</v>
+      </c>
+      <c r="BA47" s="4" t="s">
+        <v>2264</v>
+      </c>
+      <c r="BB47" s="4" t="s">
+        <v>2123</v>
+      </c>
+      <c r="BC47" s="4" t="s">
+        <v>2275</v>
       </c>
     </row>
     <row r="48" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="4" t="s">
-        <v>2104</v>
-      </c>
+        <v>2054</v>
+      </c>
+      <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>2105</v>
+        <v>2055</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>2095</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>2135</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>2291</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>2301</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>2297</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>2228</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>2241</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>2063</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>2177</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>2215</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>2172</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>2224</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>2111</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>2187</v>
+      </c>
+      <c r="T48" s="4" t="s">
+        <v>2085</v>
+      </c>
+      <c r="U48" s="4" t="s">
+        <v>2106</v>
+      </c>
+      <c r="V48" s="4" t="s">
+        <v>2138</v>
+      </c>
+      <c r="W48" s="4" t="s">
+        <v>2236</v>
+      </c>
+      <c r="X48" s="4" t="s">
+        <v>2111</v>
+      </c>
+      <c r="Y48" s="4" t="s">
+        <v>2281</v>
+      </c>
+      <c r="Z48" s="4" t="s">
+        <v>2219</v>
+      </c>
+      <c r="AA48" s="4" t="s">
+        <v>2258</v>
+      </c>
+      <c r="AB48" s="4" t="s">
+        <v>2080</v>
+      </c>
+      <c r="AC48" s="4" t="s">
+        <v>2075</v>
+      </c>
+      <c r="AD48" s="4" t="s">
+        <v>2157</v>
+      </c>
+      <c r="AE48" s="4" t="s">
+        <v>2119</v>
+      </c>
+      <c r="AF48" s="4" t="s">
+        <v>2142</v>
+      </c>
+      <c r="AG48" s="4" t="s">
+        <v>2100</v>
+      </c>
+      <c r="AH48" s="4" t="s">
+        <v>2147</v>
+      </c>
+      <c r="AI48" s="4" t="s">
+        <v>2153</v>
+      </c>
+      <c r="AJ48" s="4" t="s">
+        <v>2162</v>
+      </c>
+      <c r="AK48" s="4" t="s">
+        <v>2167</v>
+      </c>
+      <c r="AL48" s="4" t="s">
+        <v>2182</v>
+      </c>
+      <c r="AM48" s="4" t="s">
+        <v>2199</v>
+      </c>
+      <c r="AN48" s="4" t="s">
+        <v>2193</v>
+      </c>
+      <c r="AO48" s="4" t="s">
+        <v>2205</v>
+      </c>
+      <c r="AP48" s="4" t="s">
+        <v>2210</v>
+      </c>
+      <c r="AQ48" s="4" t="s">
+        <v>2069</v>
+      </c>
+      <c r="AR48" s="4" t="s">
+        <v>2232</v>
+      </c>
+      <c r="AS48" s="4" t="s">
+        <v>2260</v>
+      </c>
+      <c r="AT48" s="4" t="s">
+        <v>2247</v>
+      </c>
+      <c r="AU48" s="4" t="s">
+        <v>2252</v>
+      </c>
+      <c r="AV48" s="4" t="s">
+        <v>2111</v>
+      </c>
+      <c r="AW48" s="4" t="s">
+        <v>2270</v>
+      </c>
+      <c r="AX48" s="4" t="s">
+        <v>2286</v>
+      </c>
+      <c r="AY48" s="4" t="s">
+        <v>2090</v>
+      </c>
+      <c r="AZ48" s="4" t="s">
+        <v>2130</v>
+      </c>
+      <c r="BA48" s="4" t="s">
+        <v>2265</v>
+      </c>
+      <c r="BB48" s="4" t="s">
+        <v>2124</v>
+      </c>
+      <c r="BC48" s="4" t="s">
+        <v>2276</v>
       </c>
     </row>
-    <row r="49" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="4" t="s">
-        <v>2106</v>
-      </c>
+        <v>2056</v>
+      </c>
+      <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
+        <v>2057</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>2096</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>2136</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>2292</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>2302</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>2298</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>2229</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>2242</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>2064</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>2178</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>2216</v>
+      </c>
+      <c r="P49" s="4" t="s">
+        <v>2173</v>
+      </c>
+      <c r="Q49" s="4" t="s">
+        <v>2225</v>
+      </c>
+      <c r="R49" s="4" t="s">
+        <v>2112</v>
+      </c>
+      <c r="S49" s="4" t="s">
+        <v>2188</v>
+      </c>
+      <c r="T49" s="4" t="s">
+        <v>2086</v>
+      </c>
+      <c r="U49" s="4" t="s">
         <v>2107</v>
       </c>
+      <c r="V49" s="4" t="s">
+        <v>2136</v>
+      </c>
+      <c r="W49" s="4" t="s">
+        <v>2237</v>
+      </c>
+      <c r="X49" s="4" t="s">
+        <v>2112</v>
+      </c>
+      <c r="Y49" s="4" t="s">
+        <v>2282</v>
+      </c>
+      <c r="Z49" s="4" t="s">
+        <v>2220</v>
+      </c>
+      <c r="AA49" s="4" t="s">
+        <v>2259</v>
+      </c>
+      <c r="AB49" s="4" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AC49" s="4" t="s">
+        <v>2076</v>
+      </c>
+      <c r="AD49" s="4" t="s">
+        <v>2158</v>
+      </c>
+      <c r="AE49" s="4" t="s">
+        <v>2120</v>
+      </c>
+      <c r="AF49" s="4" t="s">
+        <v>2143</v>
+      </c>
+      <c r="AG49" s="4" t="s">
+        <v>2101</v>
+      </c>
+      <c r="AH49" s="4" t="s">
+        <v>2148</v>
+      </c>
+      <c r="AI49" s="4" t="s">
+        <v>2154</v>
+      </c>
+      <c r="AJ49" s="4" t="s">
+        <v>2163</v>
+      </c>
+      <c r="AK49" s="4" t="s">
+        <v>2168</v>
+      </c>
+      <c r="AL49" s="4" t="s">
+        <v>2183</v>
+      </c>
+      <c r="AM49" s="4" t="s">
+        <v>2200</v>
+      </c>
+      <c r="AN49" s="4" t="s">
+        <v>2194</v>
+      </c>
+      <c r="AO49" s="4" t="s">
+        <v>2206</v>
+      </c>
+      <c r="AP49" s="4" t="s">
+        <v>2211</v>
+      </c>
+      <c r="AQ49" s="4" t="s">
+        <v>2070</v>
+      </c>
+      <c r="AR49" s="4" t="s">
+        <v>2229</v>
+      </c>
+      <c r="AS49" s="4" t="s">
+        <v>2261</v>
+      </c>
+      <c r="AT49" s="4" t="s">
+        <v>2248</v>
+      </c>
+      <c r="AU49" s="4" t="s">
+        <v>2253</v>
+      </c>
+      <c r="AV49" s="4" t="s">
+        <v>2112</v>
+      </c>
+      <c r="AW49" s="4" t="s">
+        <v>2271</v>
+      </c>
+      <c r="AX49" s="4" t="s">
+        <v>2287</v>
+      </c>
+      <c r="AY49" s="4" t="s">
+        <v>2091</v>
+      </c>
+      <c r="AZ49" s="4" t="s">
+        <v>2131</v>
+      </c>
+      <c r="BA49" s="4" t="s">
+        <v>2266</v>
+      </c>
+      <c r="BB49" s="4" t="s">
+        <v>2125</v>
+      </c>
+      <c r="BC49" s="4" t="s">
+        <v>2277</v>
+      </c>
     </row>
-    <row r="50" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="4" t="s">
-        <v>2108</v>
-      </c>
+        <v>2058</v>
+      </c>
+      <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>2109</v>
+        <v>2059</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>2293</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>2299</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>2243</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>2065</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="R50" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>2189</v>
+      </c>
+      <c r="T50" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="U50" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="V50" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="W50" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="X50" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="Y50" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="Z50" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="AA50" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="AB50" s="4" t="s">
+        <v>2071</v>
+      </c>
+      <c r="AC50" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="AD50" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="AE50" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="AF50" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="AG50" s="4" t="s">
+        <v>2102</v>
+      </c>
+      <c r="AH50" s="4" t="s">
+        <v>2149</v>
+      </c>
+      <c r="AI50" s="4" t="s">
+        <v>2155</v>
+      </c>
+      <c r="AJ50" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="AK50" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="AL50" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="AM50" s="4" t="s">
+        <v>2201</v>
+      </c>
+      <c r="AN50" s="4" t="s">
+        <v>2195</v>
+      </c>
+      <c r="AO50" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="AP50" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="AQ50" s="4" t="s">
+        <v>2071</v>
+      </c>
+      <c r="AR50" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="AS50" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="AT50" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="AU50" s="4" t="s">
+        <v>2254</v>
+      </c>
+      <c r="AV50" s="4" t="s">
+        <v>2115</v>
+      </c>
+      <c r="AW50" s="4" t="s">
+        <v>2272</v>
+      </c>
+      <c r="AX50" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="AY50" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="AZ50" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="BA50" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="BB50" s="4" t="s">
+        <v>2126</v>
+      </c>
+      <c r="BC50" s="4" t="s">
+        <v>2077</v>
       </c>
     </row>
   </sheetData>

--- a/hor-productregistration-localization/Localization.xlsx
+++ b/hor-productregistration-localization/Localization.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310201263\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PR\hor-productregistration-android\hor-productregistration-localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9732"/>
   </bookViews>
   <sheets>
     <sheet name="Localization" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Localization!$A$1:$BC$6</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="2353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2625" uniqueCount="2375">
   <si>
     <t>Reference</t>
   </si>
@@ -25041,12 +25041,78 @@
   </si>
   <si>
     <t>tr</t>
+  </si>
+  <si>
+    <t>PPR_Find_Serial_Number</t>
+  </si>
+  <si>
+    <t>Where can I find my serial number?</t>
+  </si>
+  <si>
+    <t>PPR_find_serial_number_help_message</t>
+  </si>
+  <si>
+    <t>Engraved on the back of the product, in the compartment under the plastic cover, under the trimmer or under the shaving head</t>
+  </si>
+  <si>
+    <t>PPR_ok_i_found_it</t>
+  </si>
+  <si>
+    <t>OK, I found it</t>
+  </si>
+  <si>
+    <t>PPR_registered</t>
+  </si>
+  <si>
+    <t>Registered</t>
+  </si>
+  <si>
+    <t>PPR_registered_on</t>
+  </si>
+  <si>
+    <t>Registered on</t>
+  </si>
+  <si>
+    <t>PPR_warranty_until</t>
+  </si>
+  <si>
+    <t>Warranty until</t>
+  </si>
+  <si>
+    <t>PPR_registered_serial</t>
+  </si>
+  <si>
+    <t>You have registered serial</t>
+  </si>
+  <si>
+    <t>PPR_before</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>PPR_serial_number_consists</t>
+  </si>
+  <si>
+    <t>The serial number consists of</t>
+  </si>
+  <si>
+    <t>PPR_number_starting</t>
+  </si>
+  <si>
+    <t>PPR_eg</t>
+  </si>
+  <si>
+    <t>numbers, starting with</t>
+  </si>
+  <si>
+    <t>.E.g.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -30815,24 +30881,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:IW50"/>
+  <dimension ref="A1:IW61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.3984375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="39.3828125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="92.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.3828125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.61328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.3828125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.61328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="92.921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="55" width="65" style="1" customWidth="1"/>
-    <col min="56" max="257" width="39.3984375" style="1" customWidth="1"/>
+    <col min="56" max="257" width="39.3828125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -31004,7 +31070,7 @@
       <c r="BG1" s="10"/>
       <c r="BH1" s="11"/>
     </row>
-    <row r="2" spans="1:60" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:60" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="4" t="s">
@@ -31170,7 +31236,7 @@
       <c r="BG2" s="12"/>
       <c r="BH2" s="13"/>
     </row>
-    <row r="3" spans="1:60" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:60" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="4" t="s">
@@ -31338,7 +31404,7 @@
       <c r="BG3" s="2"/>
       <c r="BH3" s="3"/>
     </row>
-    <row r="4" spans="1:60" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:60" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="4" t="s">
@@ -31504,7 +31570,7 @@
       <c r="BG4" s="2"/>
       <c r="BH4" s="3"/>
     </row>
-    <row r="5" spans="1:60" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:60" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="4" t="s">
@@ -31670,7 +31736,7 @@
       <c r="BG5" s="2"/>
       <c r="BH5" s="3"/>
     </row>
-    <row r="6" spans="1:60" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:60" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="4" t="s">
@@ -31838,7 +31904,7 @@
       <c r="BG6" s="2"/>
       <c r="BH6" s="3"/>
     </row>
-    <row r="7" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="4" t="s">
@@ -32001,7 +32067,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="8" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
@@ -32162,7 +32228,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="9" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
@@ -32323,7 +32389,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="10" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="4" t="s">
@@ -32484,7 +32550,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="11" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="4" t="s">
@@ -32645,7 +32711,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="12" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="4" t="s">
@@ -32808,7 +32874,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="13" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="4" t="s">
@@ -32971,7 +33037,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="14" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="4" t="s">
@@ -33132,7 +33198,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="15" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="4" t="s">
@@ -33293,7 +33359,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="16" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="4" t="s">
@@ -33454,7 +33520,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="17" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="4" t="s">
@@ -33615,7 +33681,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="18" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="4" t="s">
@@ -33776,7 +33842,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="19" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="4" t="s">
@@ -33937,7 +34003,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="20" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="4" t="s">
@@ -34098,7 +34164,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="21" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="4" t="s">
@@ -34259,7 +34325,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="22" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="4" t="s">
@@ -34420,7 +34486,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="23" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="4" t="s">
@@ -34581,7 +34647,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="24" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="4" t="s">
@@ -34742,7 +34808,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="25" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="4" t="s">
@@ -34903,7 +34969,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="26" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="4" t="s">
@@ -35064,7 +35130,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="27" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="4" t="s">
@@ -35225,7 +35291,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="28" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="4" t="s">
@@ -35386,7 +35452,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="29" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="4" t="s">
@@ -35547,7 +35613,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="30" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="4" t="s">
@@ -35708,7 +35774,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="31" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="19" t="s">
@@ -35869,7 +35935,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="32" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="19" t="s">
@@ -36030,7 +36096,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="33" spans="1:55" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:55" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="4" t="s">
@@ -36191,7 +36257,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="34" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="4" t="s">
@@ -36352,7 +36418,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="35" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="4" t="s">
@@ -36513,7 +36579,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="36" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="17" t="s">
@@ -36674,7 +36740,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="37" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="20" t="s">
@@ -36837,7 +36903,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="38" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="17" t="s">
@@ -36998,7 +37064,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="39" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="15"/>
       <c r="B39" s="16"/>
       <c r="C39" s="17" t="s">
@@ -37159,7 +37225,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="40" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
       <c r="C40" s="17" t="s">
@@ -37320,7 +37386,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="41" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="15"/>
       <c r="B41" s="16"/>
       <c r="C41" s="17" t="s">
@@ -37481,7 +37547,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="42" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15"/>
       <c r="B42" s="16"/>
       <c r="C42" s="17" t="s">
@@ -37642,7 +37708,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="43" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
@@ -37803,7 +37869,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="44" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4" t="s">
@@ -37964,7 +38030,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="45" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4" t="s">
@@ -38125,7 +38191,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="46" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="23"/>
       <c r="B46" s="23"/>
       <c r="C46" s="4" t="s">
@@ -38286,7 +38352,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="47" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="4" t="s">
         <v>2052</v>
       </c>
@@ -38445,7 +38511,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="48" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="4" t="s">
         <v>2054</v>
       </c>
@@ -38604,7 +38670,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="49" spans="3:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="4" t="s">
         <v>2056</v>
       </c>
@@ -38763,7 +38829,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="50" spans="3:55" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="4" t="s">
         <v>2058</v>
       </c>
@@ -38920,6 +38986,105 @@
       </c>
       <c r="BC50" s="4" t="s">
         <v>2077</v>
+      </c>
+    </row>
+    <row r="51" spans="3:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="17" t="s">
+        <v>2353</v>
+      </c>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="52" spans="3:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="17" t="s">
+        <v>2355</v>
+      </c>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="53" spans="3:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="17" t="s">
+        <v>2357</v>
+      </c>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="54" spans="3:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="17" t="s">
+        <v>2359</v>
+      </c>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="55" spans="3:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="17" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="56" spans="3:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="17" t="s">
+        <v>2363</v>
+      </c>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="57" spans="3:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="17" t="s">
+        <v>2365</v>
+      </c>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="58" spans="3:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="17" t="s">
+        <v>2367</v>
+      </c>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="59" spans="3:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="17" t="s">
+        <v>2369</v>
+      </c>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="60" spans="3:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="17" t="s">
+        <v>2371</v>
+      </c>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="61" spans="3:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="17" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17" t="s">
+        <v>2374</v>
       </c>
     </row>
   </sheetData>

--- a/hor-productregistration-localization/Localization.xlsx
+++ b/hor-productregistration-localization/Localization.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2532" uniqueCount="2307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3080" uniqueCount="2792">
   <si>
     <t>Reference</t>
   </si>
@@ -21189,6 +21189,1461 @@
   </si>
   <si>
     <t>PRG_Please_Enter_SerialNum_Txtfldtxt</t>
+  </si>
+  <si>
+    <t>• الحصول على تحديثات حول المنتج</t>
+  </si>
+  <si>
+    <t>نجح التسجيل</t>
+  </si>
+  <si>
+    <t>سجّل منتجك لـ:</t>
+  </si>
+  <si>
+    <t>نعم، مدد فترة الضمان</t>
+  </si>
+  <si>
+    <t>تاريخ الشراء</t>
+  </si>
+  <si>
+    <t>الرقم التسلسلي</t>
+  </si>
+  <si>
+    <t>إغلاق</t>
+  </si>
+  <si>
+    <t>إن الرقم التسلسلي هذا</t>
+  </si>
+  <si>
+    <t>مسجّل مسبقًا</t>
+  </si>
+  <si>
+    <t>يُرجى تحديد...</t>
+  </si>
+  <si>
+    <t>تاريخ التسجيل:</t>
+  </si>
+  <si>
+    <t>الضمان سارٍ حتى:</t>
+  </si>
+  <si>
+    <t>جاري التسجيل</t>
+  </si>
+  <si>
+    <t>أدخل الرقم التسلسلي الخاص بك</t>
+  </si>
+  <si>
+    <t>• Получете актуализации за вашия продукт</t>
+  </si>
+  <si>
+    <t>Успешно регистриран</t>
+  </si>
+  <si>
+    <t>Регистрирайте продукт на:</t>
+  </si>
+  <si>
+    <t>Да, удължете гаранцията</t>
+  </si>
+  <si>
+    <t>Дата на покупка</t>
+  </si>
+  <si>
+    <t>Сериен номер</t>
+  </si>
+  <si>
+    <t>Гладко</t>
+  </si>
+  <si>
+    <t>Този сериен номер</t>
+  </si>
+  <si>
+    <t>е вече регистриран</t>
+  </si>
+  <si>
+    <t>Моля, изберете...</t>
+  </si>
+  <si>
+    <t>Дата на регистрацията:</t>
+  </si>
+  <si>
+    <t>В гаранция до:</t>
+  </si>
+  <si>
+    <t>Регистриране</t>
+  </si>
+  <si>
+    <t>Въведете вашия сериен номер</t>
+  </si>
+  <si>
+    <t>• Získejte aktualizace pro svůj výrobek</t>
+  </si>
+  <si>
+    <t>Úspěšně registrováno</t>
+  </si>
+  <si>
+    <t>Zaregistrujte svůj výrobek a získejte:</t>
+  </si>
+  <si>
+    <t>Ano, prodloužit záruku</t>
+  </si>
+  <si>
+    <t>Datum nákupu</t>
+  </si>
+  <si>
+    <t>Sériové číslo</t>
+  </si>
+  <si>
+    <t>Zavřít</t>
+  </si>
+  <si>
+    <t>Toto sériové číslo</t>
+  </si>
+  <si>
+    <t>je již zaregistrováno</t>
+  </si>
+  <si>
+    <t>Vyberte…</t>
+  </si>
+  <si>
+    <t>Datum registrace:</t>
+  </si>
+  <si>
+    <t>V záruce do:</t>
+  </si>
+  <si>
+    <t>Registrace</t>
+  </si>
+  <si>
+    <t>Zadejte své sériové číslo</t>
+  </si>
+  <si>
+    <t>• Hent opdateringer til dit produkt</t>
+  </si>
+  <si>
+    <t>Registrering gennemført</t>
+  </si>
+  <si>
+    <t>Registrer dit produkt hos:</t>
+  </si>
+  <si>
+    <t>Ja, udvid min garanti</t>
+  </si>
+  <si>
+    <t>Købsdato</t>
+  </si>
+  <si>
+    <t>Serienummer</t>
+  </si>
+  <si>
+    <t>Luk</t>
+  </si>
+  <si>
+    <t>Dette serienummer</t>
+  </si>
+  <si>
+    <t>er allerede registreret</t>
+  </si>
+  <si>
+    <t>Vælg venligst...</t>
+  </si>
+  <si>
+    <t>Registreringsdato:</t>
+  </si>
+  <si>
+    <t>Garanti gyldig indtil:</t>
+  </si>
+  <si>
+    <t>Registrering</t>
+  </si>
+  <si>
+    <t>Indtast serienummeret</t>
+  </si>
+  <si>
+    <t>• Erhalten Sie Updates zu Ihrem Produkt</t>
+  </si>
+  <si>
+    <t>Erfolgreich registriert</t>
+  </si>
+  <si>
+    <t>Registrieren Sie Ihr Produkt bei:</t>
+  </si>
+  <si>
+    <t>Ja, Garantie verlängern</t>
+  </si>
+  <si>
+    <t>Kaufdatum</t>
+  </si>
+  <si>
+    <t>Seriennummer</t>
+  </si>
+  <si>
+    <t>Schließen</t>
+  </si>
+  <si>
+    <t>Diese Seriennummer</t>
+  </si>
+  <si>
+    <t>ist bereits registriert</t>
+  </si>
+  <si>
+    <t>Bitte auswählen:</t>
+  </si>
+  <si>
+    <t>Datum der Registrierung:</t>
+  </si>
+  <si>
+    <t>Unter Garantie bis:</t>
+  </si>
+  <si>
+    <t>Wird registriert</t>
+  </si>
+  <si>
+    <t>Geben Sie Ihre Seriennummer ein</t>
+  </si>
+  <si>
+    <t>• Λάβετε ενημερώσεις για το προϊόν σας</t>
+  </si>
+  <si>
+    <t>Η διαδικασία δήλωσης ολοκληρώθηκε με επιτυχία</t>
+  </si>
+  <si>
+    <t>Δήλωση προϊόντος εδώ:</t>
+  </si>
+  <si>
+    <t>Ναι, επέκταση εγγύησης</t>
+  </si>
+  <si>
+    <t>Ημερομηνία αγοράς</t>
+  </si>
+  <si>
+    <t>Σειριακός αριθμός</t>
+  </si>
+  <si>
+    <t>Κλείσιμο</t>
+  </si>
+  <si>
+    <t>Αυτός ο σειριακός αριθμός</t>
+  </si>
+  <si>
+    <t>έχει ήδη δηλωθεί</t>
+  </si>
+  <si>
+    <t>Επιλέξτε...</t>
+  </si>
+  <si>
+    <t>Ημερομηνία δήλωσης:</t>
+  </si>
+  <si>
+    <t>Σε εγγύηση έως:</t>
+  </si>
+  <si>
+    <t>Δήλωση</t>
+  </si>
+  <si>
+    <t>Εισαγωγή σειριακού αριθμού</t>
+  </si>
+  <si>
+    <t>• Obtener actualizaciones acerca de su producto</t>
+  </si>
+  <si>
+    <t>Registro realizado correctamente</t>
+  </si>
+  <si>
+    <t>Registre su producto para lo siguiente:</t>
+  </si>
+  <si>
+    <t>Sí, extender mi garantía</t>
+  </si>
+  <si>
+    <t>Fecha de compra</t>
+  </si>
+  <si>
+    <t>Número de serie</t>
+  </si>
+  <si>
+    <t>Cerrar</t>
+  </si>
+  <si>
+    <t>Este número de serie</t>
+  </si>
+  <si>
+    <t>ya está registrado</t>
+  </si>
+  <si>
+    <t>Seleccione…</t>
+  </si>
+  <si>
+    <t>Fecha de registro:</t>
+  </si>
+  <si>
+    <t>Garantía válida hasta:</t>
+  </si>
+  <si>
+    <t>Registrando</t>
+  </si>
+  <si>
+    <t>Ingrese su número de serie</t>
+  </si>
+  <si>
+    <t>• Obtén actualizaciones acerca de tu producto</t>
+  </si>
+  <si>
+    <t>Se ha registrado correctamente.</t>
+  </si>
+  <si>
+    <t>Registra tu producto para:</t>
+  </si>
+  <si>
+    <t>Sí, ampliar la garantía</t>
+  </si>
+  <si>
+    <t>Núm. de serie</t>
+  </si>
+  <si>
+    <t>ya se ha registrado</t>
+  </si>
+  <si>
+    <t>Selecciona...</t>
+  </si>
+  <si>
+    <t>Fecha registrada:</t>
+  </si>
+  <si>
+    <t>Cubierto por garantía hasta:</t>
+  </si>
+  <si>
+    <t>Introduce el número de serie</t>
+  </si>
+  <si>
+    <t>• Saage oma tootega seotud värskendusi</t>
+  </si>
+  <si>
+    <t>Registreerimine õnnestus</t>
+  </si>
+  <si>
+    <t>Registreerige oma toode järgmistel eesmärkidel:</t>
+  </si>
+  <si>
+    <t>Jah, pikenda garantiid</t>
+  </si>
+  <si>
+    <t>Ostukuupäev</t>
+  </si>
+  <si>
+    <t>Seerianumber</t>
+  </si>
+  <si>
+    <t>Nahalähedane</t>
+  </si>
+  <si>
+    <t>See seerianumber</t>
+  </si>
+  <si>
+    <t>on juba registreeritud</t>
+  </si>
+  <si>
+    <t>Palun valige ...</t>
+  </si>
+  <si>
+    <t>Registreerimise kuupäev:</t>
+  </si>
+  <si>
+    <t>Garantii kehtib kuni:</t>
+  </si>
+  <si>
+    <t>Registreerimine</t>
+  </si>
+  <si>
+    <t>Sisestage oma seerianumber</t>
+  </si>
+  <si>
+    <t>• Saat päivityksiä tuotteeseesi</t>
+  </si>
+  <si>
+    <t>Rekisteröinti onnistui</t>
+  </si>
+  <si>
+    <t>Rekisteröi tuotteesi:</t>
+  </si>
+  <si>
+    <t>Kyllä. Haluan laajentaa takuuta</t>
+  </si>
+  <si>
+    <t>Ostopäivä</t>
+  </si>
+  <si>
+    <t>Sarjanumero</t>
+  </si>
+  <si>
+    <t>Sulje</t>
+  </si>
+  <si>
+    <t>Tämä sarjanumero</t>
+  </si>
+  <si>
+    <t>on jo rekisteröity</t>
+  </si>
+  <si>
+    <t>Valitse...</t>
+  </si>
+  <si>
+    <t>Rekisteröintipäivä:</t>
+  </si>
+  <si>
+    <t>Takuun voimassaolo päättyy:</t>
+  </si>
+  <si>
+    <t>Rekisteröidään</t>
+  </si>
+  <si>
+    <t>Kirjoita sarjanumero</t>
+  </si>
+  <si>
+    <t>• Soyez informé des mises à jour de votre produit</t>
+  </si>
+  <si>
+    <t>Produit enregistré</t>
+  </si>
+  <si>
+    <t>Enregistrer votre produit :</t>
+  </si>
+  <si>
+    <t>Oui, prolonger garantie</t>
+  </si>
+  <si>
+    <t>Date d'achat</t>
+  </si>
+  <si>
+    <t>Numéro de série</t>
+  </si>
+  <si>
+    <t>Fermer</t>
+  </si>
+  <si>
+    <t>Ce numéro de série</t>
+  </si>
+  <si>
+    <t>est déjà enregistré</t>
+  </si>
+  <si>
+    <t>Veuillez sélectionner…</t>
+  </si>
+  <si>
+    <t>Date enregistrée :</t>
+  </si>
+  <si>
+    <t>Couvert par la garantie jusqu'au :</t>
+  </si>
+  <si>
+    <t>Entrer votre numéro de série</t>
+  </si>
+  <si>
+    <t>• Obtenir des mises à jour sur votre produit</t>
+  </si>
+  <si>
+    <t>Enregistré avec succès</t>
+  </si>
+  <si>
+    <t>Enregistrez votre produit pour :</t>
+  </si>
+  <si>
+    <t>Oui, étendre ma garantie</t>
+  </si>
+  <si>
+    <t>Sélectionnez...</t>
+  </si>
+  <si>
+    <t>Date d'enregistrement :</t>
+  </si>
+  <si>
+    <t>Sous garantie jusqu'au :</t>
+  </si>
+  <si>
+    <t>Enregistrement en cours</t>
+  </si>
+  <si>
+    <t>Saisissez votre numéro de série</t>
+  </si>
+  <si>
+    <t>• קבל עדכונים לגבי המוצר שברשותך</t>
+  </si>
+  <si>
+    <t>הרישום הצליח!</t>
+  </si>
+  <si>
+    <t>רשום את המוצר על שם:</t>
+  </si>
+  <si>
+    <t>כן, הארך את האחריות שלי</t>
+  </si>
+  <si>
+    <t>תאריך הרכישה</t>
+  </si>
+  <si>
+    <t>מספר סידורי</t>
+  </si>
+  <si>
+    <t>סגור</t>
+  </si>
+  <si>
+    <t>מספר סידורי זה</t>
+  </si>
+  <si>
+    <t>רשום כבר</t>
+  </si>
+  <si>
+    <t>בחר...</t>
+  </si>
+  <si>
+    <t>תאריך הרישום:</t>
+  </si>
+  <si>
+    <t>באחריות עד לתאריך:</t>
+  </si>
+  <si>
+    <t>רישום</t>
+  </si>
+  <si>
+    <t>הזן מספר סידורי</t>
+  </si>
+  <si>
+    <t>• Dobivajte ažuriranja o proizvodu</t>
+  </si>
+  <si>
+    <t>Registracija je uspjela</t>
+  </si>
+  <si>
+    <t>Registrirajte proizvod:</t>
+  </si>
+  <si>
+    <t>Da, produži jamstvo</t>
+  </si>
+  <si>
+    <t>Datum kupnje</t>
+  </si>
+  <si>
+    <t>Serijski broj</t>
+  </si>
+  <si>
+    <t>Zatvori</t>
+  </si>
+  <si>
+    <t>Ovaj serijski broj</t>
+  </si>
+  <si>
+    <t>već je registriran</t>
+  </si>
+  <si>
+    <t>Odaberite...</t>
+  </si>
+  <si>
+    <t>Datum registracije:</t>
+  </si>
+  <si>
+    <t>Jamstvo vrijedi do:</t>
+  </si>
+  <si>
+    <t>Registracija</t>
+  </si>
+  <si>
+    <t>Unesite serijski broj</t>
+  </si>
+  <si>
+    <t>• Frissítéseket kap a termékével kapcsolatban.</t>
+  </si>
+  <si>
+    <t>A regisztrálás sikeres.</t>
+  </si>
+  <si>
+    <t>A termék regisztrációja esetén:</t>
+  </si>
+  <si>
+    <t>Igen, garanciahosszabbítás</t>
+  </si>
+  <si>
+    <t>Vásárlás dátuma</t>
+  </si>
+  <si>
+    <t>Sorozatszám</t>
+  </si>
+  <si>
+    <t>Bezárás</t>
+  </si>
+  <si>
+    <t>Ez a sorozatszám</t>
+  </si>
+  <si>
+    <t>már regisztrálva van.</t>
+  </si>
+  <si>
+    <t>Kérjük, válasszon...</t>
+  </si>
+  <si>
+    <t>Regisztrálás dátuma:</t>
+  </si>
+  <si>
+    <t>Regisztrálás</t>
+  </si>
+  <si>
+    <t>Írja be a sorozatszámot</t>
+  </si>
+  <si>
+    <t>• Ottenere aggiornamenti sul prodotto</t>
+  </si>
+  <si>
+    <t>Registrazione eseguita</t>
+  </si>
+  <si>
+    <t>Registra il tuo prodotto per:</t>
+  </si>
+  <si>
+    <t>Sì, estendi la garanzia</t>
+  </si>
+  <si>
+    <t>Data di acquisto</t>
+  </si>
+  <si>
+    <t>Numero di serie</t>
+  </si>
+  <si>
+    <t>Chiudi</t>
+  </si>
+  <si>
+    <t>Questo numero di serie</t>
+  </si>
+  <si>
+    <t>è già registrato</t>
+  </si>
+  <si>
+    <t>Seleziona...</t>
+  </si>
+  <si>
+    <t>Data di registrazione:</t>
+  </si>
+  <si>
+    <t>In garanzia fino al:</t>
+  </si>
+  <si>
+    <t>Registrazione</t>
+  </si>
+  <si>
+    <t>Inserisci il numero di serie</t>
+  </si>
+  <si>
+    <t>• 製品の最新情報をお届けいたします</t>
+  </si>
+  <si>
+    <t>登録が完了しました</t>
+  </si>
+  <si>
+    <t>製品登録のメリット：</t>
+  </si>
+  <si>
+    <t>はい、保証を延長します</t>
+  </si>
+  <si>
+    <t>ご購入日</t>
+  </si>
+  <si>
+    <t>シリアル番号</t>
+  </si>
+  <si>
+    <t>閉じる</t>
+  </si>
+  <si>
+    <t>このシリアル番号は</t>
+  </si>
+  <si>
+    <t>既に登録されています</t>
+  </si>
+  <si>
+    <t>選択してください...</t>
+  </si>
+  <si>
+    <t>ご登録日：</t>
+  </si>
+  <si>
+    <t>保証期限：</t>
+  </si>
+  <si>
+    <t>登録中</t>
+  </si>
+  <si>
+    <t>シリアル番号を入力してください</t>
+  </si>
+  <si>
+    <t>• 제품에 대한 업데이트 받아보기</t>
+  </si>
+  <si>
+    <t>등록 완료됨</t>
+  </si>
+  <si>
+    <t>다음에 제품 등록:</t>
+  </si>
+  <si>
+    <t>네, 보증을 연장하겠습니다.</t>
+  </si>
+  <si>
+    <t>구입 일자</t>
+  </si>
+  <si>
+    <t>일련 번호</t>
+  </si>
+  <si>
+    <t>닫기</t>
+  </si>
+  <si>
+    <t>이 일련 번호는</t>
+  </si>
+  <si>
+    <t>이미 등록되어 있습니다.</t>
+  </si>
+  <si>
+    <t>선택해 주십시오…</t>
+  </si>
+  <si>
+    <t>보증 만료일:</t>
+  </si>
+  <si>
+    <t>등록 중</t>
+  </si>
+  <si>
+    <t>일련 번호 입력</t>
+  </si>
+  <si>
+    <t>• Gaukite gaminio naujinius</t>
+  </si>
+  <si>
+    <t>Užregistruota sėkmingai</t>
+  </si>
+  <si>
+    <t>Registruokite gaminį:</t>
+  </si>
+  <si>
+    <t>Taip, pratęskite garantiją</t>
+  </si>
+  <si>
+    <t>Pirkimo data:</t>
+  </si>
+  <si>
+    <t>Serijos numeris</t>
+  </si>
+  <si>
+    <t>Švarus</t>
+  </si>
+  <si>
+    <t>Šis serijos numeris</t>
+  </si>
+  <si>
+    <t>jau užregistruotas</t>
+  </si>
+  <si>
+    <t>Pasirinkite...</t>
+  </si>
+  <si>
+    <t>Registravimo data:</t>
+  </si>
+  <si>
+    <t>Garantija galioja iki:</t>
+  </si>
+  <si>
+    <t>Registruojama</t>
+  </si>
+  <si>
+    <t>Įveskite serijos numerį</t>
+  </si>
+  <si>
+    <t>• Saņemiet atjauninājumus par produktu</t>
+  </si>
+  <si>
+    <t>Veiksmīgi reģistrēts</t>
+  </si>
+  <si>
+    <t>Reģistrējiet savu produktu:</t>
+  </si>
+  <si>
+    <t>Jā, pagariniet garantiju</t>
+  </si>
+  <si>
+    <t>Iegādes datums</t>
+  </si>
+  <si>
+    <t>Sērijas numurs</t>
+  </si>
+  <si>
+    <t>Gluda</t>
+  </si>
+  <si>
+    <t>Šis sērijas numurs</t>
+  </si>
+  <si>
+    <t>jau ir reģistrēts</t>
+  </si>
+  <si>
+    <t>Lūdzu, izvēlieties...</t>
+  </si>
+  <si>
+    <t>Reģistrēšanas datums:</t>
+  </si>
+  <si>
+    <t>Ar garantiju līdz:</t>
+  </si>
+  <si>
+    <t>Reģistrēšana</t>
+  </si>
+  <si>
+    <t>Ievadiet sērijas numuru</t>
+  </si>
+  <si>
+    <t>• Få oppdateringer om produktet</t>
+  </si>
+  <si>
+    <t>Registrer produktet til:</t>
+  </si>
+  <si>
+    <t>Ja, forleng garantien</t>
+  </si>
+  <si>
+    <t>Kjøpsdato</t>
+  </si>
+  <si>
+    <t>Lukk</t>
+  </si>
+  <si>
+    <t>Dette serienummeret</t>
+  </si>
+  <si>
+    <t>er allerede registrert</t>
+  </si>
+  <si>
+    <t>Velg …</t>
+  </si>
+  <si>
+    <t>Dato registrert:</t>
+  </si>
+  <si>
+    <t>Under garanti til:</t>
+  </si>
+  <si>
+    <t>Angi serienummeret</t>
+  </si>
+  <si>
+    <t>• Ontvang updates over uw product</t>
+  </si>
+  <si>
+    <t>Registratie voltooid</t>
+  </si>
+  <si>
+    <t>Registreer uw product:</t>
+  </si>
+  <si>
+    <t>Ja, ik wil mijn garantie verlengen</t>
+  </si>
+  <si>
+    <t>Aankoopdatum</t>
+  </si>
+  <si>
+    <t>Sluiten</t>
+  </si>
+  <si>
+    <t>Dit serienummer</t>
+  </si>
+  <si>
+    <t>is al geregistreerd</t>
+  </si>
+  <si>
+    <t>Selecteer...</t>
+  </si>
+  <si>
+    <t>Registratiedatum:</t>
+  </si>
+  <si>
+    <t>Garantie tot:</t>
+  </si>
+  <si>
+    <t>Registereren</t>
+  </si>
+  <si>
+    <t>Voer het serienummer in</t>
+  </si>
+  <si>
+    <t>• Otrzymuj aktualizacje dotyczące produktu</t>
+  </si>
+  <si>
+    <t>Zarejestrowano pomyślnie</t>
+  </si>
+  <si>
+    <t>Zarejestruj swój produkt:</t>
+  </si>
+  <si>
+    <t>Tak, przedłużam gwarancję</t>
+  </si>
+  <si>
+    <t>Data zakupu</t>
+  </si>
+  <si>
+    <t>Numer seryjny</t>
+  </si>
+  <si>
+    <t>Zamknij</t>
+  </si>
+  <si>
+    <t>Ten numer seryjny</t>
+  </si>
+  <si>
+    <t>jest już zarejestrowany</t>
+  </si>
+  <si>
+    <t>Wybierz…</t>
+  </si>
+  <si>
+    <t>Data rejestracji:</t>
+  </si>
+  <si>
+    <t>Objęto gwarancją do:</t>
+  </si>
+  <si>
+    <t>Rejestrowanie</t>
+  </si>
+  <si>
+    <t>Wprowadź numer seryjny</t>
+  </si>
+  <si>
+    <t>• Obter atualizações sobre o produto</t>
+  </si>
+  <si>
+    <t>Registrado com sucesso</t>
+  </si>
+  <si>
+    <t>Registre seu produto para:</t>
+  </si>
+  <si>
+    <t>Sim, estender garantia</t>
+  </si>
+  <si>
+    <t>Data da compra</t>
+  </si>
+  <si>
+    <t>Número de série</t>
+  </si>
+  <si>
+    <t>Fechar</t>
+  </si>
+  <si>
+    <t>Este número de série</t>
+  </si>
+  <si>
+    <t>já está registrado</t>
+  </si>
+  <si>
+    <t>Selecione...</t>
+  </si>
+  <si>
+    <t>Data registrada:</t>
+  </si>
+  <si>
+    <t>Em garantia até:</t>
+  </si>
+  <si>
+    <t>Insira o número de série</t>
+  </si>
+  <si>
+    <t>• Receba actualizações sobre o seu produto</t>
+  </si>
+  <si>
+    <t>Registado com sucesso</t>
+  </si>
+  <si>
+    <t>Registe o seu produto para:</t>
+  </si>
+  <si>
+    <t>Sim, prolongar a garantia</t>
+  </si>
+  <si>
+    <t>Data de compra</t>
+  </si>
+  <si>
+    <t>já está registado</t>
+  </si>
+  <si>
+    <t>Registado a:</t>
+  </si>
+  <si>
+    <t>Com garantia até:</t>
+  </si>
+  <si>
+    <t>A registar</t>
+  </si>
+  <si>
+    <t>Introduza o número de série</t>
+  </si>
+  <si>
+    <t>• Primeşte noutăţi despre produsul tău</t>
+  </si>
+  <si>
+    <t>Înregistrat cu succes</t>
+  </si>
+  <si>
+    <t>Înregistrează-ţi produsul în:</t>
+  </si>
+  <si>
+    <t>Da, extindeţi-mi garanţia</t>
+  </si>
+  <si>
+    <t>Data achiziţionării</t>
+  </si>
+  <si>
+    <t>Număr de serie</t>
+  </si>
+  <si>
+    <t>Închidere</t>
+  </si>
+  <si>
+    <t>Acest număr de serie</t>
+  </si>
+  <si>
+    <t>este deja înregistrat</t>
+  </si>
+  <si>
+    <t>Te rugăm să selectezi...</t>
+  </si>
+  <si>
+    <t>Data înregistrării:</t>
+  </si>
+  <si>
+    <t>Acoperit de garanţie până la:</t>
+  </si>
+  <si>
+    <t>Se înregistrează</t>
+  </si>
+  <si>
+    <t>Introdu numărul de serie propriu</t>
+  </si>
+  <si>
+    <t>• узнавать об обновлениях для вашего продукта</t>
+  </si>
+  <si>
+    <t>Регистрация успешно выполнена</t>
+  </si>
+  <si>
+    <t>Зарегистрируйте продукт, чтобы:</t>
+  </si>
+  <si>
+    <t>Да, продлить гарантию</t>
+  </si>
+  <si>
+    <t>Дата покупки</t>
+  </si>
+  <si>
+    <t>Серийный номер</t>
+  </si>
+  <si>
+    <t>Закрыть</t>
+  </si>
+  <si>
+    <t>Этот серийный номер</t>
+  </si>
+  <si>
+    <t>уже зарегистрирован</t>
+  </si>
+  <si>
+    <t>Выберите...</t>
+  </si>
+  <si>
+    <t>Дата регистрации:</t>
+  </si>
+  <si>
+    <t>Гарантия действует до:</t>
+  </si>
+  <si>
+    <t>Выполняется регистрация</t>
+  </si>
+  <si>
+    <t>Введите серийный номер</t>
+  </si>
+  <si>
+    <t>• Získajte aktualizácie pre svoj výrobok</t>
+  </si>
+  <si>
+    <t>Registrácia bola úspešná</t>
+  </si>
+  <si>
+    <t>Zaregistrujte svoj výrobok:</t>
+  </si>
+  <si>
+    <t>Áno, predĺžte moju záruku</t>
+  </si>
+  <si>
+    <t>Dátum zakúpenia</t>
+  </si>
+  <si>
+    <t>Hladké</t>
+  </si>
+  <si>
+    <t>je už zaregistrované</t>
+  </si>
+  <si>
+    <t>Vyberte...</t>
+  </si>
+  <si>
+    <t>Dátum registrácie:</t>
+  </si>
+  <si>
+    <t>V záruke do:</t>
+  </si>
+  <si>
+    <t>Registruje sa</t>
+  </si>
+  <si>
+    <t>Zadajte sériové číslo</t>
+  </si>
+  <si>
+    <t>• Prejemajte novice o svojem izdelku</t>
+  </si>
+  <si>
+    <t>Uspešno registrirano</t>
+  </si>
+  <si>
+    <t>Registracija izdelka:</t>
+  </si>
+  <si>
+    <t>Da, podaljšaj garancijo</t>
+  </si>
+  <si>
+    <t>Datum nakupa</t>
+  </si>
+  <si>
+    <t>Serijska številka</t>
+  </si>
+  <si>
+    <t>Zapri</t>
+  </si>
+  <si>
+    <t>Ta serijska številka</t>
+  </si>
+  <si>
+    <t>je že registrirana</t>
+  </si>
+  <si>
+    <t>Izberite ...</t>
+  </si>
+  <si>
+    <t>Veljavnost garancije do:</t>
+  </si>
+  <si>
+    <t>Registriranje</t>
+  </si>
+  <si>
+    <t>Vnesite serijsko številko</t>
+  </si>
+  <si>
+    <t>• Få uppdateringar om produkten</t>
+  </si>
+  <si>
+    <t>Har registrerats!</t>
+  </si>
+  <si>
+    <t>Registrera produkten på:</t>
+  </si>
+  <si>
+    <t>Ja, utöka min garanti</t>
+  </si>
+  <si>
+    <t>Inköpsdatum</t>
+  </si>
+  <si>
+    <t>Stäng</t>
+  </si>
+  <si>
+    <t>Det här serienumret</t>
+  </si>
+  <si>
+    <t>har redan registrerats</t>
+  </si>
+  <si>
+    <t>Välj ...</t>
+  </si>
+  <si>
+    <t>Registreringsdatum:</t>
+  </si>
+  <si>
+    <t>Under garanti tills:</t>
+  </si>
+  <si>
+    <t>Registrerar</t>
+  </si>
+  <si>
+    <t>Ange serienummer</t>
+  </si>
+  <si>
+    <t>• รับอัปเดตเกี่ยวกับผลิตภัณฑ์ของคุณ</t>
+  </si>
+  <si>
+    <t>ลงทะเบียนเสร็จสมบูรณ์</t>
+  </si>
+  <si>
+    <t>ลงทะเบียนผลิตภัณฑ์ของคุณไปยัง:</t>
+  </si>
+  <si>
+    <t>ใช่ ขยายการประกันของฉัน</t>
+  </si>
+  <si>
+    <t>วันที่ซื้อ</t>
+  </si>
+  <si>
+    <t>เลขซีเรียล</t>
+  </si>
+  <si>
+    <t>ปิด</t>
+  </si>
+  <si>
+    <t>หมายเลขผลิตภัณฑ์นี้</t>
+  </si>
+  <si>
+    <t>ได้มีการลงทะเบียนไว้แล้ว</t>
+  </si>
+  <si>
+    <t>โปรดเลือก...</t>
+  </si>
+  <si>
+    <t>วันที่ลงทะเบียน:</t>
+  </si>
+  <si>
+    <t>อยู่ภายใต้การรับประกันจนถึง:</t>
+  </si>
+  <si>
+    <t>ลงทะเบียน</t>
+  </si>
+  <si>
+    <t>ป้อนหมายเลขผลิตภัณฑ์ของคุณ</t>
+  </si>
+  <si>
+    <t>• Ürünlerinizle ilgili güncellemeleri edinin</t>
+  </si>
+  <si>
+    <t>Başarıyla kaydedildi</t>
+  </si>
+  <si>
+    <t>Ürününüzü kaydettirin:</t>
+  </si>
+  <si>
+    <t>Evet, garanti süremi uzat</t>
+  </si>
+  <si>
+    <t>Satın alma tarihi</t>
+  </si>
+  <si>
+    <t>Seri numarası</t>
+  </si>
+  <si>
+    <t>Kapat</t>
+  </si>
+  <si>
+    <t>Bu seri numarası</t>
+  </si>
+  <si>
+    <t>zaten kayıtlı</t>
+  </si>
+  <si>
+    <t>Lütfen seçin…</t>
+  </si>
+  <si>
+    <t>Kaydedilen tarih:</t>
+  </si>
+  <si>
+    <t>Şu tarihe kadar garanti kapsamında:</t>
+  </si>
+  <si>
+    <t>Kaydediliyor</t>
+  </si>
+  <si>
+    <t>Seri numaranızı girin</t>
+  </si>
+  <si>
+    <t>• Отримуйте оновлення про свій виріб</t>
+  </si>
+  <si>
+    <t>Успішно зареєстровано</t>
+  </si>
+  <si>
+    <t>Зареєструйте свій виріб, щоб:</t>
+  </si>
+  <si>
+    <t>Так, розширити гарантію</t>
+  </si>
+  <si>
+    <t>Дата придбання</t>
+  </si>
+  <si>
+    <t>Серійний номер</t>
+  </si>
+  <si>
+    <t>Закрити</t>
+  </si>
+  <si>
+    <t>Цей серійний номер</t>
+  </si>
+  <si>
+    <t>уже зареєстровано</t>
+  </si>
+  <si>
+    <t>Виберіть...</t>
+  </si>
+  <si>
+    <t>Дата реєстрації:</t>
+  </si>
+  <si>
+    <t>Під дією гарантії до:</t>
+  </si>
+  <si>
+    <t>Виконується реєстрація</t>
+  </si>
+  <si>
+    <t>Введіть серійний номер</t>
+  </si>
+  <si>
+    <t>• Nhận thông tin cập nhật về sản phẩm của bạn</t>
+  </si>
+  <si>
+    <t>Đăng ký thành công</t>
+  </si>
+  <si>
+    <t>Đăng ký sản phẩm của bạn để:</t>
+  </si>
+  <si>
+    <t>Vâng, kéo dài bảo hành của tôi</t>
+  </si>
+  <si>
+    <t>Ngày mua</t>
+  </si>
+  <si>
+    <t>Số sê-ri</t>
+  </si>
+  <si>
+    <t>Đóng</t>
+  </si>
+  <si>
+    <t>Số sê-ri này</t>
+  </si>
+  <si>
+    <t>đã được đăng ký</t>
+  </si>
+  <si>
+    <t>Vui lòng chọn…</t>
+  </si>
+  <si>
+    <t>Ngày đăng ký:</t>
+  </si>
+  <si>
+    <t>Theo bảo hành cho đến:</t>
+  </si>
+  <si>
+    <t>Đang đăng ký</t>
+  </si>
+  <si>
+    <t>Nhập số sê-ri của bạn</t>
+  </si>
+  <si>
+    <t>• 获取产品的更新信息</t>
+  </si>
+  <si>
+    <t>已成功注册</t>
+  </si>
+  <si>
+    <t>将您的产品注册至：</t>
+  </si>
+  <si>
+    <t>是，延长我的保修期</t>
+  </si>
+  <si>
+    <t>购买日期</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>该序列号</t>
+  </si>
+  <si>
+    <t>请选择…</t>
+  </si>
+  <si>
+    <t>注册日期：</t>
+  </si>
+  <si>
+    <t>保修期至：</t>
+  </si>
+  <si>
+    <t>正在注册</t>
+  </si>
+  <si>
+    <t>请输入您的序列号</t>
+  </si>
+  <si>
+    <t>• 獲取有關產品的最新消息</t>
+  </si>
+  <si>
+    <t>已成功註冊</t>
+  </si>
+  <si>
+    <t>註冊您的產品即可：</t>
+  </si>
+  <si>
+    <t>好，延長我的保養</t>
+  </si>
+  <si>
+    <t>購買日期</t>
+  </si>
+  <si>
+    <t>序號</t>
+  </si>
+  <si>
+    <t>關閉</t>
+  </si>
+  <si>
+    <t>此序號</t>
+  </si>
+  <si>
+    <t>經已註冊</t>
+  </si>
+  <si>
+    <t>請選擇…</t>
+  </si>
+  <si>
+    <t>註冊日期：</t>
+  </si>
+  <si>
+    <t>保養期至：</t>
+  </si>
+  <si>
+    <t>註冊</t>
+  </si>
+  <si>
+    <t>輸入您的序號</t>
+  </si>
+  <si>
+    <t>• 取得產品的更新資訊</t>
+  </si>
+  <si>
+    <t>註冊成功</t>
+  </si>
+  <si>
+    <t>註冊您的產品，即可：</t>
+  </si>
+  <si>
+    <t>是，延長我的保固</t>
+  </si>
+  <si>
+    <t>保固到期日：</t>
+  </si>
+  <si>
+    <t>正在註冊</t>
+  </si>
+  <si>
+    <t>We're looking for your products…</t>
+  </si>
+  <si>
+    <t>PRG_Looking_For_Products_Lbltxt</t>
   </si>
 </sst>
 </file>
@@ -21265,7 +22720,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -21288,12 +22743,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -21492,7 +22941,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -21580,21 +23029,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="40">
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
@@ -26088,10 +27538,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:AW75"/>
+  <dimension ref="A1:AW76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="54" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="54" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="39.375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -33963,52 +35414,520 @@
       </c>
     </row>
     <row r="62" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="29"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="30" t="s">
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="26" t="s">
         <v>2279</v>
       </c>
       <c r="D62" s="31"/>
-      <c r="E62" s="30" t="s">
+      <c r="E62" s="26" t="s">
         <v>2280</v>
+      </c>
+      <c r="F62" s="34" t="s">
+        <v>2363</v>
+      </c>
+      <c r="G62" s="34" t="s">
+        <v>2456</v>
+      </c>
+      <c r="H62" s="34" t="s">
+        <v>2758</v>
+      </c>
+      <c r="I62" s="34" t="s">
+        <v>2784</v>
+      </c>
+      <c r="J62" s="34" t="s">
+        <v>2770</v>
+      </c>
+      <c r="K62" s="34" t="s">
+        <v>2626</v>
+      </c>
+      <c r="L62" s="34" t="s">
+        <v>2650</v>
+      </c>
+      <c r="M62" s="34" t="s">
+        <v>2307</v>
+      </c>
+      <c r="N62" s="34" t="s">
+        <v>2520</v>
+      </c>
+      <c r="O62" s="34" t="s">
+        <v>2586</v>
+      </c>
+      <c r="P62" s="34" t="s">
+        <v>2506</v>
+      </c>
+      <c r="Q62" s="34" t="s">
+        <v>2599</v>
+      </c>
+      <c r="R62" s="34" t="s">
+        <v>2405</v>
+      </c>
+      <c r="S62" s="34" t="s">
+        <v>2534</v>
+      </c>
+      <c r="T62" s="34" t="s">
+        <v>2335</v>
+      </c>
+      <c r="U62" s="34" t="s">
+        <v>2280</v>
+      </c>
+      <c r="V62" s="34" t="s">
+        <v>2443</v>
+      </c>
+      <c r="W62" s="34" t="s">
+        <v>2636</v>
+      </c>
+      <c r="X62" s="34" t="s">
+        <v>2391</v>
+      </c>
+      <c r="Y62" s="34" t="s">
+        <v>2730</v>
+      </c>
+      <c r="Z62" s="34" t="s">
+        <v>2575</v>
+      </c>
+      <c r="AA62" s="34" t="s">
+        <v>2321</v>
+      </c>
+      <c r="AB62" s="34" t="s">
+        <v>2479</v>
+      </c>
+      <c r="AC62" s="34" t="s">
+        <v>2415</v>
+      </c>
+      <c r="AD62" s="34" t="s">
+        <v>2377</v>
+      </c>
+      <c r="AE62" s="34" t="s">
+        <v>2465</v>
+      </c>
+      <c r="AF62" s="34" t="s">
+        <v>2493</v>
+      </c>
+      <c r="AG62" s="34" t="s">
+        <v>2561</v>
+      </c>
+      <c r="AH62" s="34" t="s">
+        <v>2547</v>
+      </c>
+      <c r="AI62" s="34" t="s">
+        <v>2613</v>
+      </c>
+      <c r="AJ62" s="34" t="s">
+        <v>2664</v>
+      </c>
+      <c r="AK62" s="34" t="s">
+        <v>2676</v>
+      </c>
+      <c r="AL62" s="34" t="s">
+        <v>2391</v>
+      </c>
+      <c r="AM62" s="34" t="s">
+        <v>2702</v>
+      </c>
+      <c r="AN62" s="34" t="s">
+        <v>2744</v>
+      </c>
+      <c r="AO62" s="34" t="s">
+        <v>2349</v>
+      </c>
+      <c r="AP62" s="34" t="s">
+        <v>2429</v>
+      </c>
+      <c r="AQ62" s="34" t="s">
+        <v>2689</v>
+      </c>
+      <c r="AR62" s="34" t="s">
+        <v>2716</v>
       </c>
     </row>
     <row r="63" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="29"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="30" t="s">
+      <c r="A63" s="30"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="26" t="s">
         <v>2281</v>
       </c>
       <c r="D63" s="31"/>
-      <c r="E63" s="30" t="s">
+      <c r="E63" s="26" t="s">
         <v>2282</v>
+      </c>
+      <c r="F63" s="34" t="s">
+        <v>2364</v>
+      </c>
+      <c r="G63" s="34" t="s">
+        <v>2457</v>
+      </c>
+      <c r="H63" s="34" t="s">
+        <v>2759</v>
+      </c>
+      <c r="I63" s="34" t="s">
+        <v>2785</v>
+      </c>
+      <c r="J63" s="34" t="s">
+        <v>2771</v>
+      </c>
+      <c r="K63" s="34" t="s">
+        <v>2627</v>
+      </c>
+      <c r="L63" s="34" t="s">
+        <v>2651</v>
+      </c>
+      <c r="M63" s="34" t="s">
+        <v>2308</v>
+      </c>
+      <c r="N63" s="34" t="s">
+        <v>2521</v>
+      </c>
+      <c r="O63" s="34" t="s">
+        <v>2587</v>
+      </c>
+      <c r="P63" s="34" t="s">
+        <v>2507</v>
+      </c>
+      <c r="Q63" s="34" t="s">
+        <v>2600</v>
+      </c>
+      <c r="R63" s="34" t="s">
+        <v>2406</v>
+      </c>
+      <c r="S63" s="34" t="s">
+        <v>2535</v>
+      </c>
+      <c r="T63" s="34" t="s">
+        <v>2336</v>
+      </c>
+      <c r="U63" s="34" t="s">
+        <v>2282</v>
+      </c>
+      <c r="V63" s="34" t="s">
+        <v>2444</v>
+      </c>
+      <c r="W63" s="34" t="s">
+        <v>2637</v>
+      </c>
+      <c r="X63" s="34" t="s">
+        <v>2392</v>
+      </c>
+      <c r="Y63" s="34" t="s">
+        <v>2731</v>
+      </c>
+      <c r="Z63" s="34" t="s">
+        <v>2080</v>
+      </c>
+      <c r="AA63" s="34" t="s">
+        <v>2322</v>
+      </c>
+      <c r="AB63" s="34" t="s">
+        <v>2480</v>
+      </c>
+      <c r="AC63" s="34" t="s">
+        <v>2416</v>
+      </c>
+      <c r="AD63" s="34" t="s">
+        <v>2378</v>
+      </c>
+      <c r="AE63" s="34" t="s">
+        <v>2466</v>
+      </c>
+      <c r="AF63" s="34" t="s">
+        <v>2494</v>
+      </c>
+      <c r="AG63" s="34" t="s">
+        <v>2562</v>
+      </c>
+      <c r="AH63" s="34" t="s">
+        <v>2548</v>
+      </c>
+      <c r="AI63" s="34" t="s">
+        <v>2614</v>
+      </c>
+      <c r="AJ63" s="34" t="s">
+        <v>2665</v>
+      </c>
+      <c r="AK63" s="34" t="s">
+        <v>2677</v>
+      </c>
+      <c r="AL63" s="34" t="s">
+        <v>2392</v>
+      </c>
+      <c r="AM63" s="34" t="s">
+        <v>2703</v>
+      </c>
+      <c r="AN63" s="34" t="s">
+        <v>2745</v>
+      </c>
+      <c r="AO63" s="34" t="s">
+        <v>2350</v>
+      </c>
+      <c r="AP63" s="34" t="s">
+        <v>2430</v>
+      </c>
+      <c r="AQ63" s="34" t="s">
+        <v>2690</v>
+      </c>
+      <c r="AR63" s="34" t="s">
+        <v>2717</v>
       </c>
     </row>
     <row r="64" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="29"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="30" t="s">
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="26" t="s">
         <v>2283</v>
       </c>
       <c r="D64" s="31"/>
-      <c r="E64" s="30" t="s">
+      <c r="E64" s="26" t="s">
         <v>2284</v>
       </c>
+      <c r="F64" s="34" t="s">
+        <v>2365</v>
+      </c>
+      <c r="G64" s="34" t="s">
+        <v>2458</v>
+      </c>
+      <c r="H64" s="34" t="s">
+        <v>2760</v>
+      </c>
+      <c r="I64" s="34" t="s">
+        <v>2786</v>
+      </c>
+      <c r="J64" s="34" t="s">
+        <v>2772</v>
+      </c>
+      <c r="K64" s="34" t="s">
+        <v>2628</v>
+      </c>
+      <c r="L64" s="34" t="s">
+        <v>2652</v>
+      </c>
+      <c r="M64" s="34" t="s">
+        <v>2309</v>
+      </c>
+      <c r="N64" s="34" t="s">
+        <v>2522</v>
+      </c>
+      <c r="O64" s="34" t="s">
+        <v>2588</v>
+      </c>
+      <c r="P64" s="34" t="s">
+        <v>2508</v>
+      </c>
+      <c r="Q64" s="34" t="s">
+        <v>2601</v>
+      </c>
+      <c r="R64" s="34" t="s">
+        <v>2407</v>
+      </c>
+      <c r="S64" s="34" t="s">
+        <v>2536</v>
+      </c>
+      <c r="T64" s="34" t="s">
+        <v>2337</v>
+      </c>
+      <c r="U64" s="34" t="s">
+        <v>2284</v>
+      </c>
+      <c r="V64" s="34" t="s">
+        <v>2445</v>
+      </c>
+      <c r="W64" s="34" t="s">
+        <v>2638</v>
+      </c>
+      <c r="X64" s="34" t="s">
+        <v>2393</v>
+      </c>
+      <c r="Y64" s="34" t="s">
+        <v>2732</v>
+      </c>
+      <c r="Z64" s="34" t="s">
+        <v>2576</v>
+      </c>
+      <c r="AA64" s="34" t="s">
+        <v>2323</v>
+      </c>
+      <c r="AB64" s="34" t="s">
+        <v>2481</v>
+      </c>
+      <c r="AC64" s="34" t="s">
+        <v>2417</v>
+      </c>
+      <c r="AD64" s="34" t="s">
+        <v>2379</v>
+      </c>
+      <c r="AE64" s="34" t="s">
+        <v>2467</v>
+      </c>
+      <c r="AF64" s="34" t="s">
+        <v>2495</v>
+      </c>
+      <c r="AG64" s="34" t="s">
+        <v>2563</v>
+      </c>
+      <c r="AH64" s="34" t="s">
+        <v>2549</v>
+      </c>
+      <c r="AI64" s="34" t="s">
+        <v>2615</v>
+      </c>
+      <c r="AJ64" s="34" t="s">
+        <v>2666</v>
+      </c>
+      <c r="AK64" s="34" t="s">
+        <v>2678</v>
+      </c>
+      <c r="AL64" s="34" t="s">
+        <v>2393</v>
+      </c>
+      <c r="AM64" s="34" t="s">
+        <v>2704</v>
+      </c>
+      <c r="AN64" s="34" t="s">
+        <v>2746</v>
+      </c>
+      <c r="AO64" s="34" t="s">
+        <v>2351</v>
+      </c>
+      <c r="AP64" s="34" t="s">
+        <v>2431</v>
+      </c>
+      <c r="AQ64" s="34" t="s">
+        <v>2691</v>
+      </c>
+      <c r="AR64" s="34" t="s">
+        <v>2718</v>
+      </c>
     </row>
-    <row r="65" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="29"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="30" t="s">
+    <row r="65" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="30"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="26" t="s">
         <v>2285</v>
       </c>
       <c r="D65" s="31">
         <v>25</v>
       </c>
-      <c r="E65" s="30" t="s">
+      <c r="E65" s="26" t="s">
         <v>2286</v>
       </c>
+      <c r="F65" s="34" t="s">
+        <v>2366</v>
+      </c>
+      <c r="G65" s="34" t="s">
+        <v>2459</v>
+      </c>
+      <c r="H65" s="34" t="s">
+        <v>2761</v>
+      </c>
+      <c r="I65" s="34" t="s">
+        <v>2787</v>
+      </c>
+      <c r="J65" s="34" t="s">
+        <v>2773</v>
+      </c>
+      <c r="K65" s="34" t="s">
+        <v>2629</v>
+      </c>
+      <c r="L65" s="34" t="s">
+        <v>2653</v>
+      </c>
+      <c r="M65" s="34" t="s">
+        <v>2310</v>
+      </c>
+      <c r="N65" s="34" t="s">
+        <v>2523</v>
+      </c>
+      <c r="O65" s="34" t="s">
+        <v>2589</v>
+      </c>
+      <c r="P65" s="34" t="s">
+        <v>2509</v>
+      </c>
+      <c r="Q65" s="34" t="s">
+        <v>2602</v>
+      </c>
+      <c r="R65" s="34" t="s">
+        <v>2408</v>
+      </c>
+      <c r="S65" s="34" t="s">
+        <v>2537</v>
+      </c>
+      <c r="T65" s="34" t="s">
+        <v>2338</v>
+      </c>
+      <c r="U65" s="34" t="s">
+        <v>2286</v>
+      </c>
+      <c r="V65" s="34" t="s">
+        <v>2446</v>
+      </c>
+      <c r="W65" s="34" t="s">
+        <v>2639</v>
+      </c>
+      <c r="X65" s="34" t="s">
+        <v>2394</v>
+      </c>
+      <c r="Y65" s="34" t="s">
+        <v>2733</v>
+      </c>
+      <c r="Z65" s="34" t="s">
+        <v>2577</v>
+      </c>
+      <c r="AA65" s="34" t="s">
+        <v>2324</v>
+      </c>
+      <c r="AB65" s="34" t="s">
+        <v>2482</v>
+      </c>
+      <c r="AC65" s="34" t="s">
+        <v>2418</v>
+      </c>
+      <c r="AD65" s="34" t="s">
+        <v>2380</v>
+      </c>
+      <c r="AE65" s="34" t="s">
+        <v>2468</v>
+      </c>
+      <c r="AF65" s="34" t="s">
+        <v>2496</v>
+      </c>
+      <c r="AG65" s="34" t="s">
+        <v>2564</v>
+      </c>
+      <c r="AH65" s="34" t="s">
+        <v>2550</v>
+      </c>
+      <c r="AI65" s="34" t="s">
+        <v>2616</v>
+      </c>
+      <c r="AJ65" s="34" t="s">
+        <v>2667</v>
+      </c>
+      <c r="AK65" s="34" t="s">
+        <v>2679</v>
+      </c>
+      <c r="AL65" s="34" t="s">
+        <v>2394</v>
+      </c>
+      <c r="AM65" s="34" t="s">
+        <v>2705</v>
+      </c>
+      <c r="AN65" s="34" t="s">
+        <v>2747</v>
+      </c>
+      <c r="AO65" s="34" t="s">
+        <v>2352</v>
+      </c>
+      <c r="AP65" s="34" t="s">
+        <v>2432</v>
+      </c>
+      <c r="AQ65" s="34" t="s">
+        <v>2692</v>
+      </c>
+      <c r="AR65" s="34" t="s">
+        <v>2719</v>
+      </c>
     </row>
-    <row r="66" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="32"/>
       <c r="B66" s="32"/>
       <c r="C66" s="32" t="s">
@@ -34018,8 +35937,125 @@
       <c r="E66" s="32" t="s">
         <v>2288</v>
       </c>
+      <c r="F66" s="34" t="s">
+        <v>2367</v>
+      </c>
+      <c r="G66" s="34" t="s">
+        <v>2447</v>
+      </c>
+      <c r="H66" s="34" t="s">
+        <v>2762</v>
+      </c>
+      <c r="I66" s="34" t="s">
+        <v>2774</v>
+      </c>
+      <c r="J66" s="34" t="s">
+        <v>2774</v>
+      </c>
+      <c r="K66" s="34" t="s">
+        <v>2630</v>
+      </c>
+      <c r="L66" s="34" t="s">
+        <v>2654</v>
+      </c>
+      <c r="M66" s="34" t="s">
+        <v>2311</v>
+      </c>
+      <c r="N66" s="34" t="s">
+        <v>2524</v>
+      </c>
+      <c r="O66" s="34" t="s">
+        <v>2590</v>
+      </c>
+      <c r="P66" s="34" t="s">
+        <v>2510</v>
+      </c>
+      <c r="Q66" s="34" t="s">
+        <v>2603</v>
+      </c>
+      <c r="R66" s="34" t="s">
+        <v>2395</v>
+      </c>
+      <c r="S66" s="34" t="s">
+        <v>2538</v>
+      </c>
+      <c r="T66" s="34" t="s">
+        <v>2339</v>
+      </c>
+      <c r="U66" s="34" t="s">
+        <v>2288</v>
+      </c>
+      <c r="V66" s="34" t="s">
+        <v>2447</v>
+      </c>
+      <c r="W66" s="34" t="s">
+        <v>2640</v>
+      </c>
+      <c r="X66" s="34" t="s">
+        <v>2395</v>
+      </c>
+      <c r="Y66" s="34" t="s">
+        <v>2734</v>
+      </c>
+      <c r="Z66" s="34" t="s">
+        <v>2578</v>
+      </c>
+      <c r="AA66" s="34" t="s">
+        <v>2325</v>
+      </c>
+      <c r="AB66" s="34" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AC66" s="34" t="s">
+        <v>2419</v>
+      </c>
+      <c r="AD66" s="34" t="s">
+        <v>2381</v>
+      </c>
+      <c r="AE66" s="34" t="s">
+        <v>2469</v>
+      </c>
+      <c r="AF66" s="34" t="s">
+        <v>2497</v>
+      </c>
+      <c r="AG66" s="34" t="s">
+        <v>2565</v>
+      </c>
+      <c r="AH66" s="34" t="s">
+        <v>2551</v>
+      </c>
+      <c r="AI66" s="34" t="s">
+        <v>2617</v>
+      </c>
+      <c r="AJ66" s="34" t="s">
+        <v>2668</v>
+      </c>
+      <c r="AK66" s="34" t="s">
+        <v>2680</v>
+      </c>
+      <c r="AL66" s="34" t="s">
+        <v>2395</v>
+      </c>
+      <c r="AM66" s="34" t="s">
+        <v>2706</v>
+      </c>
+      <c r="AN66" s="34" t="s">
+        <v>2748</v>
+      </c>
+      <c r="AO66" s="34" t="s">
+        <v>2353</v>
+      </c>
+      <c r="AP66" s="34" t="s">
+        <v>2433</v>
+      </c>
+      <c r="AQ66" s="34" t="s">
+        <v>2693</v>
+      </c>
+      <c r="AR66" s="34" t="s">
+        <v>2720</v>
+      </c>
     </row>
-    <row r="67" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="32"/>
       <c r="B67" s="32"/>
       <c r="C67" s="32" t="s">
@@ -34029,8 +36065,125 @@
       <c r="E67" s="32" t="s">
         <v>2290</v>
       </c>
+      <c r="F67" s="34" t="s">
+        <v>2368</v>
+      </c>
+      <c r="G67" s="34" t="s">
+        <v>2448</v>
+      </c>
+      <c r="H67" s="34" t="s">
+        <v>2216</v>
+      </c>
+      <c r="I67" s="34" t="s">
+        <v>2775</v>
+      </c>
+      <c r="J67" s="34" t="s">
+        <v>2775</v>
+      </c>
+      <c r="K67" s="34" t="s">
+        <v>2618</v>
+      </c>
+      <c r="L67" s="34" t="s">
+        <v>2655</v>
+      </c>
+      <c r="M67" s="34" t="s">
+        <v>2312</v>
+      </c>
+      <c r="N67" s="34" t="s">
+        <v>2525</v>
+      </c>
+      <c r="O67" s="34" t="s">
+        <v>2354</v>
+      </c>
+      <c r="P67" s="34" t="s">
+        <v>2511</v>
+      </c>
+      <c r="Q67" s="34" t="s">
+        <v>2604</v>
+      </c>
+      <c r="R67" s="34" t="s">
+        <v>2409</v>
+      </c>
+      <c r="S67" s="34" t="s">
+        <v>2539</v>
+      </c>
+      <c r="T67" s="34" t="s">
+        <v>2340</v>
+      </c>
+      <c r="U67" s="34" t="s">
+        <v>2290</v>
+      </c>
+      <c r="V67" s="34" t="s">
+        <v>2448</v>
+      </c>
+      <c r="W67" s="34" t="s">
+        <v>2641</v>
+      </c>
+      <c r="X67" s="34" t="s">
+        <v>2396</v>
+      </c>
+      <c r="Y67" s="34" t="s">
+        <v>2735</v>
+      </c>
+      <c r="Z67" s="34" t="s">
+        <v>2354</v>
+      </c>
+      <c r="AA67" s="34" t="s">
+        <v>2326</v>
+      </c>
+      <c r="AB67" s="34" t="s">
+        <v>2484</v>
+      </c>
+      <c r="AC67" s="34" t="s">
+        <v>2420</v>
+      </c>
+      <c r="AD67" s="34" t="s">
+        <v>2382</v>
+      </c>
+      <c r="AE67" s="34" t="s">
+        <v>2470</v>
+      </c>
+      <c r="AF67" s="34" t="s">
+        <v>2498</v>
+      </c>
+      <c r="AG67" s="34" t="s">
+        <v>2566</v>
+      </c>
+      <c r="AH67" s="34" t="s">
+        <v>2552</v>
+      </c>
+      <c r="AI67" s="34" t="s">
+        <v>2618</v>
+      </c>
+      <c r="AJ67" s="34" t="s">
+        <v>2340</v>
+      </c>
+      <c r="AK67" s="34" t="s">
+        <v>2681</v>
+      </c>
+      <c r="AL67" s="34" t="s">
+        <v>2396</v>
+      </c>
+      <c r="AM67" s="34" t="s">
+        <v>2707</v>
+      </c>
+      <c r="AN67" s="34" t="s">
+        <v>2749</v>
+      </c>
+      <c r="AO67" s="34" t="s">
+        <v>2354</v>
+      </c>
+      <c r="AP67" s="34" t="s">
+        <v>2434</v>
+      </c>
+      <c r="AQ67" s="34" t="s">
+        <v>2354</v>
+      </c>
+      <c r="AR67" s="34" t="s">
+        <v>2721</v>
+      </c>
     </row>
-    <row r="68" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="32"/>
       <c r="B68" s="32"/>
       <c r="C68" s="32" t="s">
@@ -34040,8 +36193,125 @@
       <c r="E68" s="32" t="s">
         <v>2292</v>
       </c>
+      <c r="F68" s="34" t="s">
+        <v>2369</v>
+      </c>
+      <c r="G68" s="34" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H68" s="34" t="s">
+        <v>2763</v>
+      </c>
+      <c r="I68" s="34" t="s">
+        <v>2776</v>
+      </c>
+      <c r="J68" s="34" t="s">
+        <v>2776</v>
+      </c>
+      <c r="K68" s="34" t="s">
+        <v>2619</v>
+      </c>
+      <c r="L68" s="34" t="s">
+        <v>2656</v>
+      </c>
+      <c r="M68" s="34" t="s">
+        <v>2313</v>
+      </c>
+      <c r="N68" s="34" t="s">
+        <v>2526</v>
+      </c>
+      <c r="O68" s="34" t="s">
+        <v>2591</v>
+      </c>
+      <c r="P68" s="34" t="s">
+        <v>2512</v>
+      </c>
+      <c r="Q68" s="34" t="s">
+        <v>2605</v>
+      </c>
+      <c r="R68" s="34" t="s">
+        <v>2397</v>
+      </c>
+      <c r="S68" s="34" t="s">
+        <v>2540</v>
+      </c>
+      <c r="T68" s="34" t="s">
+        <v>2341</v>
+      </c>
+      <c r="U68" s="34" t="s">
+        <v>2292</v>
+      </c>
+      <c r="V68" s="34" t="s">
+        <v>2449</v>
+      </c>
+      <c r="W68" s="34" t="s">
+        <v>2642</v>
+      </c>
+      <c r="X68" s="34" t="s">
+        <v>2397</v>
+      </c>
+      <c r="Y68" s="34" t="s">
+        <v>2736</v>
+      </c>
+      <c r="Z68" s="34" t="s">
+        <v>2579</v>
+      </c>
+      <c r="AA68" s="34" t="s">
+        <v>2327</v>
+      </c>
+      <c r="AB68" s="34" t="s">
+        <v>2485</v>
+      </c>
+      <c r="AC68" s="34" t="s">
+        <v>2421</v>
+      </c>
+      <c r="AD68" s="34" t="s">
+        <v>2383</v>
+      </c>
+      <c r="AE68" s="34" t="s">
+        <v>2471</v>
+      </c>
+      <c r="AF68" s="34" t="s">
+        <v>2499</v>
+      </c>
+      <c r="AG68" s="34" t="s">
+        <v>2567</v>
+      </c>
+      <c r="AH68" s="34" t="s">
+        <v>2553</v>
+      </c>
+      <c r="AI68" s="34" t="s">
+        <v>2619</v>
+      </c>
+      <c r="AJ68" s="34" t="s">
+        <v>2669</v>
+      </c>
+      <c r="AK68" s="34" t="s">
+        <v>2682</v>
+      </c>
+      <c r="AL68" s="34" t="s">
+        <v>2397</v>
+      </c>
+      <c r="AM68" s="34" t="s">
+        <v>2708</v>
+      </c>
+      <c r="AN68" s="34" t="s">
+        <v>2750</v>
+      </c>
+      <c r="AO68" s="34" t="s">
+        <v>2355</v>
+      </c>
+      <c r="AP68" s="34" t="s">
+        <v>2435</v>
+      </c>
+      <c r="AQ68" s="34" t="s">
+        <v>2694</v>
+      </c>
+      <c r="AR68" s="34" t="s">
+        <v>2722</v>
+      </c>
     </row>
-    <row r="69" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="32"/>
       <c r="B69" s="32"/>
       <c r="C69" s="32" t="s">
@@ -34051,8 +36321,125 @@
       <c r="E69" s="32" t="s">
         <v>2294</v>
       </c>
+      <c r="F69" s="34" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G69" s="34" t="s">
+        <v>2450</v>
+      </c>
+      <c r="H69" s="34" t="s">
+        <v>2764</v>
+      </c>
+      <c r="I69" s="34" t="s">
+        <v>2777</v>
+      </c>
+      <c r="J69" s="34" t="s">
+        <v>2777</v>
+      </c>
+      <c r="K69" s="34" t="s">
+        <v>2620</v>
+      </c>
+      <c r="L69" s="34" t="s">
+        <v>2657</v>
+      </c>
+      <c r="M69" s="34" t="s">
+        <v>2314</v>
+      </c>
+      <c r="N69" s="34" t="s">
+        <v>2527</v>
+      </c>
+      <c r="O69" s="34" t="s">
+        <v>2592</v>
+      </c>
+      <c r="P69" s="34" t="s">
+        <v>2513</v>
+      </c>
+      <c r="Q69" s="34" t="s">
+        <v>2606</v>
+      </c>
+      <c r="R69" s="34" t="s">
+        <v>2398</v>
+      </c>
+      <c r="S69" s="34" t="s">
+        <v>2541</v>
+      </c>
+      <c r="T69" s="34" t="s">
+        <v>2342</v>
+      </c>
+      <c r="U69" s="34" t="s">
+        <v>2294</v>
+      </c>
+      <c r="V69" s="34" t="s">
+        <v>2450</v>
+      </c>
+      <c r="W69" s="34" t="s">
+        <v>2643</v>
+      </c>
+      <c r="X69" s="34" t="s">
+        <v>2398</v>
+      </c>
+      <c r="Y69" s="34" t="s">
+        <v>2737</v>
+      </c>
+      <c r="Z69" s="34" t="s">
+        <v>2580</v>
+      </c>
+      <c r="AA69" s="34" t="s">
+        <v>2328</v>
+      </c>
+      <c r="AB69" s="34" t="s">
+        <v>2486</v>
+      </c>
+      <c r="AC69" s="34" t="s">
+        <v>2422</v>
+      </c>
+      <c r="AD69" s="34" t="s">
+        <v>2384</v>
+      </c>
+      <c r="AE69" s="34" t="s">
+        <v>2472</v>
+      </c>
+      <c r="AF69" s="34" t="s">
+        <v>2500</v>
+      </c>
+      <c r="AG69" s="34" t="s">
+        <v>2568</v>
+      </c>
+      <c r="AH69" s="34" t="s">
+        <v>2554</v>
+      </c>
+      <c r="AI69" s="34" t="s">
+        <v>2620</v>
+      </c>
+      <c r="AJ69" s="34" t="s">
+        <v>2342</v>
+      </c>
+      <c r="AK69" s="34" t="s">
+        <v>2683</v>
+      </c>
+      <c r="AL69" s="34" t="s">
+        <v>2398</v>
+      </c>
+      <c r="AM69" s="34" t="s">
+        <v>2709</v>
+      </c>
+      <c r="AN69" s="34" t="s">
+        <v>2751</v>
+      </c>
+      <c r="AO69" s="34" t="s">
+        <v>2356</v>
+      </c>
+      <c r="AP69" s="34" t="s">
+        <v>2436</v>
+      </c>
+      <c r="AQ69" s="34" t="s">
+        <v>2695</v>
+      </c>
+      <c r="AR69" s="34" t="s">
+        <v>2723</v>
+      </c>
     </row>
-    <row r="70" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="32"/>
       <c r="B70" s="32"/>
       <c r="C70" s="32" t="s">
@@ -34062,8 +36449,125 @@
       <c r="E70" s="32" t="s">
         <v>2296</v>
       </c>
+      <c r="F70" s="34" t="s">
+        <v>2371</v>
+      </c>
+      <c r="G70" s="34" t="s">
+        <v>2451</v>
+      </c>
+      <c r="H70" s="34" t="s">
+        <v>2212</v>
+      </c>
+      <c r="I70" s="34" t="s">
+        <v>2234</v>
+      </c>
+      <c r="J70" s="34" t="s">
+        <v>2778</v>
+      </c>
+      <c r="K70" s="34" t="s">
+        <v>2631</v>
+      </c>
+      <c r="L70" s="34" t="s">
+        <v>2658</v>
+      </c>
+      <c r="M70" s="34" t="s">
+        <v>2315</v>
+      </c>
+      <c r="N70" s="34" t="s">
+        <v>2528</v>
+      </c>
+      <c r="O70" s="34" t="s">
+        <v>2593</v>
+      </c>
+      <c r="P70" s="34" t="s">
+        <v>2514</v>
+      </c>
+      <c r="Q70" s="34" t="s">
+        <v>2607</v>
+      </c>
+      <c r="R70" s="34" t="s">
+        <v>2410</v>
+      </c>
+      <c r="S70" s="34" t="s">
+        <v>2542</v>
+      </c>
+      <c r="T70" s="34" t="s">
+        <v>2343</v>
+      </c>
+      <c r="U70" s="34" t="s">
+        <v>2296</v>
+      </c>
+      <c r="V70" s="34" t="s">
+        <v>2451</v>
+      </c>
+      <c r="W70" s="34" t="s">
+        <v>2644</v>
+      </c>
+      <c r="X70" s="34" t="s">
+        <v>2399</v>
+      </c>
+      <c r="Y70" s="34" t="s">
+        <v>2738</v>
+      </c>
+      <c r="Z70" s="34" t="s">
+        <v>2581</v>
+      </c>
+      <c r="AA70" s="34" t="s">
+        <v>2329</v>
+      </c>
+      <c r="AB70" s="34" t="s">
+        <v>2487</v>
+      </c>
+      <c r="AC70" s="34" t="s">
+        <v>2423</v>
+      </c>
+      <c r="AD70" s="34" t="s">
+        <v>2385</v>
+      </c>
+      <c r="AE70" s="34" t="s">
+        <v>2473</v>
+      </c>
+      <c r="AF70" s="34" t="s">
+        <v>2501</v>
+      </c>
+      <c r="AG70" s="34" t="s">
+        <v>2569</v>
+      </c>
+      <c r="AH70" s="34" t="s">
+        <v>2555</v>
+      </c>
+      <c r="AI70" s="34" t="s">
+        <v>2621</v>
+      </c>
+      <c r="AJ70" s="34" t="s">
+        <v>2670</v>
+      </c>
+      <c r="AK70" s="34" t="s">
+        <v>2684</v>
+      </c>
+      <c r="AL70" s="34" t="s">
+        <v>2399</v>
+      </c>
+      <c r="AM70" s="34" t="s">
+        <v>2710</v>
+      </c>
+      <c r="AN70" s="34" t="s">
+        <v>2752</v>
+      </c>
+      <c r="AO70" s="34" t="s">
+        <v>2357</v>
+      </c>
+      <c r="AP70" s="34" t="s">
+        <v>2437</v>
+      </c>
+      <c r="AQ70" s="34" t="s">
+        <v>2696</v>
+      </c>
+      <c r="AR70" s="34" t="s">
+        <v>2724</v>
+      </c>
     </row>
-    <row r="71" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="32"/>
       <c r="B71" s="32"/>
       <c r="C71" s="32" t="s">
@@ -34075,8 +36579,125 @@
       <c r="E71" s="32" t="s">
         <v>2298</v>
       </c>
+      <c r="F71" s="34" t="s">
+        <v>2372</v>
+      </c>
+      <c r="G71" s="34" t="s">
+        <v>2460</v>
+      </c>
+      <c r="H71" s="34" t="s">
+        <v>2765</v>
+      </c>
+      <c r="I71" s="34" t="s">
+        <v>2779</v>
+      </c>
+      <c r="J71" s="34" t="s">
+        <v>2779</v>
+      </c>
+      <c r="K71" s="34" t="s">
+        <v>2400</v>
+      </c>
+      <c r="L71" s="34" t="s">
+        <v>2659</v>
+      </c>
+      <c r="M71" s="34" t="s">
+        <v>2316</v>
+      </c>
+      <c r="N71" s="34" t="s">
+        <v>2529</v>
+      </c>
+      <c r="O71" s="34" t="s">
+        <v>2594</v>
+      </c>
+      <c r="P71" s="34" t="s">
+        <v>2515</v>
+      </c>
+      <c r="Q71" s="34" t="s">
+        <v>2608</v>
+      </c>
+      <c r="R71" s="34" t="s">
+        <v>2411</v>
+      </c>
+      <c r="S71" s="34" t="s">
+        <v>2543</v>
+      </c>
+      <c r="T71" s="34" t="s">
+        <v>2344</v>
+      </c>
+      <c r="U71" s="34" t="s">
+        <v>2298</v>
+      </c>
+      <c r="V71" s="34" t="s">
+        <v>2452</v>
+      </c>
+      <c r="W71" s="34" t="s">
+        <v>2645</v>
+      </c>
+      <c r="X71" s="34" t="s">
+        <v>2400</v>
+      </c>
+      <c r="Y71" s="34" t="s">
+        <v>2739</v>
+      </c>
+      <c r="Z71" s="34" t="s">
+        <v>2582</v>
+      </c>
+      <c r="AA71" s="34" t="s">
+        <v>2330</v>
+      </c>
+      <c r="AB71" s="34" t="s">
+        <v>2488</v>
+      </c>
+      <c r="AC71" s="34" t="s">
+        <v>2424</v>
+      </c>
+      <c r="AD71" s="34" t="s">
+        <v>2386</v>
+      </c>
+      <c r="AE71" s="34" t="s">
+        <v>2474</v>
+      </c>
+      <c r="AF71" s="34" t="s">
+        <v>2502</v>
+      </c>
+      <c r="AG71" s="34" t="s">
+        <v>2570</v>
+      </c>
+      <c r="AH71" s="34" t="s">
+        <v>2556</v>
+      </c>
+      <c r="AI71" s="34" t="s">
+        <v>2622</v>
+      </c>
+      <c r="AJ71" s="34" t="s">
+        <v>2671</v>
+      </c>
+      <c r="AK71" s="34" t="s">
+        <v>2685</v>
+      </c>
+      <c r="AL71" s="34" t="s">
+        <v>2400</v>
+      </c>
+      <c r="AM71" s="34" t="s">
+        <v>2711</v>
+      </c>
+      <c r="AN71" s="34" t="s">
+        <v>2753</v>
+      </c>
+      <c r="AO71" s="34" t="s">
+        <v>2358</v>
+      </c>
+      <c r="AP71" s="34" t="s">
+        <v>2438</v>
+      </c>
+      <c r="AQ71" s="34" t="s">
+        <v>2697</v>
+      </c>
+      <c r="AR71" s="34" t="s">
+        <v>2725</v>
+      </c>
     </row>
-    <row r="72" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="32"/>
       <c r="B72" s="32"/>
       <c r="C72" s="33" t="s">
@@ -34086,8 +36707,125 @@
       <c r="E72" s="32" t="s">
         <v>2300</v>
       </c>
+      <c r="F72" s="34" t="s">
+        <v>2373</v>
+      </c>
+      <c r="G72" s="34" t="s">
+        <v>2461</v>
+      </c>
+      <c r="H72" s="34" t="s">
+        <v>2766</v>
+      </c>
+      <c r="I72" s="34" t="s">
+        <v>2780</v>
+      </c>
+      <c r="J72" s="34" t="s">
+        <v>2780</v>
+      </c>
+      <c r="K72" s="34" t="s">
+        <v>2632</v>
+      </c>
+      <c r="L72" s="34" t="s">
+        <v>2660</v>
+      </c>
+      <c r="M72" s="34" t="s">
+        <v>2317</v>
+      </c>
+      <c r="N72" s="34" t="s">
+        <v>2530</v>
+      </c>
+      <c r="O72" s="34" t="s">
+        <v>2595</v>
+      </c>
+      <c r="P72" s="34" t="s">
+        <v>2516</v>
+      </c>
+      <c r="Q72" s="34" t="s">
+        <v>2609</v>
+      </c>
+      <c r="R72" s="34" t="s">
+        <v>2412</v>
+      </c>
+      <c r="S72" s="34" t="s">
+        <v>2037</v>
+      </c>
+      <c r="T72" s="34" t="s">
+        <v>2345</v>
+      </c>
+      <c r="U72" s="34" t="s">
+        <v>2300</v>
+      </c>
+      <c r="V72" s="34" t="s">
+        <v>2453</v>
+      </c>
+      <c r="W72" s="34" t="s">
+        <v>2646</v>
+      </c>
+      <c r="X72" s="34" t="s">
+        <v>2401</v>
+      </c>
+      <c r="Y72" s="34" t="s">
+        <v>2740</v>
+      </c>
+      <c r="Z72" s="34" t="s">
+        <v>2583</v>
+      </c>
+      <c r="AA72" s="34" t="s">
+        <v>2331</v>
+      </c>
+      <c r="AB72" s="34" t="s">
+        <v>2489</v>
+      </c>
+      <c r="AC72" s="34" t="s">
+        <v>2425</v>
+      </c>
+      <c r="AD72" s="34" t="s">
+        <v>2387</v>
+      </c>
+      <c r="AE72" s="34" t="s">
+        <v>2475</v>
+      </c>
+      <c r="AF72" s="34" t="s">
+        <v>2503</v>
+      </c>
+      <c r="AG72" s="34" t="s">
+        <v>2571</v>
+      </c>
+      <c r="AH72" s="34" t="s">
+        <v>2557</v>
+      </c>
+      <c r="AI72" s="34" t="s">
+        <v>2623</v>
+      </c>
+      <c r="AJ72" s="34" t="s">
+        <v>2672</v>
+      </c>
+      <c r="AK72" s="34" t="s">
+        <v>2489</v>
+      </c>
+      <c r="AL72" s="34" t="s">
+        <v>2401</v>
+      </c>
+      <c r="AM72" s="34" t="s">
+        <v>2712</v>
+      </c>
+      <c r="AN72" s="34" t="s">
+        <v>2754</v>
+      </c>
+      <c r="AO72" s="34" t="s">
+        <v>2359</v>
+      </c>
+      <c r="AP72" s="34" t="s">
+        <v>2439</v>
+      </c>
+      <c r="AQ72" s="34" t="s">
+        <v>2698</v>
+      </c>
+      <c r="AR72" s="34" t="s">
+        <v>2726</v>
+      </c>
     </row>
-    <row r="73" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="32"/>
       <c r="B73" s="32"/>
       <c r="C73" s="33" t="s">
@@ -34097,8 +36835,125 @@
       <c r="E73" s="32" t="s">
         <v>2302</v>
       </c>
+      <c r="F73" s="34" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G73" s="34" t="s">
+        <v>2462</v>
+      </c>
+      <c r="H73" s="34" t="s">
+        <v>2767</v>
+      </c>
+      <c r="I73" s="34" t="s">
+        <v>2788</v>
+      </c>
+      <c r="J73" s="34" t="s">
+        <v>2781</v>
+      </c>
+      <c r="K73" s="34" t="s">
+        <v>2633</v>
+      </c>
+      <c r="L73" s="34" t="s">
+        <v>2661</v>
+      </c>
+      <c r="M73" s="34" t="s">
+        <v>2318</v>
+      </c>
+      <c r="N73" s="34" t="s">
+        <v>2531</v>
+      </c>
+      <c r="O73" s="34" t="s">
+        <v>2596</v>
+      </c>
+      <c r="P73" s="34" t="s">
+        <v>2517</v>
+      </c>
+      <c r="Q73" s="34" t="s">
+        <v>2610</v>
+      </c>
+      <c r="R73" s="34" t="s">
+        <v>2413</v>
+      </c>
+      <c r="S73" s="34" t="s">
+        <v>2544</v>
+      </c>
+      <c r="T73" s="34" t="s">
+        <v>2346</v>
+      </c>
+      <c r="U73" s="34" t="s">
+        <v>2302</v>
+      </c>
+      <c r="V73" s="34" t="s">
+        <v>2454</v>
+      </c>
+      <c r="W73" s="34" t="s">
+        <v>2647</v>
+      </c>
+      <c r="X73" s="34" t="s">
+        <v>2402</v>
+      </c>
+      <c r="Y73" s="34" t="s">
+        <v>2741</v>
+      </c>
+      <c r="Z73" s="34" t="s">
+        <v>2584</v>
+      </c>
+      <c r="AA73" s="34" t="s">
+        <v>2332</v>
+      </c>
+      <c r="AB73" s="34" t="s">
+        <v>2490</v>
+      </c>
+      <c r="AC73" s="34" t="s">
+        <v>2426</v>
+      </c>
+      <c r="AD73" s="34" t="s">
+        <v>2388</v>
+      </c>
+      <c r="AE73" s="34" t="s">
+        <v>2476</v>
+      </c>
+      <c r="AF73" s="34" t="s">
+        <v>2005</v>
+      </c>
+      <c r="AG73" s="34" t="s">
+        <v>2572</v>
+      </c>
+      <c r="AH73" s="34" t="s">
+        <v>2558</v>
+      </c>
+      <c r="AI73" s="34" t="s">
+        <v>2624</v>
+      </c>
+      <c r="AJ73" s="34" t="s">
+        <v>2673</v>
+      </c>
+      <c r="AK73" s="34" t="s">
+        <v>2686</v>
+      </c>
+      <c r="AL73" s="34" t="s">
+        <v>2402</v>
+      </c>
+      <c r="AM73" s="34" t="s">
+        <v>2713</v>
+      </c>
+      <c r="AN73" s="34" t="s">
+        <v>2755</v>
+      </c>
+      <c r="AO73" s="34" t="s">
+        <v>2360</v>
+      </c>
+      <c r="AP73" s="34" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AQ73" s="34" t="s">
+        <v>2699</v>
+      </c>
+      <c r="AR73" s="34" t="s">
+        <v>2727</v>
+      </c>
     </row>
-    <row r="74" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="32"/>
       <c r="B74" s="32"/>
       <c r="C74" s="32" t="s">
@@ -34108,8 +36963,125 @@
       <c r="E74" s="32" t="s">
         <v>2303</v>
       </c>
+      <c r="F74" s="34" t="s">
+        <v>2375</v>
+      </c>
+      <c r="G74" s="34" t="s">
+        <v>2463</v>
+      </c>
+      <c r="H74" s="34" t="s">
+        <v>2768</v>
+      </c>
+      <c r="I74" s="34" t="s">
+        <v>2789</v>
+      </c>
+      <c r="J74" s="34" t="s">
+        <v>2782</v>
+      </c>
+      <c r="K74" s="34" t="s">
+        <v>2634</v>
+      </c>
+      <c r="L74" s="34" t="s">
+        <v>2662</v>
+      </c>
+      <c r="M74" s="34" t="s">
+        <v>2319</v>
+      </c>
+      <c r="N74" s="34" t="s">
+        <v>2532</v>
+      </c>
+      <c r="O74" s="34" t="s">
+        <v>2597</v>
+      </c>
+      <c r="P74" s="34" t="s">
+        <v>2518</v>
+      </c>
+      <c r="Q74" s="34" t="s">
+        <v>2611</v>
+      </c>
+      <c r="R74" s="34" t="s">
+        <v>2403</v>
+      </c>
+      <c r="S74" s="34" t="s">
+        <v>2545</v>
+      </c>
+      <c r="T74" s="34" t="s">
+        <v>2347</v>
+      </c>
+      <c r="U74" s="34" t="s">
+        <v>2303</v>
+      </c>
+      <c r="V74" s="34" t="s">
+        <v>1965</v>
+      </c>
+      <c r="W74" s="34" t="s">
+        <v>2648</v>
+      </c>
+      <c r="X74" s="34" t="s">
+        <v>2403</v>
+      </c>
+      <c r="Y74" s="34" t="s">
+        <v>2742</v>
+      </c>
+      <c r="Z74" s="34" t="s">
+        <v>2361</v>
+      </c>
+      <c r="AA74" s="34" t="s">
+        <v>2333</v>
+      </c>
+      <c r="AB74" s="34" t="s">
+        <v>2491</v>
+      </c>
+      <c r="AC74" s="34" t="s">
+        <v>2427</v>
+      </c>
+      <c r="AD74" s="34" t="s">
+        <v>2389</v>
+      </c>
+      <c r="AE74" s="34" t="s">
+        <v>2477</v>
+      </c>
+      <c r="AF74" s="34" t="s">
+        <v>2504</v>
+      </c>
+      <c r="AG74" s="34" t="s">
+        <v>2573</v>
+      </c>
+      <c r="AH74" s="34" t="s">
+        <v>2559</v>
+      </c>
+      <c r="AI74" s="34" t="s">
+        <v>2403</v>
+      </c>
+      <c r="AJ74" s="34" t="s">
+        <v>2674</v>
+      </c>
+      <c r="AK74" s="34" t="s">
+        <v>2687</v>
+      </c>
+      <c r="AL74" s="34" t="s">
+        <v>2403</v>
+      </c>
+      <c r="AM74" s="34" t="s">
+        <v>2714</v>
+      </c>
+      <c r="AN74" s="34" t="s">
+        <v>2756</v>
+      </c>
+      <c r="AO74" s="34" t="s">
+        <v>2361</v>
+      </c>
+      <c r="AP74" s="34" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AQ74" s="34" t="s">
+        <v>2700</v>
+      </c>
+      <c r="AR74" s="34" t="s">
+        <v>2728</v>
+      </c>
     </row>
-    <row r="75" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="32"/>
       <c r="B75" s="32"/>
       <c r="C75" s="32" t="s">
@@ -34118,6 +37090,134 @@
       <c r="D75" s="32"/>
       <c r="E75" s="32" t="s">
         <v>2304</v>
+      </c>
+      <c r="F75" s="34" t="s">
+        <v>2376</v>
+      </c>
+      <c r="G75" s="34" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H75" s="34" t="s">
+        <v>2769</v>
+      </c>
+      <c r="I75" s="34" t="s">
+        <v>2783</v>
+      </c>
+      <c r="J75" s="34" t="s">
+        <v>2783</v>
+      </c>
+      <c r="K75" s="34" t="s">
+        <v>2635</v>
+      </c>
+      <c r="L75" s="34" t="s">
+        <v>2663</v>
+      </c>
+      <c r="M75" s="34" t="s">
+        <v>2320</v>
+      </c>
+      <c r="N75" s="34" t="s">
+        <v>2533</v>
+      </c>
+      <c r="O75" s="34" t="s">
+        <v>2598</v>
+      </c>
+      <c r="P75" s="34" t="s">
+        <v>2519</v>
+      </c>
+      <c r="Q75" s="34" t="s">
+        <v>2612</v>
+      </c>
+      <c r="R75" s="34" t="s">
+        <v>2414</v>
+      </c>
+      <c r="S75" s="34" t="s">
+        <v>2546</v>
+      </c>
+      <c r="T75" s="34" t="s">
+        <v>2348</v>
+      </c>
+      <c r="U75" s="34" t="s">
+        <v>2304</v>
+      </c>
+      <c r="V75" s="34" t="s">
+        <v>2455</v>
+      </c>
+      <c r="W75" s="34" t="s">
+        <v>2649</v>
+      </c>
+      <c r="X75" s="34" t="s">
+        <v>2404</v>
+      </c>
+      <c r="Y75" s="34" t="s">
+        <v>2743</v>
+      </c>
+      <c r="Z75" s="34" t="s">
+        <v>2585</v>
+      </c>
+      <c r="AA75" s="34" t="s">
+        <v>2334</v>
+      </c>
+      <c r="AB75" s="34" t="s">
+        <v>2492</v>
+      </c>
+      <c r="AC75" s="34" t="s">
+        <v>2428</v>
+      </c>
+      <c r="AD75" s="34" t="s">
+        <v>2390</v>
+      </c>
+      <c r="AE75" s="34" t="s">
+        <v>2478</v>
+      </c>
+      <c r="AF75" s="34" t="s">
+        <v>2505</v>
+      </c>
+      <c r="AG75" s="34" t="s">
+        <v>2574</v>
+      </c>
+      <c r="AH75" s="34" t="s">
+        <v>2560</v>
+      </c>
+      <c r="AI75" s="34" t="s">
+        <v>2625</v>
+      </c>
+      <c r="AJ75" s="34" t="s">
+        <v>2675</v>
+      </c>
+      <c r="AK75" s="34" t="s">
+        <v>2688</v>
+      </c>
+      <c r="AL75" s="34" t="s">
+        <v>2404</v>
+      </c>
+      <c r="AM75" s="34" t="s">
+        <v>2715</v>
+      </c>
+      <c r="AN75" s="34" t="s">
+        <v>2757</v>
+      </c>
+      <c r="AO75" s="34" t="s">
+        <v>2362</v>
+      </c>
+      <c r="AP75" s="34" t="s">
+        <v>2442</v>
+      </c>
+      <c r="AQ75" s="34" t="s">
+        <v>2701</v>
+      </c>
+      <c r="AR75" s="34" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="76" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="29"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29" t="s">
+        <v>2791</v>
+      </c>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29" t="s">
+        <v>2790</v>
       </c>
     </row>
   </sheetData>
